--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK311"/>
+  <dimension ref="A1:BK312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.31</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT7" t="n">
         <v>0.75</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT27" t="n">
         <v>0.88</v>
@@ -6587,7 +6587,7 @@
         <v>2.13</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT43" t="n">
         <v>1.31</v>
@@ -10241,7 +10241,7 @@
         <v>1.38</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU48" t="n">
         <v>1.44</v>
@@ -11256,7 +11256,7 @@
         <v>1.27</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT67" t="n">
         <v>1.13</v>
@@ -16940,7 +16940,7 @@
         <v>1.73</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU81" t="n">
         <v>2.16</v>
@@ -17140,7 +17140,7 @@
         <v>2.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT82" t="n">
         <v>2.4</v>
@@ -19579,7 +19579,7 @@
         <v>1.73</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU94" t="n">
         <v>1.39</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT98" t="n">
         <v>0.73</v>
@@ -23233,7 +23233,7 @@
         <v>0.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT115" t="n">
         <v>1.13</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT134" t="n">
         <v>1.44</v>
@@ -27902,7 +27902,7 @@
         <v>1.67</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -33989,7 +33989,7 @@
         <v>1.88</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT165" t="n">
         <v>1.25</v>
@@ -34398,7 +34398,7 @@
         <v>2.67</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -38658,7 +38658,7 @@
         <v>1.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT188" t="n">
         <v>1.47</v>
@@ -39270,7 +39270,7 @@
         <v>2.25</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU191" t="n">
         <v>1.95</v>
@@ -41500,7 +41500,7 @@
         <v>0.8</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT202" t="n">
         <v>0.6899999999999999</v>
@@ -43127,7 +43127,7 @@
         <v>1.25</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU210" t="n">
         <v>1.44</v>
@@ -45766,7 +45766,7 @@
         <v>1.81</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU223" t="n">
         <v>1.46</v>
@@ -46575,7 +46575,7 @@
         <v>0.36</v>
       </c>
       <c r="AS227" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT227" t="n">
         <v>0.75</v>
@@ -49823,7 +49823,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT243" t="n">
         <v>1.5</v>
@@ -51450,7 +51450,7 @@
         <v>1.75</v>
       </c>
       <c r="AT251" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU251" t="n">
         <v>1.95</v>
@@ -54089,7 +54089,7 @@
         <v>1.13</v>
       </c>
       <c r="AT264" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU264" t="n">
         <v>1.47</v>
@@ -55101,7 +55101,7 @@
         <v>0.83</v>
       </c>
       <c r="AS269" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT269" t="n">
         <v>1.07</v>
@@ -58755,7 +58755,7 @@
         <v>1.64</v>
       </c>
       <c r="AS287" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT287" t="n">
         <v>1.5</v>
@@ -59973,7 +59973,7 @@
         <v>1.5</v>
       </c>
       <c r="AS293" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AT293" t="n">
         <v>1.4</v>
@@ -60179,7 +60179,7 @@
         <v>1.4</v>
       </c>
       <c r="AT294" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU294" t="n">
         <v>1.61</v>
@@ -63682,6 +63682,209 @@
       </c>
       <c r="BK311" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2468232</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45037.66666666666</v>
+      </c>
+      <c r="F312" t="n">
+        <v>32</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>2</v>
+      </c>
+      <c r="K312" t="n">
+        <v>2</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>2</v>
+      </c>
+      <c r="N312" t="n">
+        <v>3</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['9', '26']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>5</v>
+      </c>
+      <c r="R312" t="n">
+        <v>8</v>
+      </c>
+      <c r="S312" t="n">
+        <v>13</v>
+      </c>
+      <c r="T312" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V312" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X312" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK312"/>
+  <dimension ref="A1:BK319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.13</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT9" t="n">
         <v>0.88</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0.8</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT17" t="n">
         <v>0.33</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT18" t="n">
         <v>1.44</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.73</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU32" t="n">
         <v>1.58</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT33" t="n">
         <v>1.13</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT37" t="n">
         <v>2.4</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT39" t="n">
         <v>1.5</v>
@@ -8617,7 +8617,7 @@
         <v>2.38</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>3.14</v>
@@ -9023,7 +9023,7 @@
         <v>1.81</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU42" t="n">
         <v>1.44</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT47" t="n">
         <v>1.25</v>
@@ -10647,7 +10647,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU50" t="n">
         <v>1.98</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT51" t="n">
         <v>2.4</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
         <v>2.31</v>
@@ -11459,7 +11459,7 @@
         <v>1.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU54" t="n">
         <v>1.65</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT55" t="n">
         <v>1.25</v>
@@ -11865,7 +11865,7 @@
         <v>1.31</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU56" t="n">
         <v>0.92</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT57" t="n">
         <v>1.44</v>
@@ -12271,7 +12271,7 @@
         <v>1.13</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12674,10 +12674,10 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT61" t="n">
         <v>1.5</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU62" t="n">
         <v>1.89</v>
@@ -13489,7 +13489,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU64" t="n">
         <v>2.14</v>
@@ -13692,7 +13692,7 @@
         <v>1.13</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT68" t="n">
         <v>1.5</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT69" t="n">
         <v>0.75</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT72" t="n">
         <v>1.25</v>
@@ -15316,7 +15316,7 @@
         <v>1.25</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU73" t="n">
         <v>1.43</v>
@@ -15519,7 +15519,7 @@
         <v>2.13</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -15719,10 +15719,10 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -16128,7 +16128,7 @@
         <v>1.31</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU77" t="n">
         <v>1.06</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT78" t="n">
         <v>0.33</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT80" t="n">
         <v>1.44</v>
@@ -17749,10 +17749,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT88" t="n">
         <v>0.88</v>
@@ -18967,7 +18967,7 @@
         <v>0.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT91" t="n">
         <v>1.5</v>
@@ -19173,7 +19173,7 @@
         <v>1.73</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU92" t="n">
         <v>2.04</v>
@@ -19576,7 +19576,7 @@
         <v>3</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT94" t="n">
         <v>2.31</v>
@@ -19782,7 +19782,7 @@
         <v>1.25</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -20391,7 +20391,7 @@
         <v>0.53</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU98" t="n">
         <v>1.52</v>
@@ -20591,10 +20591,10 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU99" t="n">
         <v>1.56</v>
@@ -21203,7 +21203,7 @@
         <v>1.13</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT103" t="n">
         <v>1.31</v>
@@ -21606,7 +21606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT104" t="n">
         <v>1.13</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -22621,7 +22621,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT109" t="n">
         <v>0.88</v>
@@ -22827,7 +22827,7 @@
         <v>1.81</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU110" t="n">
         <v>1.38</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT112" t="n">
         <v>2.31</v>
@@ -24042,7 +24042,7 @@
         <v>0.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT116" t="n">
         <v>0.75</v>
@@ -24654,7 +24654,7 @@
         <v>1.38</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -24854,7 +24854,7 @@
         <v>0.33</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT120" t="n">
         <v>0.75</v>
@@ -25060,7 +25060,7 @@
         <v>2.13</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -25260,10 +25260,10 @@
         <v>0.8</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU122" t="n">
         <v>1.97</v>
@@ -25466,7 +25466,7 @@
         <v>2.38</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU123" t="n">
         <v>2.18</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT125" t="n">
         <v>0.6899999999999999</v>
@@ -26478,10 +26478,10 @@
         <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU128" t="n">
         <v>1.57</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT130" t="n">
         <v>1.5</v>
@@ -27090,7 +27090,7 @@
         <v>1.73</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU131" t="n">
         <v>2.07</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU133" t="n">
         <v>1.28</v>
@@ -27899,7 +27899,7 @@
         <v>2.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT135" t="n">
         <v>2.31</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT137" t="n">
         <v>0.88</v>
@@ -28508,7 +28508,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT138" t="n">
         <v>0.75</v>
@@ -28714,7 +28714,7 @@
         <v>1.38</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -29523,10 +29523,10 @@
         <v>1.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU143" t="n">
         <v>1.94</v>
@@ -29729,7 +29729,7 @@
         <v>2.25</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -30135,7 +30135,7 @@
         <v>1.13</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU146" t="n">
         <v>1.6</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT148" t="n">
         <v>0.6899999999999999</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT152" t="n">
         <v>0.33</v>
@@ -31756,10 +31756,10 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31962,7 +31962,7 @@
         <v>1.31</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU155" t="n">
         <v>1.41</v>
@@ -32368,7 +32368,7 @@
         <v>2.38</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU157" t="n">
         <v>2.18</v>
@@ -32568,7 +32568,7 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT158" t="n">
         <v>1.13</v>
@@ -32771,7 +32771,7 @@
         <v>1.43</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT159" t="n">
         <v>1.13</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT160" t="n">
         <v>1.44</v>
@@ -33180,7 +33180,7 @@
         <v>1.75</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU161" t="n">
         <v>1.84</v>
@@ -33583,7 +33583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT163" t="n">
         <v>0.75</v>
@@ -34195,7 +34195,7 @@
         <v>1.73</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU166" t="n">
         <v>1.84</v>
@@ -34395,7 +34395,7 @@
         <v>2.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT167" t="n">
         <v>2.31</v>
@@ -34601,7 +34601,7 @@
         <v>1.13</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU168" t="n">
         <v>1.45</v>
@@ -35410,7 +35410,7 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT172" t="n">
         <v>1.31</v>
@@ -35613,10 +35613,10 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -36019,7 +36019,7 @@
         <v>0.88</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT175" t="n">
         <v>1.5</v>
@@ -36225,7 +36225,7 @@
         <v>1.13</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU176" t="n">
         <v>1.67</v>
@@ -36425,10 +36425,10 @@
         <v>2.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU177" t="n">
         <v>1.59</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT178" t="n">
         <v>1.13</v>
@@ -37440,7 +37440,7 @@
         <v>0.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT182" t="n">
         <v>0.75</v>
@@ -37849,7 +37849,7 @@
         <v>1.73</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU184" t="n">
         <v>1.8</v>
@@ -38052,7 +38052,7 @@
         <v>2.13</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU185" t="n">
         <v>1.83</v>
@@ -38252,7 +38252,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT186" t="n">
         <v>1.5</v>
@@ -38661,7 +38661,7 @@
         <v>0.53</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU188" t="n">
         <v>1.47</v>
@@ -39470,7 +39470,7 @@
         <v>1.11</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT192" t="n">
         <v>1.13</v>
@@ -39879,7 +39879,7 @@
         <v>1.75</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU194" t="n">
         <v>1.89</v>
@@ -40079,10 +40079,10 @@
         <v>1.56</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -40282,7 +40282,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT196" t="n">
         <v>1.13</v>
@@ -40488,7 +40488,7 @@
         <v>1.13</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU197" t="n">
         <v>1.52</v>
@@ -41094,7 +41094,7 @@
         <v>0.89</v>
       </c>
       <c r="AS200" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT200" t="n">
         <v>1.5</v>
@@ -41703,7 +41703,7 @@
         <v>1.8</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT203" t="n">
         <v>1.25</v>
@@ -41909,7 +41909,7 @@
         <v>1.38</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU204" t="n">
         <v>1.72</v>
@@ -42109,7 +42109,7 @@
         <v>2.22</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT205" t="n">
         <v>2.4</v>
@@ -42315,7 +42315,7 @@
         <v>2.13</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU206" t="n">
         <v>1.89</v>
@@ -42515,7 +42515,7 @@
         <v>1.3</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT207" t="n">
         <v>1.5</v>
@@ -42721,7 +42721,7 @@
         <v>2.25</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU208" t="n">
         <v>1.89</v>
@@ -43533,7 +43533,7 @@
         <v>2.38</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU212" t="n">
         <v>2.04</v>
@@ -43939,7 +43939,7 @@
         <v>2.25</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU214" t="n">
         <v>1.81</v>
@@ -44142,7 +44142,7 @@
         <v>1.31</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU215" t="n">
         <v>1.33</v>
@@ -44342,7 +44342,7 @@
         <v>0.4</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT216" t="n">
         <v>0.33</v>
@@ -44545,7 +44545,7 @@
         <v>0.73</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT217" t="n">
         <v>0.75</v>
@@ -44951,7 +44951,7 @@
         <v>1.18</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT219" t="n">
         <v>1.31</v>
@@ -45560,7 +45560,7 @@
         <v>1</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT222" t="n">
         <v>0.6899999999999999</v>
@@ -46372,10 +46372,10 @@
         <v>0.82</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU226" t="n">
         <v>1.96</v>
@@ -46781,7 +46781,7 @@
         <v>2.13</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU228" t="n">
         <v>1.95</v>
@@ -47184,7 +47184,7 @@
         <v>1.64</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT230" t="n">
         <v>1.25</v>
@@ -47590,7 +47590,7 @@
         <v>1.27</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT232" t="n">
         <v>1.5</v>
@@ -47793,7 +47793,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT233" t="n">
         <v>1.31</v>
@@ -48202,7 +48202,7 @@
         <v>2.38</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU235" t="n">
         <v>2.08</v>
@@ -48402,7 +48402,7 @@
         <v>0.92</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT236" t="n">
         <v>0.6899999999999999</v>
@@ -48608,7 +48608,7 @@
         <v>1.13</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU237" t="n">
         <v>1.54</v>
@@ -48811,7 +48811,7 @@
         <v>2.25</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU238" t="n">
         <v>1.78</v>
@@ -49214,7 +49214,7 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT240" t="n">
         <v>0.75</v>
@@ -50229,7 +50229,7 @@
         <v>0.42</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT245" t="n">
         <v>0.75</v>
@@ -50432,10 +50432,10 @@
         <v>0.91</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU246" t="n">
         <v>2.02</v>
@@ -50638,7 +50638,7 @@
         <v>1.31</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU247" t="n">
         <v>1.28</v>
@@ -50838,10 +50838,10 @@
         <v>0.75</v>
       </c>
       <c r="AS248" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU248" t="n">
         <v>1.38</v>
@@ -51041,7 +51041,7 @@
         <v>0.91</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT249" t="n">
         <v>1.13</v>
@@ -51650,7 +51650,7 @@
         <v>0.62</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT252" t="n">
         <v>0.75</v>
@@ -51853,10 +51853,10 @@
         <v>1.42</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU253" t="n">
         <v>1.86</v>
@@ -52262,7 +52262,7 @@
         <v>0.8</v>
       </c>
       <c r="AT255" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU255" t="n">
         <v>1.45</v>
@@ -52462,7 +52462,7 @@
         <v>0.85</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT256" t="n">
         <v>0.6899999999999999</v>
@@ -52668,7 +52668,7 @@
         <v>1.38</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU257" t="n">
         <v>1.69</v>
@@ -53883,7 +53883,7 @@
         <v>1.08</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT263" t="n">
         <v>1.13</v>
@@ -54492,10 +54492,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU266" t="n">
         <v>1.48</v>
@@ -54695,7 +54695,7 @@
         <v>1.69</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT267" t="n">
         <v>1.5</v>
@@ -54898,7 +54898,7 @@
         <v>1.08</v>
       </c>
       <c r="AS268" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT268" t="n">
         <v>1.13</v>
@@ -55104,7 +55104,7 @@
         <v>0.53</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU269" t="n">
         <v>1.39</v>
@@ -55510,7 +55510,7 @@
         <v>1.75</v>
       </c>
       <c r="AT271" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU271" t="n">
         <v>1.97</v>
@@ -55916,7 +55916,7 @@
         <v>1.38</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU273" t="n">
         <v>1.62</v>
@@ -56116,7 +56116,7 @@
         <v>0.38</v>
       </c>
       <c r="AS274" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT274" t="n">
         <v>0.33</v>
@@ -56319,10 +56319,10 @@
         <v>2.15</v>
       </c>
       <c r="AS275" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT275" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU275" t="n">
         <v>1.36</v>
@@ -56525,7 +56525,7 @@
         <v>1.25</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU276" t="n">
         <v>1.44</v>
@@ -57131,7 +57131,7 @@
         <v>1.46</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT279" t="n">
         <v>1.25</v>
@@ -57537,7 +57537,7 @@
         <v>2.46</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT281" t="n">
         <v>2.4</v>
@@ -57943,10 +57943,10 @@
         <v>0.64</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU283" t="n">
         <v>1.52</v>
@@ -58555,7 +58555,7 @@
         <v>1.13</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU286" t="n">
         <v>1.44</v>
@@ -59161,7 +59161,7 @@
         <v>1.29</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT289" t="n">
         <v>1.31</v>
@@ -59367,7 +59367,7 @@
         <v>1.81</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU290" t="n">
         <v>1.56</v>
@@ -59770,10 +59770,10 @@
         <v>0.79</v>
       </c>
       <c r="AS292" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU292" t="n">
         <v>1.75</v>
@@ -59976,7 +59976,7 @@
         <v>0.53</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU293" t="n">
         <v>1.4</v>
@@ -60176,7 +60176,7 @@
         <v>2.21</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT294" t="n">
         <v>2.31</v>
@@ -60582,7 +60582,7 @@
         <v>0.6</v>
       </c>
       <c r="AS296" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT296" t="n">
         <v>0.75</v>
@@ -60788,7 +60788,7 @@
         <v>1.25</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU297" t="n">
         <v>1.51</v>
@@ -60988,7 +60988,7 @@
         <v>0.87</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT298" t="n">
         <v>0.88</v>
@@ -61194,7 +61194,7 @@
         <v>0.8</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU299" t="n">
         <v>1.47</v>
@@ -61394,10 +61394,10 @@
         <v>2.21</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT300" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU300" t="n">
         <v>1.57</v>
@@ -61597,7 +61597,7 @@
         <v>2.5</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT301" t="n">
         <v>2.4</v>
@@ -63221,7 +63221,7 @@
         <v>0.8</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT309" t="n">
         <v>0.75</v>
@@ -63630,7 +63630,7 @@
         <v>1.75</v>
       </c>
       <c r="AT311" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU311" t="n">
         <v>1.86</v>
@@ -63884,6 +63884,1427 @@
         <v>13</v>
       </c>
       <c r="BK312" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2468231</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45038.5</v>
+      </c>
+      <c r="F313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1</v>
+      </c>
+      <c r="N313" t="n">
+        <v>2</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>4</v>
+      </c>
+      <c r="R313" t="n">
+        <v>4</v>
+      </c>
+      <c r="S313" t="n">
+        <v>8</v>
+      </c>
+      <c r="T313" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V313" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2468238</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45038.66666666666</v>
+      </c>
+      <c r="F314" t="n">
+        <v>32</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>2</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>2</v>
+      </c>
+      <c r="L314" t="n">
+        <v>3</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>3</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['9', '16', '56']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>2</v>
+      </c>
+      <c r="R314" t="n">
+        <v>4</v>
+      </c>
+      <c r="S314" t="n">
+        <v>6</v>
+      </c>
+      <c r="T314" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V314" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X314" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2468239</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45039.33333333334</v>
+      </c>
+      <c r="F315" t="n">
+        <v>32</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>2</v>
+      </c>
+      <c r="K315" t="n">
+        <v>2</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>2</v>
+      </c>
+      <c r="N315" t="n">
+        <v>2</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['1', '37']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>5</v>
+      </c>
+      <c r="R315" t="n">
+        <v>4</v>
+      </c>
+      <c r="S315" t="n">
+        <v>9</v>
+      </c>
+      <c r="T315" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V315" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X315" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2468236</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F316" t="n">
+        <v>32</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1</v>
+      </c>
+      <c r="K316" t="n">
+        <v>2</v>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="n">
+        <v>2</v>
+      </c>
+      <c r="N316" t="n">
+        <v>3</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['37', '83']</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>6</v>
+      </c>
+      <c r="R316" t="n">
+        <v>2</v>
+      </c>
+      <c r="S316" t="n">
+        <v>8</v>
+      </c>
+      <c r="T316" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V316" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X316" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2468230</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F317" t="n">
+        <v>32</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>4</v>
+      </c>
+      <c r="R317" t="n">
+        <v>4</v>
+      </c>
+      <c r="S317" t="n">
+        <v>8</v>
+      </c>
+      <c r="T317" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="U317" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V317" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X317" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2468233</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F318" t="n">
+        <v>32</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>1</v>
+      </c>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q318" t="n">
+        <v>2</v>
+      </c>
+      <c r="R318" t="n">
+        <v>7</v>
+      </c>
+      <c r="S318" t="n">
+        <v>9</v>
+      </c>
+      <c r="T318" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U318" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V318" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X318" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2468234</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F319" t="n">
+        <v>32</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>1</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="n">
+        <v>2</v>
+      </c>
+      <c r="M319" t="n">
+        <v>2</v>
+      </c>
+      <c r="N319" t="n">
+        <v>4</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>['25', '90+6']</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>['64', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q319" t="n">
+        <v>13</v>
+      </c>
+      <c r="R319" t="n">
+        <v>4</v>
+      </c>
+      <c r="S319" t="n">
+        <v>17</v>
+      </c>
+      <c r="T319" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U319" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V319" t="n">
+        <v>5</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X319" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK319" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK319"/>
+  <dimension ref="A1:BK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT2" t="n">
         <v>0.6899999999999999</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT8" t="n">
         <v>0.59</v>
@@ -3136,7 +3136,7 @@
         <v>1.81</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.13</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT21" t="n">
         <v>0.59</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT28" t="n">
         <v>0.75</v>
@@ -7196,7 +7196,7 @@
         <v>2.69</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -8008,7 +8008,7 @@
         <v>1.31</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT41" t="n">
         <v>0.75</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT45" t="n">
         <v>0.6899999999999999</v>
@@ -10850,7 +10850,7 @@
         <v>1.31</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU51" t="n">
         <v>1.36</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT52" t="n">
         <v>0.33</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT54" t="n">
         <v>1.38</v>
@@ -12474,7 +12474,7 @@
         <v>0.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU59" t="n">
         <v>2.18</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT73" t="n">
         <v>0.88</v>
@@ -16534,7 +16534,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU79" t="n">
         <v>2.05</v>
@@ -16937,7 +16937,7 @@
         <v>3</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT81" t="n">
         <v>2.31</v>
@@ -17143,7 +17143,7 @@
         <v>0.53</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU82" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>1.13</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU83" t="n">
         <v>1.41</v>
@@ -19170,7 +19170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT92" t="n">
         <v>1.19</v>
@@ -19779,7 +19779,7 @@
         <v>2.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT95" t="n">
         <v>2</v>
@@ -23030,7 +23030,7 @@
         <v>2.38</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU111" t="n">
         <v>2.1</v>
@@ -23433,7 +23433,7 @@
         <v>0.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT113" t="n">
         <v>1.5</v>
@@ -23842,7 +23842,7 @@
         <v>0.53</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU115" t="n">
         <v>1.56</v>
@@ -25669,7 +25669,7 @@
         <v>1.13</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU124" t="n">
         <v>1.3</v>
@@ -27087,7 +27087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT131" t="n">
         <v>1.38</v>
@@ -28917,7 +28917,7 @@
         <v>2.13</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -29320,7 +29320,7 @@
         <v>1.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT142" t="n">
         <v>1.5</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT149" t="n">
         <v>1.31</v>
@@ -31150,7 +31150,7 @@
         <v>1.81</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU151" t="n">
         <v>1.31</v>
@@ -32774,7 +32774,7 @@
         <v>1.63</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU159" t="n">
         <v>1.91</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT166" t="n">
         <v>1.56</v>
@@ -35004,10 +35004,10 @@
         <v>2</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU170" t="n">
         <v>1.48</v>
@@ -35819,7 +35819,7 @@
         <v>1.31</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU174" t="n">
         <v>1.39</v>
@@ -37240,7 +37240,7 @@
         <v>0.8</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU181" t="n">
         <v>1.76</v>
@@ -37846,7 +37846,7 @@
         <v>0.75</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT184" t="n">
         <v>0.88</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT189" t="n">
         <v>0.75</v>
@@ -39473,7 +39473,7 @@
         <v>1.56</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU192" t="n">
         <v>1.58</v>
@@ -42112,7 +42112,7 @@
         <v>1.25</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU205" t="n">
         <v>1.56</v>
@@ -43124,7 +43124,7 @@
         <v>2.2</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT210" t="n">
         <v>2.31</v>
@@ -43327,7 +43327,7 @@
         <v>0.8</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT211" t="n">
         <v>0.88</v>
@@ -45969,7 +45969,7 @@
         <v>1.31</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU224" t="n">
         <v>1.31</v>
@@ -46172,7 +46172,7 @@
         <v>1.38</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU225" t="n">
         <v>1.71</v>
@@ -46981,7 +46981,7 @@
         <v>0.82</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT229" t="n">
         <v>0.88</v>
@@ -47387,7 +47387,7 @@
         <v>1.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT231" t="n">
         <v>1.44</v>
@@ -49420,7 +49420,7 @@
         <v>1.38</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU241" t="n">
         <v>1.7</v>
@@ -50026,7 +50026,7 @@
         <v>1.33</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT244" t="n">
         <v>1.44</v>
@@ -51044,7 +51044,7 @@
         <v>1.25</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU249" t="n">
         <v>1.55</v>
@@ -52868,7 +52868,7 @@
         <v>0.42</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT258" t="n">
         <v>0.33</v>
@@ -53274,7 +53274,7 @@
         <v>1.5</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT260" t="n">
         <v>1.25</v>
@@ -53480,7 +53480,7 @@
         <v>2.25</v>
       </c>
       <c r="AT261" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU261" t="n">
         <v>1.71</v>
@@ -53886,7 +53886,7 @@
         <v>1.31</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU263" t="n">
         <v>1.56</v>
@@ -55710,7 +55710,7 @@
         <v>0.79</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT272" t="n">
         <v>0.75</v>
@@ -56522,7 +56522,7 @@
         <v>1.46</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT276" t="n">
         <v>1.56</v>
@@ -57337,7 +57337,7 @@
         <v>2.38</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU280" t="n">
         <v>2.09</v>
@@ -57540,7 +57540,7 @@
         <v>1.63</v>
       </c>
       <c r="AT281" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU281" t="n">
         <v>1.96</v>
@@ -60379,10 +60379,10 @@
         <v>1.21</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU295" t="n">
         <v>1.97</v>
@@ -60785,7 +60785,7 @@
         <v>0.93</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT297" t="n">
         <v>1.19</v>
@@ -61600,7 +61600,7 @@
         <v>1.56</v>
       </c>
       <c r="AT301" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU301" t="n">
         <v>1.48</v>
@@ -64684,19 +64684,19 @@
         <v>6</v>
       </c>
       <c r="BG316" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH316" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI316" t="n">
         <v>5</v>
       </c>
       <c r="BJ316" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BK316" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
@@ -64887,19 +64887,19 @@
         <v>3</v>
       </c>
       <c r="BG317" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI317" t="n">
         <v>4</v>
       </c>
       <c r="BJ317" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK317" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318">
@@ -65090,16 +65090,16 @@
         <v>2</v>
       </c>
       <c r="BG318" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI318" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ318" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK318" t="n">
         <v>12</v>
@@ -65290,22 +65290,428 @@
         <v>2.84</v>
       </c>
       <c r="BF319" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2468235</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45039.50347222222</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>1</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>4</v>
+      </c>
+      <c r="R320" t="n">
+        <v>4</v>
+      </c>
+      <c r="S320" t="n">
+        <v>8</v>
+      </c>
+      <c r="T320" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V320" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X320" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG320" t="n">
         <v>9</v>
       </c>
-      <c r="BG319" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH319" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI319" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ319" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK319" t="n">
-        <v>6</v>
+      <c r="AH320" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2468237</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45039.65625</v>
+      </c>
+      <c r="F321" t="n">
+        <v>32</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1</v>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="n">
+        <v>2</v>
+      </c>
+      <c r="N321" t="n">
+        <v>3</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['44', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>5</v>
+      </c>
+      <c r="R321" t="n">
+        <v>3</v>
+      </c>
+      <c r="S321" t="n">
+        <v>8</v>
+      </c>
+      <c r="T321" t="n">
+        <v>3</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V321" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X321" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK321"/>
+  <dimension ref="A1:BK322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT3" t="n">
         <v>2</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT24" t="n">
         <v>1.31</v>
@@ -8414,7 +8414,7 @@
         <v>1.63</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU39" t="n">
         <v>1.44</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT44" t="n">
         <v>0.75</v>
@@ -12880,7 +12880,7 @@
         <v>1.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU61" t="n">
         <v>2.44</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT65" t="n">
         <v>1.56</v>
@@ -14910,7 +14910,7 @@
         <v>1.81</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU71" t="n">
         <v>1.43</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT83" t="n">
         <v>1.06</v>
@@ -18970,7 +18970,7 @@
         <v>2.69</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU91" t="n">
         <v>1.81</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT102" t="n">
         <v>1.38</v>
@@ -22218,7 +22218,7 @@
         <v>2.25</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU107" t="n">
         <v>1.98</v>
@@ -23436,7 +23436,7 @@
         <v>1.35</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU113" t="n">
         <v>1.39</v>
@@ -25666,7 +25666,7 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT124" t="n">
         <v>2.44</v>
@@ -29120,7 +29120,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU141" t="n">
         <v>1.93</v>
@@ -30944,7 +30944,7 @@
         <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT150" t="n">
         <v>1.25</v>
@@ -32165,7 +32165,7 @@
         <v>1.13</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU156" t="n">
         <v>1.65</v>
@@ -34598,7 +34598,7 @@
         <v>0.75</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT168" t="n">
         <v>0.59</v>
@@ -36022,7 +36022,7 @@
         <v>1.25</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU175" t="n">
         <v>1.57</v>
@@ -37034,7 +37034,7 @@
         <v>1.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT180" t="n">
         <v>1.44</v>
@@ -40485,7 +40485,7 @@
         <v>0.78</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT197" t="n">
         <v>1.19</v>
@@ -41097,7 +41097,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU200" t="n">
         <v>1.36</v>
@@ -43736,7 +43736,7 @@
         <v>0.8</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU213" t="n">
         <v>1.55</v>
@@ -44748,7 +44748,7 @@
         <v>1</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT218" t="n">
         <v>1.13</v>
@@ -47593,7 +47593,7 @@
         <v>1.31</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU232" t="n">
         <v>1.63</v>
@@ -47996,7 +47996,7 @@
         <v>0.45</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT234" t="n">
         <v>0.33</v>
@@ -49826,7 +49826,7 @@
         <v>0.53</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU243" t="n">
         <v>1.38</v>
@@ -53071,7 +53071,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT259" t="n">
         <v>0.88</v>
@@ -53683,7 +53683,7 @@
         <v>2.13</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU262" t="n">
         <v>1.98</v>
@@ -56725,7 +56725,7 @@
         <v>0.64</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT277" t="n">
         <v>0.75</v>
@@ -59570,7 +59570,7 @@
         <v>2.38</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU291" t="n">
         <v>2.08</v>
@@ -61803,7 +61803,7 @@
         <v>1.38</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU302" t="n">
         <v>1.63</v>
@@ -62815,7 +62815,7 @@
         <v>0.73</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT307" t="n">
         <v>0.6899999999999999</v>
@@ -65712,6 +65712,209 @@
       </c>
       <c r="BK321" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2468245</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45044.66666666666</v>
+      </c>
+      <c r="F322" t="n">
+        <v>33</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>2</v>
+      </c>
+      <c r="K322" t="n">
+        <v>3</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>2</v>
+      </c>
+      <c r="N322" t="n">
+        <v>3</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>['32', '36']</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>5</v>
+      </c>
+      <c r="R322" t="n">
+        <v>4</v>
+      </c>
+      <c r="S322" t="n">
+        <v>9</v>
+      </c>
+      <c r="T322" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V322" t="n">
+        <v>3</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X322" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK322"/>
+  <dimension ref="A1:BK324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT6" t="n">
         <v>0.75</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT13" t="n">
         <v>1.06</v>
@@ -3339,7 +3339,7 @@
         <v>2.38</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT22" t="n">
         <v>1.44</v>
@@ -6384,7 +6384,7 @@
         <v>2.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU29" t="n">
         <v>1.89</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT30" t="n">
         <v>2.31</v>
@@ -8211,7 +8211,7 @@
         <v>1.13</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT42" t="n">
         <v>0.59</v>
@@ -9632,7 +9632,7 @@
         <v>1.35</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>0.53</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14907,7 +14907,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT71" t="n">
         <v>1.59</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT74" t="n">
         <v>1.19</v>
@@ -15925,7 +15925,7 @@
         <v>1.13</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU76" t="n">
         <v>1.49</v>
@@ -17955,7 +17955,7 @@
         <v>1.38</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT90" t="n">
         <v>0.75</v>
@@ -19376,7 +19376,7 @@
         <v>1.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU93" t="n">
         <v>2.04</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT101" t="n">
         <v>1.44</v>
@@ -21609,7 +21609,7 @@
         <v>2.69</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -22421,7 +22421,7 @@
         <v>0.8</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22824,7 +22824,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT110" t="n">
         <v>1.56</v>
@@ -25057,7 +25057,7 @@
         <v>2.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT121" t="n">
         <v>2</v>
@@ -25872,7 +25872,7 @@
         <v>1.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,7 +26072,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT126" t="n">
         <v>0.33</v>
@@ -26278,7 +26278,7 @@
         <v>2.25</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU127" t="n">
         <v>1.91</v>
@@ -28105,7 +28105,7 @@
         <v>1.31</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT140" t="n">
         <v>1.06</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT147" t="n">
         <v>0.33</v>
@@ -30541,7 +30541,7 @@
         <v>1.25</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU148" t="n">
         <v>1.6</v>
@@ -31147,7 +31147,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT151" t="n">
         <v>2.44</v>
@@ -32571,7 +32571,7 @@
         <v>1.56</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU158" t="n">
         <v>1.59</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT162" t="n">
         <v>0.88</v>
@@ -33789,7 +33789,7 @@
         <v>1.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU164" t="n">
         <v>1.65</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT169" t="n">
         <v>1.31</v>
@@ -36631,7 +36631,7 @@
         <v>1.31</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU178" t="n">
         <v>1.66</v>
@@ -38049,7 +38049,7 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT185" t="n">
         <v>0.59</v>
@@ -39064,10 +39064,10 @@
         <v>0.89</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU190" t="n">
         <v>1.4</v>
@@ -40285,7 +40285,7 @@
         <v>1.31</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU196" t="n">
         <v>1.6</v>
@@ -41503,7 +41503,7 @@
         <v>0.53</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU202" t="n">
         <v>1.42</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT206" t="n">
         <v>1.56</v>
@@ -42921,7 +42921,7 @@
         <v>0.4</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT209" t="n">
         <v>0.75</v>
@@ -44751,7 +44751,7 @@
         <v>1.06</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU218" t="n">
         <v>1.5</v>
@@ -45563,7 +45563,7 @@
         <v>1.31</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU222" t="n">
         <v>1.71</v>
@@ -45763,7 +45763,7 @@
         <v>2.27</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT223" t="n">
         <v>2.31</v>
@@ -46778,7 +46778,7 @@
         <v>0.9</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT228" t="n">
         <v>0.88</v>
@@ -48405,7 +48405,7 @@
         <v>1.56</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU236" t="n">
         <v>1.52</v>
@@ -49014,7 +49014,7 @@
         <v>0.8</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU239" t="n">
         <v>1.51</v>
@@ -49620,7 +49620,7 @@
         <v>0.75</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT242" t="n">
         <v>0.88</v>
@@ -51244,7 +51244,7 @@
         <v>1.58</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT250" t="n">
         <v>1.5</v>
@@ -52465,7 +52465,7 @@
         <v>1.63</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU256" t="n">
         <v>2.03</v>
@@ -53680,7 +53680,7 @@
         <v>1.31</v>
       </c>
       <c r="AS262" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT262" t="n">
         <v>1.59</v>
@@ -54901,7 +54901,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU268" t="n">
         <v>1.41</v>
@@ -55304,7 +55304,7 @@
         <v>1.15</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT270" t="n">
         <v>1.31</v>
@@ -57743,7 +57743,7 @@
         <v>1.75</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU282" t="n">
         <v>1.9</v>
@@ -58349,7 +58349,7 @@
         <v>1.43</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT285" t="n">
         <v>1.25</v>
@@ -58961,7 +58961,7 @@
         <v>1.31</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU288" t="n">
         <v>1.27</v>
@@ -59364,7 +59364,7 @@
         <v>0.85</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT290" t="n">
         <v>0.88</v>
@@ -62409,10 +62409,10 @@
         <v>1.21</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU305" t="n">
         <v>1.97</v>
@@ -62818,7 +62818,7 @@
         <v>1.06</v>
       </c>
       <c r="AT307" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU307" t="n">
         <v>1.45</v>
@@ -63424,7 +63424,7 @@
         <v>1.33</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT310" t="n">
         <v>1.25</v>
@@ -65915,6 +65915,412 @@
       </c>
       <c r="BK322" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2468242</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45045.5</v>
+      </c>
+      <c r="F323" t="n">
+        <v>33</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>3</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>3</v>
+      </c>
+      <c r="L323" t="n">
+        <v>3</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>3</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['22', '33', '37']</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>9</v>
+      </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
+      <c r="S323" t="n">
+        <v>9</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V323" t="n">
+        <v>12</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X323" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2468240</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45046.33333333334</v>
+      </c>
+      <c r="F324" t="n">
+        <v>33</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1</v>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>4</v>
+      </c>
+      <c r="N324" t="n">
+        <v>4</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>['28', '65', '72', '79']</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>3</v>
+      </c>
+      <c r="R324" t="n">
+        <v>11</v>
+      </c>
+      <c r="S324" t="n">
+        <v>14</v>
+      </c>
+      <c r="T324" t="n">
+        <v>2</v>
+      </c>
+      <c r="U324" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V324" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X324" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK324"/>
+  <dimension ref="A1:BK329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT4" t="n">
         <v>2.31</v>
@@ -1512,7 +1512,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.18</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT14" t="n">
         <v>1.25</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT15" t="n">
         <v>1.19</v>
@@ -3948,7 +3948,7 @@
         <v>1.31</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT23" t="n">
         <v>0.75</v>
@@ -5369,7 +5369,7 @@
         <v>1.06</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU24" t="n">
         <v>1.77</v>
@@ -5572,7 +5572,7 @@
         <v>1.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU25" t="n">
         <v>1.13</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU26" t="n">
         <v>0.87</v>
@@ -6181,7 +6181,7 @@
         <v>1.35</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT29" t="n">
         <v>0.65</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU35" t="n">
         <v>1.19</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -8820,7 +8820,7 @@
         <v>1.63</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU41" t="n">
         <v>1.62</v>
@@ -9226,7 +9226,7 @@
         <v>0.53</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU43" t="n">
         <v>1.59</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT46" t="n">
         <v>0.88</v>
@@ -10038,7 +10038,7 @@
         <v>2.69</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10444,7 +10444,7 @@
         <v>2.18</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT50" t="n">
         <v>1.56</v>
@@ -11053,7 +11053,7 @@
         <v>1.63</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU52" t="n">
         <v>1.89</v>
@@ -11662,7 +11662,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU55" t="n">
         <v>0.97</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT56" t="n">
         <v>1.19</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT59" t="n">
         <v>1.06</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT63" t="n">
         <v>0.88</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT64" t="n">
         <v>1.38</v>
@@ -13895,7 +13895,7 @@
         <v>1.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14301,7 +14301,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU70" t="n">
         <v>2.14</v>
@@ -15113,7 +15113,7 @@
         <v>1.31</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT77" t="n">
         <v>0.59</v>
@@ -16331,7 +16331,7 @@
         <v>1.31</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT79" t="n">
         <v>1.06</v>
@@ -17546,10 +17546,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU84" t="n">
         <v>2.31</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU89" t="n">
         <v>1.73</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT93" t="n">
         <v>0.65</v>
@@ -19985,7 +19985,7 @@
         <v>1.13</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU97" t="n">
         <v>1.19</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT100" t="n">
         <v>0.75</v>
@@ -21406,7 +21406,7 @@
         <v>1.56</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -21812,7 +21812,7 @@
         <v>1.38</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22015,7 +22015,7 @@
         <v>1.31</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU106" t="n">
         <v>1.48</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT107" t="n">
         <v>1.59</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT108" t="n">
         <v>0.65</v>
@@ -23027,7 +23027,7 @@
         <v>2.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT111" t="n">
         <v>2.44</v>
@@ -23636,7 +23636,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT114" t="n">
         <v>1.44</v>
@@ -24045,7 +24045,7 @@
         <v>1.63</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT117" t="n">
         <v>0.88</v>
@@ -24448,10 +24448,10 @@
         <v>2.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU118" t="n">
         <v>1.81</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT123" t="n">
         <v>0.59</v>
@@ -26075,7 +26075,7 @@
         <v>1.71</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -26275,7 +26275,7 @@
         <v>0.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT127" t="n">
         <v>1.25</v>
@@ -26684,7 +26684,7 @@
         <v>1.13</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26887,7 +26887,7 @@
         <v>1.56</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27290,10 +27290,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -28102,7 +28102,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT136" t="n">
         <v>1.25</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT141" t="n">
         <v>1.59</v>
@@ -29323,7 +29323,7 @@
         <v>1.63</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU142" t="n">
         <v>1.92</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT144" t="n">
         <v>1.19</v>
@@ -29929,10 +29929,10 @@
         <v>0.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU145" t="n">
         <v>2.27</v>
@@ -30338,7 +30338,7 @@
         <v>2.18</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU147" t="n">
         <v>1.92</v>
@@ -30744,7 +30744,7 @@
         <v>1.35</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU149" t="n">
         <v>1.37</v>
@@ -30947,7 +30947,7 @@
         <v>1.06</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU150" t="n">
         <v>1.33</v>
@@ -31353,7 +31353,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -31553,7 +31553,7 @@
         <v>0.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT153" t="n">
         <v>0.75</v>
@@ -31959,7 +31959,7 @@
         <v>1.43</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT155" t="n">
         <v>1.38</v>
@@ -32365,7 +32365,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT157" t="n">
         <v>0.88</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT161" t="n">
         <v>1.19</v>
@@ -33586,7 +33586,7 @@
         <v>1.25</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33992,7 +33992,7 @@
         <v>0.53</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU165" t="n">
         <v>1.4</v>
@@ -34804,7 +34804,7 @@
         <v>2.18</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35207,10 +35207,10 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU171" t="n">
         <v>1.9</v>
@@ -35413,7 +35413,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU172" t="n">
         <v>1.35</v>
@@ -35816,7 +35816,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT174" t="n">
         <v>1.06</v>
@@ -36831,10 +36831,10 @@
         <v>0.5</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU179" t="n">
         <v>2.13</v>
@@ -37237,7 +37237,7 @@
         <v>2.13</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT181" t="n">
         <v>2.44</v>
@@ -37443,7 +37443,7 @@
         <v>2.69</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU182" t="n">
         <v>1.86</v>
@@ -37643,10 +37643,10 @@
         <v>2</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -38255,7 +38255,7 @@
         <v>1.63</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU186" t="n">
         <v>1.86</v>
@@ -39267,7 +39267,7 @@
         <v>2.44</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT191" t="n">
         <v>2.31</v>
@@ -39673,7 +39673,7 @@
         <v>1.56</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT193" t="n">
         <v>1.44</v>
@@ -39876,7 +39876,7 @@
         <v>2.22</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT194" t="n">
         <v>2</v>
@@ -40691,7 +40691,7 @@
         <v>1.13</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU198" t="n">
         <v>1.54</v>
@@ -40891,7 +40891,7 @@
         <v>0.7</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT199" t="n">
         <v>0.75</v>
@@ -41297,10 +41297,10 @@
         <v>1.2</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU201" t="n">
         <v>2.08</v>
@@ -41706,7 +41706,7 @@
         <v>1.63</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU203" t="n">
         <v>1.82</v>
@@ -42518,7 +42518,7 @@
         <v>2.69</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU207" t="n">
         <v>1.84</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT208" t="n">
         <v>0.88</v>
@@ -42924,7 +42924,7 @@
         <v>1.71</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU209" t="n">
         <v>1.42</v>
@@ -43530,7 +43530,7 @@
         <v>1</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT212" t="n">
         <v>1.19</v>
@@ -43733,7 +43733,7 @@
         <v>1.1</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT213" t="n">
         <v>1.59</v>
@@ -43936,7 +43936,7 @@
         <v>1.4</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT214" t="n">
         <v>1.38</v>
@@ -44139,7 +44139,7 @@
         <v>2.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT215" t="n">
         <v>2</v>
@@ -44345,7 +44345,7 @@
         <v>1.56</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU216" t="n">
         <v>1.52</v>
@@ -44954,7 +44954,7 @@
         <v>1.31</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU219" t="n">
         <v>1.62</v>
@@ -45357,10 +45357,10 @@
         <v>1.45</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU221" t="n">
         <v>1.91</v>
@@ -45966,7 +45966,7 @@
         <v>2.3</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT224" t="n">
         <v>2.44</v>
@@ -46578,7 +46578,7 @@
         <v>0.53</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU227" t="n">
         <v>1.36</v>
@@ -47187,7 +47187,7 @@
         <v>1.25</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -47796,7 +47796,7 @@
         <v>1.31</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU233" t="n">
         <v>1.66</v>
@@ -47999,7 +47999,7 @@
         <v>1.06</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU234" t="n">
         <v>1.44</v>
@@ -48199,7 +48199,7 @@
         <v>1.55</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT235" t="n">
         <v>1.38</v>
@@ -48808,7 +48808,7 @@
         <v>1.45</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT238" t="n">
         <v>1.56</v>
@@ -49011,7 +49011,7 @@
         <v>0.91</v>
       </c>
       <c r="AS239" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT239" t="n">
         <v>1.25</v>
@@ -50232,7 +50232,7 @@
         <v>1.56</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU245" t="n">
         <v>1.44</v>
@@ -50635,7 +50635,7 @@
         <v>0.82</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT247" t="n">
         <v>0.88</v>
@@ -51247,7 +51247,7 @@
         <v>1.71</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU250" t="n">
         <v>1.54</v>
@@ -51447,7 +51447,7 @@
         <v>2.08</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT251" t="n">
         <v>2.31</v>
@@ -51653,7 +51653,7 @@
         <v>1.31</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU252" t="n">
         <v>1.63</v>
@@ -52056,7 +52056,7 @@
         <v>0.85</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT254" t="n">
         <v>0.75</v>
@@ -52259,7 +52259,7 @@
         <v>2.25</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT255" t="n">
         <v>2</v>
@@ -52871,7 +52871,7 @@
         <v>1.35</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU258" t="n">
         <v>1.43</v>
@@ -53277,7 +53277,7 @@
         <v>1.63</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU260" t="n">
         <v>2</v>
@@ -53477,7 +53477,7 @@
         <v>2.42</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT261" t="n">
         <v>2.44</v>
@@ -54289,7 +54289,7 @@
         <v>1.31</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT265" t="n">
         <v>1.44</v>
@@ -54698,7 +54698,7 @@
         <v>1.25</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU267" t="n">
         <v>1.63</v>
@@ -55307,7 +55307,7 @@
         <v>1.71</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU270" t="n">
         <v>1.58</v>
@@ -55507,7 +55507,7 @@
         <v>0.83</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT271" t="n">
         <v>0.88</v>
@@ -56119,7 +56119,7 @@
         <v>2.69</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU274" t="n">
         <v>1.79</v>
@@ -56728,7 +56728,7 @@
         <v>1.06</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU277" t="n">
         <v>1.44</v>
@@ -56928,7 +56928,7 @@
         <v>0.86</v>
       </c>
       <c r="AS278" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT278" t="n">
         <v>0.88</v>
@@ -57134,7 +57134,7 @@
         <v>1.31</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -57334,7 +57334,7 @@
         <v>1.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT280" t="n">
         <v>1.06</v>
@@ -57740,7 +57740,7 @@
         <v>1.23</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT282" t="n">
         <v>1.25</v>
@@ -58146,7 +58146,7 @@
         <v>1.43</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT284" t="n">
         <v>1.44</v>
@@ -58352,7 +58352,7 @@
         <v>2.18</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU285" t="n">
         <v>1.94</v>
@@ -58758,7 +58758,7 @@
         <v>0.53</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU287" t="n">
         <v>1.38</v>
@@ -58958,7 +58958,7 @@
         <v>0.79</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT288" t="n">
         <v>0.65</v>
@@ -59164,7 +59164,7 @@
         <v>1.25</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU289" t="n">
         <v>1.57</v>
@@ -59567,7 +59567,7 @@
         <v>1.29</v>
       </c>
       <c r="AS291" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT291" t="n">
         <v>1.59</v>
@@ -60585,7 +60585,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU296" t="n">
         <v>1.33</v>
@@ -61191,7 +61191,7 @@
         <v>1.36</v>
       </c>
       <c r="AS299" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT299" t="n">
         <v>1.56</v>
@@ -62003,10 +62003,10 @@
         <v>1.4</v>
       </c>
       <c r="AS303" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU303" t="n">
         <v>1.7</v>
@@ -62206,7 +62206,7 @@
         <v>1.53</v>
       </c>
       <c r="AS304" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AT304" t="n">
         <v>1.44</v>
@@ -62612,10 +62612,10 @@
         <v>0.36</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU306" t="n">
         <v>1.3</v>
@@ -63021,7 +63021,7 @@
         <v>1.13</v>
       </c>
       <c r="AT308" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU308" t="n">
         <v>1.48</v>
@@ -63427,7 +63427,7 @@
         <v>1.71</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU310" t="n">
         <v>1.55</v>
@@ -63627,7 +63627,7 @@
         <v>0.6</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT311" t="n">
         <v>0.59</v>
@@ -66321,6 +66321,1021 @@
       </c>
       <c r="BK324" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2468241</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F325" t="n">
+        <v>33</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>1</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>6</v>
+      </c>
+      <c r="R325" t="n">
+        <v>8</v>
+      </c>
+      <c r="S325" t="n">
+        <v>14</v>
+      </c>
+      <c r="T325" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V325" t="n">
+        <v>3</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X325" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2468247</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F326" t="n">
+        <v>33</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>2</v>
+      </c>
+      <c r="J326" t="n">
+        <v>2</v>
+      </c>
+      <c r="K326" t="n">
+        <v>4</v>
+      </c>
+      <c r="L326" t="n">
+        <v>4</v>
+      </c>
+      <c r="M326" t="n">
+        <v>2</v>
+      </c>
+      <c r="N326" t="n">
+        <v>6</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>['25', '35', '54', '84']</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['19', '42']</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>7</v>
+      </c>
+      <c r="R326" t="n">
+        <v>5</v>
+      </c>
+      <c r="S326" t="n">
+        <v>12</v>
+      </c>
+      <c r="T326" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U326" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V326" t="n">
+        <v>9</v>
+      </c>
+      <c r="W326" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X326" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2468249</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F327" t="n">
+        <v>33</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>1</v>
+      </c>
+      <c r="N327" t="n">
+        <v>1</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>3</v>
+      </c>
+      <c r="R327" t="n">
+        <v>14</v>
+      </c>
+      <c r="S327" t="n">
+        <v>17</v>
+      </c>
+      <c r="T327" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V327" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X327" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2468244</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>45046.50347222222</v>
+      </c>
+      <c r="F328" t="n">
+        <v>33</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>2</v>
+      </c>
+      <c r="K328" t="n">
+        <v>3</v>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="n">
+        <v>3</v>
+      </c>
+      <c r="N328" t="n">
+        <v>4</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>['15', '39', '88']</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>2</v>
+      </c>
+      <c r="R328" t="n">
+        <v>3</v>
+      </c>
+      <c r="S328" t="n">
+        <v>5</v>
+      </c>
+      <c r="T328" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U328" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V328" t="n">
+        <v>9</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X328" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2468243</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>45046.65625</v>
+      </c>
+      <c r="F329" t="n">
+        <v>33</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>1</v>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="n">
+        <v>2</v>
+      </c>
+      <c r="M329" t="n">
+        <v>1</v>
+      </c>
+      <c r="N329" t="n">
+        <v>3</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>['75', '77']</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>12</v>
+      </c>
+      <c r="R329" t="n">
+        <v>1</v>
+      </c>
+      <c r="S329" t="n">
+        <v>13</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V329" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X329" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK329"/>
+  <dimension ref="A1:BK331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT5" t="n">
         <v>1.59</v>
@@ -1918,7 +1918,7 @@
         <v>0.53</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT20" t="n">
         <v>2.44</v>
@@ -4963,7 +4963,7 @@
         <v>1.71</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU22" t="n">
         <v>1.35</v>
@@ -5166,7 +5166,7 @@
         <v>1.82</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT25" t="n">
         <v>1.35</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT38" t="n">
         <v>1.25</v>
@@ -9429,7 +9429,7 @@
         <v>1.06</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT48" t="n">
         <v>2.31</v>
@@ -12068,7 +12068,7 @@
         <v>1.63</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU57" t="n">
         <v>1.31</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT58" t="n">
         <v>0.88</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT66" t="n">
         <v>1.24</v>
@@ -14504,7 +14504,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU69" t="n">
         <v>1.92</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT76" t="n">
         <v>0.65</v>
@@ -16737,7 +16737,7 @@
         <v>1.25</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT86" t="n">
         <v>1.25</v>
@@ -18767,7 +18767,7 @@
         <v>1.71</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT96" t="n">
         <v>1.35</v>
@@ -20797,7 +20797,7 @@
         <v>2.29</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU100" t="n">
         <v>2.02</v>
@@ -21000,7 +21000,7 @@
         <v>2.18</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU101" t="n">
         <v>1.87</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT105" t="n">
         <v>0.31</v>
@@ -23639,7 +23639,7 @@
         <v>1.82</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU114" t="n">
         <v>1.96</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT119" t="n">
         <v>0.88</v>
@@ -24857,7 +24857,7 @@
         <v>1.31</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU120" t="n">
         <v>1.61</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT129" t="n">
         <v>1.24</v>
@@ -27699,7 +27699,7 @@
         <v>0.53</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -28511,7 +28511,7 @@
         <v>1.63</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU138" t="n">
         <v>1.74</v>
@@ -28711,7 +28711,7 @@
         <v>2.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT139" t="n">
         <v>2</v>
@@ -30132,7 +30132,7 @@
         <v>0.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT146" t="n">
         <v>0.59</v>
@@ -31556,7 +31556,7 @@
         <v>0.75</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU153" t="n">
         <v>1.86</v>
@@ -32162,7 +32162,7 @@
         <v>0.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT156" t="n">
         <v>1.59</v>
@@ -32977,7 +32977,7 @@
         <v>1.31</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU160" t="n">
         <v>1.7</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT164" t="n">
         <v>0.65</v>
@@ -36222,7 +36222,7 @@
         <v>1.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT176" t="n">
         <v>1.38</v>
@@ -37037,7 +37037,7 @@
         <v>1.06</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU180" t="n">
         <v>1.54</v>
@@ -38455,7 +38455,7 @@
         <v>0.78</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT187" t="n">
         <v>0.88</v>
@@ -38864,7 +38864,7 @@
         <v>1.35</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -39676,7 +39676,7 @@
         <v>0.75</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU193" t="n">
         <v>1.64</v>
@@ -40688,7 +40688,7 @@
         <v>0.44</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT198" t="n">
         <v>0.31</v>
@@ -40894,7 +40894,7 @@
         <v>1.41</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41906,7 +41906,7 @@
         <v>0.9</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT204" t="n">
         <v>0.59</v>
@@ -44548,7 +44548,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU217" t="n">
         <v>1.41</v>
@@ -45154,10 +45154,10 @@
         <v>1.5</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU220" t="n">
         <v>1.53</v>
@@ -46169,7 +46169,7 @@
         <v>1</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT225" t="n">
         <v>1.06</v>
@@ -47390,7 +47390,7 @@
         <v>1.63</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU231" t="n">
         <v>2.05</v>
@@ -48605,7 +48605,7 @@
         <v>2.18</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT237" t="n">
         <v>2</v>
@@ -49217,7 +49217,7 @@
         <v>2.69</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU240" t="n">
         <v>1.8</v>
@@ -49417,7 +49417,7 @@
         <v>2.36</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT241" t="n">
         <v>2.44</v>
@@ -50029,7 +50029,7 @@
         <v>1.35</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU244" t="n">
         <v>1.46</v>
@@ -52059,7 +52059,7 @@
         <v>2.24</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU254" t="n">
         <v>2.05</v>
@@ -52665,7 +52665,7 @@
         <v>1.33</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT257" t="n">
         <v>1.56</v>
@@ -54086,7 +54086,7 @@
         <v>2.15</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT264" t="n">
         <v>2.31</v>
@@ -54292,7 +54292,7 @@
         <v>1.41</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU265" t="n">
         <v>1.28</v>
@@ -55713,7 +55713,7 @@
         <v>1.63</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU272" t="n">
         <v>2.01</v>
@@ -55913,7 +55913,7 @@
         <v>1.38</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT273" t="n">
         <v>1.38</v>
@@ -58149,7 +58149,7 @@
         <v>2.29</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU284" t="n">
         <v>1.71</v>
@@ -58552,7 +58552,7 @@
         <v>1</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT286" t="n">
         <v>1.19</v>
@@ -61800,7 +61800,7 @@
         <v>1.4</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT302" t="n">
         <v>1.59</v>
@@ -62209,7 +62209,7 @@
         <v>2.24</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU304" t="n">
         <v>2.07</v>
@@ -63018,7 +63018,7 @@
         <v>1.6</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT308" t="n">
         <v>1.59</v>
@@ -63224,7 +63224,7 @@
         <v>1.31</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU309" t="n">
         <v>1.52</v>
@@ -67336,6 +67336,412 @@
       </c>
       <c r="BK329" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2468248</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45048.66666666666</v>
+      </c>
+      <c r="F330" t="n">
+        <v>33</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+      <c r="N330" t="n">
+        <v>1</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>5</v>
+      </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
+      <c r="S330" t="n">
+        <v>5</v>
+      </c>
+      <c r="T330" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V330" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X330" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2468246</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45049.66666666666</v>
+      </c>
+      <c r="F331" t="n">
+        <v>33</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>2</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>2</v>
+      </c>
+      <c r="L331" t="n">
+        <v>2</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>2</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['18', '35']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>2</v>
+      </c>
+      <c r="R331" t="n">
+        <v>4</v>
+      </c>
+      <c r="S331" t="n">
+        <v>6</v>
+      </c>
+      <c r="T331" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V331" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X331" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK331"/>
+  <dimension ref="A1:BK335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.06</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT7" t="n">
         <v>0.71</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT9" t="n">
         <v>0.88</v>
@@ -2933,7 +2933,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.71</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT16" t="n">
         <v>1.56</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT19" t="n">
         <v>0.88</v>
@@ -4557,7 +4557,7 @@
         <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT27" t="n">
         <v>0.88</v>
@@ -6790,7 +6790,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT39" t="n">
         <v>1.59</v>
@@ -8617,7 +8617,7 @@
         <v>2.24</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU40" t="n">
         <v>3.14</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT43" t="n">
         <v>1.24</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT47" t="n">
         <v>1.35</v>
@@ -10850,7 +10850,7 @@
         <v>1.31</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU51" t="n">
         <v>1.36</v>
@@ -11459,7 +11459,7 @@
         <v>1.35</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU54" t="n">
         <v>1.65</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT57" t="n">
         <v>1.53</v>
@@ -12474,7 +12474,7 @@
         <v>0.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>2.18</v>
@@ -12674,10 +12674,10 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT60" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT62" t="n">
         <v>0.59</v>
@@ -13489,7 +13489,7 @@
         <v>1.82</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU64" t="n">
         <v>2.14</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT67" t="n">
         <v>1.25</v>
@@ -15719,10 +15719,10 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT75" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT78" t="n">
         <v>0.31</v>
@@ -16534,7 +16534,7 @@
         <v>1.82</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>2.05</v>
@@ -17140,10 +17140,10 @@
         <v>2.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU82" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>1.06</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.41</v>
@@ -17752,7 +17752,7 @@
         <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -18967,7 +18967,7 @@
         <v>0.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT91" t="n">
         <v>1.59</v>
@@ -19576,7 +19576,7 @@
         <v>3</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT94" t="n">
         <v>2.31</v>
@@ -19782,7 +19782,7 @@
         <v>1.35</v>
       </c>
       <c r="AT95" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT98" t="n">
         <v>0.88</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT99" t="n">
         <v>0.59</v>
@@ -21203,7 +21203,7 @@
         <v>1.06</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21606,7 +21606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT104" t="n">
         <v>1.25</v>
@@ -23030,7 +23030,7 @@
         <v>2.24</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU111" t="n">
         <v>2.1</v>
@@ -23839,10 +23839,10 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.56</v>
@@ -24042,7 +24042,7 @@
         <v>0.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT116" t="n">
         <v>0.71</v>
@@ -24854,7 +24854,7 @@
         <v>0.33</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT120" t="n">
         <v>0.71</v>
@@ -25060,7 +25060,7 @@
         <v>2.18</v>
       </c>
       <c r="AT121" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -25260,7 +25260,7 @@
         <v>0.8</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT122" t="n">
         <v>1.19</v>
@@ -25669,7 +25669,7 @@
         <v>1.06</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU124" t="n">
         <v>1.3</v>
@@ -27090,7 +27090,7 @@
         <v>1.63</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU131" t="n">
         <v>2.07</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT134" t="n">
         <v>1.53</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT137" t="n">
         <v>0.88</v>
@@ -28508,7 +28508,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT138" t="n">
         <v>0.71</v>
@@ -28714,7 +28714,7 @@
         <v>1.29</v>
       </c>
       <c r="AT139" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -28917,7 +28917,7 @@
         <v>2.18</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -29523,7 +29523,7 @@
         <v>1.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT143" t="n">
         <v>1.56</v>
@@ -31150,7 +31150,7 @@
         <v>1.71</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU151" t="n">
         <v>1.31</v>
@@ -31759,7 +31759,7 @@
         <v>1.31</v>
       </c>
       <c r="AT154" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31962,7 +31962,7 @@
         <v>1.41</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU155" t="n">
         <v>1.41</v>
@@ -32771,10 +32771,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU159" t="n">
         <v>1.91</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT160" t="n">
         <v>1.53</v>
@@ -33989,7 +33989,7 @@
         <v>1.88</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT165" t="n">
         <v>1.35</v>
@@ -34395,7 +34395,7 @@
         <v>2.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT167" t="n">
         <v>2.31</v>
@@ -35007,7 +35007,7 @@
         <v>1.35</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU170" t="n">
         <v>1.48</v>
@@ -35819,7 +35819,7 @@
         <v>1.41</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU174" t="n">
         <v>1.39</v>
@@ -36225,7 +36225,7 @@
         <v>1.25</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU176" t="n">
         <v>1.67</v>
@@ -36428,7 +36428,7 @@
         <v>1.56</v>
       </c>
       <c r="AT177" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU177" t="n">
         <v>1.59</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT178" t="n">
         <v>1.25</v>
@@ -37240,7 +37240,7 @@
         <v>0.75</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU181" t="n">
         <v>1.76</v>
@@ -37440,7 +37440,7 @@
         <v>0.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT182" t="n">
         <v>0.71</v>
@@ -38252,7 +38252,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT186" t="n">
         <v>1.59</v>
@@ -38658,7 +38658,7 @@
         <v>1.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT188" t="n">
         <v>1.56</v>
@@ -39473,7 +39473,7 @@
         <v>1.56</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU192" t="n">
         <v>1.58</v>
@@ -39879,7 +39879,7 @@
         <v>1.82</v>
       </c>
       <c r="AT194" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU194" t="n">
         <v>1.89</v>
@@ -40079,10 +40079,10 @@
         <v>1.56</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -41500,7 +41500,7 @@
         <v>0.8</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT202" t="n">
         <v>0.65</v>
@@ -41703,7 +41703,7 @@
         <v>1.8</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT203" t="n">
         <v>1.35</v>
@@ -42112,7 +42112,7 @@
         <v>1.25</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU205" t="n">
         <v>1.56</v>
@@ -42515,7 +42515,7 @@
         <v>1.3</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT207" t="n">
         <v>1.59</v>
@@ -43939,7 +43939,7 @@
         <v>2.29</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU214" t="n">
         <v>1.81</v>
@@ -44142,7 +44142,7 @@
         <v>1.41</v>
       </c>
       <c r="AT215" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU215" t="n">
         <v>1.33</v>
@@ -45560,7 +45560,7 @@
         <v>1</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT222" t="n">
         <v>0.65</v>
@@ -45969,7 +45969,7 @@
         <v>1.41</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU224" t="n">
         <v>1.31</v>
@@ -46172,7 +46172,7 @@
         <v>1.29</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU225" t="n">
         <v>1.71</v>
@@ -46372,7 +46372,7 @@
         <v>0.82</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT226" t="n">
         <v>0.59</v>
@@ -46575,7 +46575,7 @@
         <v>0.36</v>
       </c>
       <c r="AS227" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT227" t="n">
         <v>0.71</v>
@@ -47793,7 +47793,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT233" t="n">
         <v>1.24</v>
@@ -48202,7 +48202,7 @@
         <v>2.24</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU235" t="n">
         <v>2.08</v>
@@ -48608,7 +48608,7 @@
         <v>1.25</v>
       </c>
       <c r="AT237" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU237" t="n">
         <v>1.54</v>
@@ -49214,7 +49214,7 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT240" t="n">
         <v>0.71</v>
@@ -49420,7 +49420,7 @@
         <v>1.29</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU241" t="n">
         <v>1.7</v>
@@ -49823,7 +49823,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT243" t="n">
         <v>1.59</v>
@@ -50432,7 +50432,7 @@
         <v>0.91</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT246" t="n">
         <v>1.19</v>
@@ -51044,7 +51044,7 @@
         <v>1.25</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU249" t="n">
         <v>1.55</v>
@@ -51650,7 +51650,7 @@
         <v>0.62</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT252" t="n">
         <v>0.71</v>
@@ -51853,10 +51853,10 @@
         <v>1.42</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU253" t="n">
         <v>1.86</v>
@@ -52262,7 +52262,7 @@
         <v>0.75</v>
       </c>
       <c r="AT255" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU255" t="n">
         <v>1.45</v>
@@ -52462,7 +52462,7 @@
         <v>0.85</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT256" t="n">
         <v>0.65</v>
@@ -53480,7 +53480,7 @@
         <v>2.29</v>
       </c>
       <c r="AT261" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU261" t="n">
         <v>1.71</v>
@@ -53886,7 +53886,7 @@
         <v>1.31</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU263" t="n">
         <v>1.56</v>
@@ -55101,7 +55101,7 @@
         <v>0.83</v>
       </c>
       <c r="AS269" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT269" t="n">
         <v>1.19</v>
@@ -55916,7 +55916,7 @@
         <v>1.29</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU273" t="n">
         <v>1.62</v>
@@ -56116,7 +56116,7 @@
         <v>0.38</v>
       </c>
       <c r="AS274" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT274" t="n">
         <v>0.31</v>
@@ -56322,7 +56322,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT275" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU275" t="n">
         <v>1.36</v>
@@ -57131,7 +57131,7 @@
         <v>1.46</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT279" t="n">
         <v>1.35</v>
@@ -57337,7 +57337,7 @@
         <v>2.24</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU280" t="n">
         <v>2.09</v>
@@ -57537,10 +57537,10 @@
         <v>2.46</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT281" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU281" t="n">
         <v>1.96</v>
@@ -58755,7 +58755,7 @@
         <v>1.64</v>
       </c>
       <c r="AS287" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT287" t="n">
         <v>1.59</v>
@@ -59770,7 +59770,7 @@
         <v>0.79</v>
       </c>
       <c r="AS292" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT292" t="n">
         <v>0.88</v>
@@ -59973,10 +59973,10 @@
         <v>1.5</v>
       </c>
       <c r="AS293" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU293" t="n">
         <v>1.4</v>
@@ -60176,7 +60176,7 @@
         <v>2.21</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT294" t="n">
         <v>2.31</v>
@@ -60382,7 +60382,7 @@
         <v>1.63</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU295" t="n">
         <v>1.97</v>
@@ -60988,7 +60988,7 @@
         <v>0.87</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT298" t="n">
         <v>0.88</v>
@@ -61397,7 +61397,7 @@
         <v>1.25</v>
       </c>
       <c r="AT300" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU300" t="n">
         <v>1.57</v>
@@ -61600,7 +61600,7 @@
         <v>1.56</v>
       </c>
       <c r="AT301" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU301" t="n">
         <v>1.48</v>
@@ -63830,7 +63830,7 @@
         <v>2.27</v>
       </c>
       <c r="AS312" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AT312" t="n">
         <v>2.31</v>
@@ -64036,7 +64036,7 @@
         <v>1.31</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU313" t="n">
         <v>1.51</v>
@@ -64236,10 +64236,10 @@
         <v>2.13</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT314" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU314" t="n">
         <v>1.75</v>
@@ -64439,7 +64439,7 @@
         <v>0.73</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT315" t="n">
         <v>0.88</v>
@@ -64642,7 +64642,7 @@
         <v>1.47</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT316" t="n">
         <v>1.56</v>
@@ -65457,7 +65457,7 @@
         <v>1.35</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU320" t="n">
         <v>1.52</v>
@@ -65660,7 +65660,7 @@
         <v>1.63</v>
       </c>
       <c r="AT321" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AU321" t="n">
         <v>1.92</v>
@@ -67742,6 +67742,818 @@
       </c>
       <c r="BK331" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2468255</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45052.5</v>
+      </c>
+      <c r="F332" t="n">
+        <v>34</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>2</v>
+      </c>
+      <c r="M332" t="n">
+        <v>1</v>
+      </c>
+      <c r="N332" t="n">
+        <v>3</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['50', '72']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>4</v>
+      </c>
+      <c r="R332" t="n">
+        <v>7</v>
+      </c>
+      <c r="S332" t="n">
+        <v>11</v>
+      </c>
+      <c r="T332" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2</v>
+      </c>
+      <c r="V332" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2468258</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45052.58333333334</v>
+      </c>
+      <c r="F333" t="n">
+        <v>34</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>1</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>4</v>
+      </c>
+      <c r="R333" t="n">
+        <v>7</v>
+      </c>
+      <c r="S333" t="n">
+        <v>11</v>
+      </c>
+      <c r="T333" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V333" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X333" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2468257</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F334" t="n">
+        <v>34</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
+      </c>
+      <c r="N334" t="n">
+        <v>3</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['42', '60']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>7</v>
+      </c>
+      <c r="R334" t="n">
+        <v>7</v>
+      </c>
+      <c r="S334" t="n">
+        <v>14</v>
+      </c>
+      <c r="T334" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V334" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X334" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2468252</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45053.33333333334</v>
+      </c>
+      <c r="F335" t="n">
+        <v>34</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>1</v>
+      </c>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="n">
+        <v>2</v>
+      </c>
+      <c r="N335" t="n">
+        <v>3</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['45', '60']</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>4</v>
+      </c>
+      <c r="R335" t="n">
+        <v>3</v>
+      </c>
+      <c r="S335" t="n">
+        <v>7</v>
+      </c>
+      <c r="T335" t="n">
+        <v>6</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V335" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X335" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK335"/>
+  <dimension ref="A1:BK341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT2" t="n">
         <v>0.65</v>
@@ -1309,7 +1309,7 @@
         <v>1.41</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.71</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT12" t="n">
         <v>1.29</v>
@@ -3339,7 +3339,7 @@
         <v>2.24</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT17" t="n">
         <v>0.31</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT18" t="n">
         <v>1.53</v>
@@ -4354,7 +4354,7 @@
         <v>1.41</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT21" t="n">
         <v>0.59</v>
@@ -5978,7 +5978,7 @@
         <v>0.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU27" t="n">
         <v>1.98</v>
@@ -6587,7 +6587,7 @@
         <v>2.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT31" t="n">
         <v>1.29</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.58</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT35" t="n">
         <v>0.31</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>1.25</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT41" t="n">
         <v>0.71</v>
@@ -9835,7 +9835,7 @@
         <v>2.29</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU46" t="n">
         <v>2.03</v>
@@ -10241,7 +10241,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU48" t="n">
         <v>1.44</v>
@@ -10647,7 +10647,7 @@
         <v>1.82</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU50" t="n">
         <v>1.98</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT51" t="n">
         <v>2.29</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT52" t="n">
         <v>0.31</v>
@@ -11253,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT55" t="n">
         <v>1.35</v>
@@ -11865,7 +11865,7 @@
         <v>1.41</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU56" t="n">
         <v>0.92</v>
@@ -12271,7 +12271,7 @@
         <v>1.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT61" t="n">
         <v>1.59</v>
@@ -13286,7 +13286,7 @@
         <v>2.24</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU63" t="n">
         <v>2.57</v>
@@ -13692,7 +13692,7 @@
         <v>1.06</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -14098,7 +14098,7 @@
         <v>0.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT68" t="n">
         <v>1.59</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT69" t="n">
         <v>0.71</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT72" t="n">
         <v>1.35</v>
@@ -15316,7 +15316,7 @@
         <v>1.35</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.43</v>
@@ -15519,7 +15519,7 @@
         <v>2.18</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT80" t="n">
         <v>1.53</v>
@@ -16937,10 +16937,10 @@
         <v>3</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU81" t="n">
         <v>2.16</v>
@@ -17749,7 +17749,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT85" t="n">
         <v>1.29</v>
@@ -17955,7 +17955,7 @@
         <v>1.29</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18358,10 +18358,10 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT89" t="n">
         <v>1.24</v>
@@ -19170,10 +19170,10 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU92" t="n">
         <v>2.04</v>
@@ -19579,7 +19579,7 @@
         <v>1.71</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU94" t="n">
         <v>1.39</v>
@@ -20391,7 +20391,7 @@
         <v>0.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.52</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT103" t="n">
         <v>1.24</v>
@@ -21609,7 +21609,7 @@
         <v>2.71</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT106" t="n">
         <v>1.59</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT108" t="n">
         <v>0.65</v>
@@ -22621,10 +22621,10 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU109" t="n">
         <v>1.45</v>
@@ -22827,7 +22827,7 @@
         <v>1.71</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU110" t="n">
         <v>1.38</v>
@@ -23230,10 +23230,10 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -24248,7 +24248,7 @@
         <v>1.41</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU117" t="n">
         <v>1.3</v>
@@ -24448,7 +24448,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT118" t="n">
         <v>1.35</v>
@@ -24654,7 +24654,7 @@
         <v>1.29</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -25263,7 +25263,7 @@
         <v>2.71</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU122" t="n">
         <v>1.97</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT125" t="n">
         <v>0.65</v>
@@ -26278,7 +26278,7 @@
         <v>2.29</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU127" t="n">
         <v>1.91</v>
@@ -26478,10 +26478,10 @@
         <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU128" t="n">
         <v>1.57</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT130" t="n">
         <v>1.59</v>
@@ -27087,7 +27087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT131" t="n">
         <v>1.29</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT132" t="n">
         <v>0.71</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.28</v>
@@ -27899,10 +27899,10 @@
         <v>2.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28105,7 +28105,7 @@
         <v>1.41</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28308,7 +28308,7 @@
         <v>1.41</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU137" t="n">
         <v>1.63</v>
@@ -29320,7 +29320,7 @@
         <v>1.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT142" t="n">
         <v>1.59</v>
@@ -29526,7 +29526,7 @@
         <v>2.71</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU143" t="n">
         <v>1.94</v>
@@ -29729,7 +29729,7 @@
         <v>2.29</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT148" t="n">
         <v>0.65</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT152" t="n">
         <v>0.31</v>
@@ -31553,7 +31553,7 @@
         <v>0.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT153" t="n">
         <v>0.71</v>
@@ -31756,7 +31756,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT154" t="n">
         <v>2.06</v>
@@ -32368,7 +32368,7 @@
         <v>2.24</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>2.18</v>
@@ -32568,10 +32568,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU158" t="n">
         <v>1.59</v>
@@ -33180,7 +33180,7 @@
         <v>1.82</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU161" t="n">
         <v>1.84</v>
@@ -33383,7 +33383,7 @@
         <v>1.71</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU162" t="n">
         <v>1.35</v>
@@ -33583,7 +33583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT163" t="n">
         <v>0.71</v>
@@ -34192,10 +34192,10 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU166" t="n">
         <v>1.84</v>
@@ -34398,7 +34398,7 @@
         <v>2.71</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -35410,7 +35410,7 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT172" t="n">
         <v>1.24</v>
@@ -35613,10 +35613,10 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -36019,7 +36019,7 @@
         <v>0.88</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT175" t="n">
         <v>1.59</v>
@@ -36425,7 +36425,7 @@
         <v>2.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT177" t="n">
         <v>2.06</v>
@@ -36631,7 +36631,7 @@
         <v>1.41</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU178" t="n">
         <v>1.66</v>
@@ -37237,7 +37237,7 @@
         <v>2.13</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT181" t="n">
         <v>2.29</v>
@@ -37846,10 +37846,10 @@
         <v>0.75</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU184" t="n">
         <v>1.8</v>
@@ -38458,7 +38458,7 @@
         <v>1.29</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU187" t="n">
         <v>1.66</v>
@@ -38661,7 +38661,7 @@
         <v>0.5</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU188" t="n">
         <v>1.47</v>
@@ -39270,7 +39270,7 @@
         <v>2.29</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU191" t="n">
         <v>1.95</v>
@@ -39470,7 +39470,7 @@
         <v>1.11</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT192" t="n">
         <v>1</v>
@@ -39673,7 +39673,7 @@
         <v>1.56</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT193" t="n">
         <v>1.53</v>
@@ -40282,10 +40282,10 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU196" t="n">
         <v>1.6</v>
@@ -40488,7 +40488,7 @@
         <v>1.06</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU197" t="n">
         <v>1.52</v>
@@ -41094,7 +41094,7 @@
         <v>0.89</v>
       </c>
       <c r="AS200" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT200" t="n">
         <v>1.59</v>
@@ -42109,7 +42109,7 @@
         <v>2.22</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT205" t="n">
         <v>2.29</v>
@@ -42315,7 +42315,7 @@
         <v>2.18</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU206" t="n">
         <v>1.89</v>
@@ -42721,7 +42721,7 @@
         <v>2.29</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU208" t="n">
         <v>1.89</v>
@@ -43127,7 +43127,7 @@
         <v>1.35</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU210" t="n">
         <v>1.44</v>
@@ -43327,10 +43327,10 @@
         <v>0.8</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU211" t="n">
         <v>1.94</v>
@@ -43533,7 +43533,7 @@
         <v>2.24</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU212" t="n">
         <v>2.04</v>
@@ -43733,7 +43733,7 @@
         <v>1.1</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT213" t="n">
         <v>1.59</v>
@@ -44342,7 +44342,7 @@
         <v>0.4</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT216" t="n">
         <v>0.31</v>
@@ -44545,7 +44545,7 @@
         <v>0.73</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT217" t="n">
         <v>0.71</v>
@@ -44751,7 +44751,7 @@
         <v>1.06</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU218" t="n">
         <v>1.5</v>
@@ -44951,7 +44951,7 @@
         <v>1.18</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT219" t="n">
         <v>1.24</v>
@@ -45766,7 +45766,7 @@
         <v>1.71</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU223" t="n">
         <v>1.46</v>
@@ -46781,7 +46781,7 @@
         <v>2.18</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU228" t="n">
         <v>1.95</v>
@@ -46984,7 +46984,7 @@
         <v>1.35</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU229" t="n">
         <v>1.39</v>
@@ -47184,7 +47184,7 @@
         <v>1.64</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT230" t="n">
         <v>1.35</v>
@@ -47387,7 +47387,7 @@
         <v>1.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT231" t="n">
         <v>1.53</v>
@@ -47590,7 +47590,7 @@
         <v>1.27</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT232" t="n">
         <v>1.59</v>
@@ -48402,7 +48402,7 @@
         <v>0.92</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT236" t="n">
         <v>0.65</v>
@@ -48811,7 +48811,7 @@
         <v>2.29</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU238" t="n">
         <v>1.78</v>
@@ -49011,10 +49011,10 @@
         <v>0.91</v>
       </c>
       <c r="AS239" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU239" t="n">
         <v>1.51</v>
@@ -49623,7 +49623,7 @@
         <v>2.18</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU242" t="n">
         <v>1.96</v>
@@ -50229,7 +50229,7 @@
         <v>0.42</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT245" t="n">
         <v>0.71</v>
@@ -50435,7 +50435,7 @@
         <v>1.71</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU246" t="n">
         <v>2.02</v>
@@ -50638,7 +50638,7 @@
         <v>1.41</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU247" t="n">
         <v>1.28</v>
@@ -50838,7 +50838,7 @@
         <v>0.75</v>
       </c>
       <c r="AS248" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT248" t="n">
         <v>0.59</v>
@@ -51041,7 +51041,7 @@
         <v>0.91</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT249" t="n">
         <v>1</v>
@@ -51450,7 +51450,7 @@
         <v>1.82</v>
       </c>
       <c r="AT251" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU251" t="n">
         <v>1.95</v>
@@ -52259,7 +52259,7 @@
         <v>2.25</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT255" t="n">
         <v>2.06</v>
@@ -52668,7 +52668,7 @@
         <v>1.29</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU257" t="n">
         <v>1.69</v>
@@ -53074,7 +53074,7 @@
         <v>1.06</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU259" t="n">
         <v>1.45</v>
@@ -53274,7 +53274,7 @@
         <v>1.5</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT260" t="n">
         <v>1.35</v>
@@ -53883,7 +53883,7 @@
         <v>1.08</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT263" t="n">
         <v>1</v>
@@ -54089,7 +54089,7 @@
         <v>1.25</v>
       </c>
       <c r="AT264" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU264" t="n">
         <v>1.47</v>
@@ -54492,7 +54492,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT266" t="n">
         <v>0.59</v>
@@ -54695,7 +54695,7 @@
         <v>1.69</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT267" t="n">
         <v>1.59</v>
@@ -54898,10 +54898,10 @@
         <v>1.08</v>
       </c>
       <c r="AS268" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU268" t="n">
         <v>1.41</v>
@@ -55104,7 +55104,7 @@
         <v>0.5</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU269" t="n">
         <v>1.39</v>
@@ -55510,7 +55510,7 @@
         <v>1.82</v>
       </c>
       <c r="AT271" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU271" t="n">
         <v>1.97</v>
@@ -55710,7 +55710,7 @@
         <v>0.79</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT272" t="n">
         <v>0.71</v>
@@ -56319,7 +56319,7 @@
         <v>2.15</v>
       </c>
       <c r="AS275" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT275" t="n">
         <v>2.06</v>
@@ -56525,7 +56525,7 @@
         <v>1.35</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU276" t="n">
         <v>1.44</v>
@@ -56928,10 +56928,10 @@
         <v>0.86</v>
       </c>
       <c r="AS278" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU278" t="n">
         <v>1.46</v>
@@ -57743,7 +57743,7 @@
         <v>1.82</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU282" t="n">
         <v>1.9</v>
@@ -57943,7 +57943,7 @@
         <v>0.64</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT283" t="n">
         <v>0.59</v>
@@ -58555,7 +58555,7 @@
         <v>1.25</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU286" t="n">
         <v>1.44</v>
@@ -59161,7 +59161,7 @@
         <v>1.29</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT289" t="n">
         <v>1.24</v>
@@ -59367,7 +59367,7 @@
         <v>1.71</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU290" t="n">
         <v>1.56</v>
@@ -59773,7 +59773,7 @@
         <v>2.71</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU292" t="n">
         <v>1.75</v>
@@ -60179,7 +60179,7 @@
         <v>1.41</v>
       </c>
       <c r="AT294" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU294" t="n">
         <v>1.61</v>
@@ -60379,7 +60379,7 @@
         <v>1.21</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT295" t="n">
         <v>1</v>
@@ -60582,7 +60582,7 @@
         <v>0.6</v>
       </c>
       <c r="AS296" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT296" t="n">
         <v>0.71</v>
@@ -60788,7 +60788,7 @@
         <v>1.35</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU297" t="n">
         <v>1.51</v>
@@ -60991,7 +60991,7 @@
         <v>1.71</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU298" t="n">
         <v>1.96</v>
@@ -61191,10 +61191,10 @@
         <v>1.36</v>
       </c>
       <c r="AS299" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU299" t="n">
         <v>1.47</v>
@@ -61394,7 +61394,7 @@
         <v>2.21</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT300" t="n">
         <v>2.06</v>
@@ -61597,7 +61597,7 @@
         <v>2.5</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT301" t="n">
         <v>2.29</v>
@@ -62412,7 +62412,7 @@
         <v>2.18</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU305" t="n">
         <v>1.97</v>
@@ -63221,7 +63221,7 @@
         <v>0.8</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT309" t="n">
         <v>0.71</v>
@@ -63833,7 +63833,7 @@
         <v>0.5</v>
       </c>
       <c r="AT312" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU312" t="n">
         <v>1.37</v>
@@ -64033,7 +64033,7 @@
         <v>1.4</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT313" t="n">
         <v>1.29</v>
@@ -64442,7 +64442,7 @@
         <v>1.71</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU315" t="n">
         <v>2.01</v>
@@ -64645,7 +64645,7 @@
         <v>1.41</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU316" t="n">
         <v>1.67</v>
@@ -64845,10 +64845,10 @@
         <v>0.88</v>
       </c>
       <c r="AS317" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT317" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU317" t="n">
         <v>1.32</v>
@@ -65048,10 +65048,10 @@
         <v>1.07</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT318" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU318" t="n">
         <v>1.45</v>
@@ -65251,7 +65251,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT319" t="n">
         <v>0.59</v>
@@ -65657,7 +65657,7 @@
         <v>2.4</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT321" t="n">
         <v>2.29</v>
@@ -66269,7 +66269,7 @@
         <v>1.71</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU324" t="n">
         <v>1.57</v>
@@ -66875,7 +66875,7 @@
         <v>1.5</v>
       </c>
       <c r="AS327" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT327" t="n">
         <v>1.59</v>
@@ -68554,6 +68554,1224 @@
       </c>
       <c r="BK335" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2468254</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45053.41666666666</v>
+      </c>
+      <c r="F336" t="n">
+        <v>34</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>1</v>
+      </c>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>2</v>
+      </c>
+      <c r="N336" t="n">
+        <v>2</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>['26', '47']</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>11</v>
+      </c>
+      <c r="R336" t="n">
+        <v>1</v>
+      </c>
+      <c r="S336" t="n">
+        <v>12</v>
+      </c>
+      <c r="T336" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V336" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X336" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2468251</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45053.41666666666</v>
+      </c>
+      <c r="F337" t="n">
+        <v>34</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>1</v>
+      </c>
+      <c r="N337" t="n">
+        <v>2</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>2</v>
+      </c>
+      <c r="R337" t="n">
+        <v>2</v>
+      </c>
+      <c r="S337" t="n">
+        <v>4</v>
+      </c>
+      <c r="T337" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V337" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X337" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2468250</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45053.41666666666</v>
+      </c>
+      <c r="F338" t="n">
+        <v>34</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>4</v>
+      </c>
+      <c r="R338" t="n">
+        <v>7</v>
+      </c>
+      <c r="S338" t="n">
+        <v>11</v>
+      </c>
+      <c r="T338" t="n">
+        <v>4</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V338" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X338" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2468253</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45053.41666666666</v>
+      </c>
+      <c r="F339" t="n">
+        <v>34</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="n">
+        <v>2</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+      <c r="N339" t="n">
+        <v>3</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>['32', '51']</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>4</v>
+      </c>
+      <c r="R339" t="n">
+        <v>6</v>
+      </c>
+      <c r="S339" t="n">
+        <v>10</v>
+      </c>
+      <c r="T339" t="n">
+        <v>3</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X339" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2468256</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45053.50347222222</v>
+      </c>
+      <c r="F340" t="n">
+        <v>34</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>2</v>
+      </c>
+      <c r="K340" t="n">
+        <v>3</v>
+      </c>
+      <c r="L340" t="n">
+        <v>5</v>
+      </c>
+      <c r="M340" t="n">
+        <v>4</v>
+      </c>
+      <c r="N340" t="n">
+        <v>9</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['31', '59', '70', '82', '90+10']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['40', '41', '53', '55']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>3</v>
+      </c>
+      <c r="R340" t="n">
+        <v>5</v>
+      </c>
+      <c r="S340" t="n">
+        <v>8</v>
+      </c>
+      <c r="T340" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V340" t="n">
+        <v>5</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X340" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2468259</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45053.65625</v>
+      </c>
+      <c r="F341" t="n">
+        <v>34</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1</v>
+      </c>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>3</v>
+      </c>
+      <c r="N341" t="n">
+        <v>4</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['8', '59', '86']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>6</v>
+      </c>
+      <c r="R341" t="n">
+        <v>6</v>
+      </c>
+      <c r="S341" t="n">
+        <v>12</v>
+      </c>
+      <c r="T341" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U341" t="n">
+        <v>3</v>
+      </c>
+      <c r="V341" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X341" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK341" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK341"/>
+  <dimension ref="A1:BK342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT9" t="n">
         <v>0.83</v>
@@ -2730,7 +2730,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.06</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU24" t="n">
         <v>1.77</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>0.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU43" t="n">
         <v>1.59</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT47" t="n">
         <v>1.35</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT62" t="n">
         <v>0.59</v>
@@ -13895,7 +13895,7 @@
         <v>1.29</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -18564,7 +18564,7 @@
         <v>0.71</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU89" t="n">
         <v>1.73</v>
@@ -18967,7 +18967,7 @@
         <v>0.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT91" t="n">
         <v>1.59</v>
@@ -21406,7 +21406,7 @@
         <v>1.65</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -21606,7 +21606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT104" t="n">
         <v>1.18</v>
@@ -25260,7 +25260,7 @@
         <v>0.8</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT122" t="n">
         <v>1.18</v>
@@ -26684,7 +26684,7 @@
         <v>1.25</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -29523,7 +29523,7 @@
         <v>1.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT143" t="n">
         <v>1.53</v>
@@ -30744,7 +30744,7 @@
         <v>1.35</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU149" t="n">
         <v>1.37</v>
@@ -34395,7 +34395,7 @@
         <v>2.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT167" t="n">
         <v>2.35</v>
@@ -34804,7 +34804,7 @@
         <v>2.18</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35413,7 +35413,7 @@
         <v>0.71</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU172" t="n">
         <v>1.35</v>
@@ -37440,7 +37440,7 @@
         <v>0.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT182" t="n">
         <v>0.71</v>
@@ -41300,7 +41300,7 @@
         <v>2.24</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU201" t="n">
         <v>2.08</v>
@@ -42515,7 +42515,7 @@
         <v>1.3</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT207" t="n">
         <v>1.59</v>
@@ -44954,7 +44954,7 @@
         <v>1.29</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU219" t="n">
         <v>1.62</v>
@@ -47796,7 +47796,7 @@
         <v>1.41</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU233" t="n">
         <v>1.66</v>
@@ -49214,7 +49214,7 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT240" t="n">
         <v>0.71</v>
@@ -51853,7 +51853,7 @@
         <v>1.42</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT253" t="n">
         <v>1.29</v>
@@ -55307,7 +55307,7 @@
         <v>1.71</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU270" t="n">
         <v>1.58</v>
@@ -56116,7 +56116,7 @@
         <v>0.38</v>
       </c>
       <c r="AS274" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT274" t="n">
         <v>0.31</v>
@@ -59164,7 +59164,7 @@
         <v>1.18</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU289" t="n">
         <v>1.57</v>
@@ -59770,7 +59770,7 @@
         <v>0.79</v>
       </c>
       <c r="AS292" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT292" t="n">
         <v>1</v>
@@ -62006,7 +62006,7 @@
         <v>2.29</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU303" t="n">
         <v>1.7</v>
@@ -64236,7 +64236,7 @@
         <v>2.13</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT314" t="n">
         <v>2.06</v>
@@ -66472,7 +66472,7 @@
         <v>1.41</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU325" t="n">
         <v>1.3</v>
@@ -68296,7 +68296,7 @@
         <v>2.44</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT334" t="n">
         <v>2.29</v>
@@ -69772,6 +69772,209 @@
       </c>
       <c r="BK341" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2468265</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45058.66666666666</v>
+      </c>
+      <c r="F342" t="n">
+        <v>35</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1</v>
+      </c>
+      <c r="K342" t="n">
+        <v>2</v>
+      </c>
+      <c r="L342" t="n">
+        <v>2</v>
+      </c>
+      <c r="M342" t="n">
+        <v>1</v>
+      </c>
+      <c r="N342" t="n">
+        <v>3</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>['39', '55']</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" t="n">
+        <v>14</v>
+      </c>
+      <c r="S342" t="n">
+        <v>14</v>
+      </c>
+      <c r="T342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V342" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X342" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK342"/>
+  <dimension ref="A1:BK351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT3" t="n">
         <v>2.06</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>2.35</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.18</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT11" t="n">
         <v>1.17</v>
@@ -2933,7 +2933,7 @@
         <v>1.18</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT14" t="n">
         <v>1.18</v>
@@ -3948,7 +3948,7 @@
         <v>1.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT20" t="n">
         <v>2.29</v>
@@ -4760,7 +4760,7 @@
         <v>1.71</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT22" t="n">
         <v>1.53</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT24" t="n">
         <v>1.17</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.13</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU26" t="n">
         <v>0.87</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU29" t="n">
         <v>1.89</v>
@@ -6790,7 +6790,7 @@
         <v>0.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU31" t="n">
         <v>1.08</v>
@@ -7602,7 +7602,7 @@
         <v>0.71</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU35" t="n">
         <v>1.19</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT38" t="n">
         <v>1.18</v>
@@ -8414,7 +8414,7 @@
         <v>1.71</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.44</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT40" t="n">
         <v>2.06</v>
@@ -8820,7 +8820,7 @@
         <v>1.71</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.62</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU42" t="n">
         <v>1.44</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT46" t="n">
         <v>0.83</v>
@@ -10038,7 +10038,7 @@
         <v>2.72</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT48" t="n">
         <v>2.35</v>
@@ -10444,7 +10444,7 @@
         <v>2.18</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT50" t="n">
         <v>1.53</v>
@@ -11053,7 +11053,7 @@
         <v>1.71</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU52" t="n">
         <v>1.89</v>
@@ -11456,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU54" t="n">
         <v>1.65</v>
@@ -11662,7 +11662,7 @@
         <v>0.71</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>0.97</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>1.18</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>1.65</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU61" t="n">
         <v>2.44</v>
@@ -13083,7 +13083,7 @@
         <v>2.72</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU62" t="n">
         <v>1.89</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT63" t="n">
         <v>0.83</v>
@@ -13486,10 +13486,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU64" t="n">
         <v>2.14</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT65" t="n">
         <v>1.53</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT66" t="n">
         <v>1.17</v>
@@ -14301,7 +14301,7 @@
         <v>0.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14504,7 +14504,7 @@
         <v>1.65</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU69" t="n">
         <v>1.92</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU70" t="n">
         <v>2.14</v>
@@ -14907,10 +14907,10 @@
         <v>0.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.43</v>
@@ -15113,7 +15113,7 @@
         <v>1.29</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU76" t="n">
         <v>1.49</v>
@@ -16125,10 +16125,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU77" t="n">
         <v>1.06</v>
@@ -16331,7 +16331,7 @@
         <v>1.41</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17546,10 +17546,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU84" t="n">
         <v>2.31</v>
@@ -17752,7 +17752,7 @@
         <v>1.65</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT86" t="n">
         <v>1.18</v>
@@ -18764,10 +18764,10 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18970,7 +18970,7 @@
         <v>2.72</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.81</v>
@@ -19373,10 +19373,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU93" t="n">
         <v>2.04</v>
@@ -19779,7 +19779,7 @@
         <v>2.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT95" t="n">
         <v>2.06</v>
@@ -19982,10 +19982,10 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU97" t="n">
         <v>1.19</v>
@@ -20594,7 +20594,7 @@
         <v>1.41</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU99" t="n">
         <v>1.56</v>
@@ -20794,10 +20794,10 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU100" t="n">
         <v>2.02</v>
@@ -21200,10 +21200,10 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21809,10 +21809,10 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22015,7 +22015,7 @@
         <v>1.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.48</v>
@@ -22215,10 +22215,10 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.98</v>
@@ -22421,7 +22421,7 @@
         <v>0.71</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22824,7 +22824,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT110" t="n">
         <v>1.53</v>
@@ -23027,7 +23027,7 @@
         <v>2.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT111" t="n">
         <v>2.29</v>
@@ -23433,10 +23433,10 @@
         <v>0.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.39</v>
@@ -23636,7 +23636,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT114" t="n">
         <v>1.53</v>
@@ -24045,7 +24045,7 @@
         <v>1.71</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT117" t="n">
         <v>0.83</v>
@@ -24451,7 +24451,7 @@
         <v>0.71</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.81</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>1.41</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU120" t="n">
         <v>1.61</v>
@@ -25463,10 +25463,10 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU123" t="n">
         <v>2.18</v>
@@ -25666,7 +25666,7 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT124" t="n">
         <v>2.29</v>
@@ -25872,7 +25872,7 @@
         <v>1.29</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26072,10 +26072,10 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -26275,7 +26275,7 @@
         <v>0.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT127" t="n">
         <v>1.18</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT129" t="n">
         <v>1.17</v>
@@ -26887,7 +26887,7 @@
         <v>1.65</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27090,7 +27090,7 @@
         <v>1.71</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU131" t="n">
         <v>2.07</v>
@@ -27293,7 +27293,7 @@
         <v>0.71</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -28102,7 +28102,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT136" t="n">
         <v>1.18</v>
@@ -28511,7 +28511,7 @@
         <v>1.71</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU138" t="n">
         <v>1.74</v>
@@ -28711,7 +28711,7 @@
         <v>2.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT139" t="n">
         <v>2.06</v>
@@ -29117,10 +29117,10 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.93</v>
@@ -29323,7 +29323,7 @@
         <v>1.71</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.92</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT144" t="n">
         <v>1.18</v>
@@ -29929,10 +29929,10 @@
         <v>0.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU145" t="n">
         <v>2.27</v>
@@ -30132,10 +30132,10 @@
         <v>0.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU146" t="n">
         <v>1.6</v>
@@ -30338,7 +30338,7 @@
         <v>2.18</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU147" t="n">
         <v>1.92</v>
@@ -30541,7 +30541,7 @@
         <v>1.18</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU148" t="n">
         <v>1.6</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT149" t="n">
         <v>1.17</v>
@@ -30944,10 +30944,10 @@
         <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU150" t="n">
         <v>1.33</v>
@@ -31147,7 +31147,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT151" t="n">
         <v>2.29</v>
@@ -31353,7 +31353,7 @@
         <v>0.71</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -31556,7 +31556,7 @@
         <v>0.71</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU153" t="n">
         <v>1.86</v>
@@ -31959,10 +31959,10 @@
         <v>1.43</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU155" t="n">
         <v>1.41</v>
@@ -32162,10 +32162,10 @@
         <v>0.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU156" t="n">
         <v>1.65</v>
@@ -32365,7 +32365,7 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT157" t="n">
         <v>1</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT161" t="n">
         <v>1.18</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT162" t="n">
         <v>0.83</v>
@@ -33586,7 +33586,7 @@
         <v>1.18</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33786,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU164" t="n">
         <v>1.65</v>
@@ -33992,7 +33992,7 @@
         <v>0.5</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU165" t="n">
         <v>1.4</v>
@@ -34598,10 +34598,10 @@
         <v>0.75</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU168" t="n">
         <v>1.45</v>
@@ -35004,7 +35004,7 @@
         <v>2</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT170" t="n">
         <v>2.29</v>
@@ -35207,10 +35207,10 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU171" t="n">
         <v>1.9</v>
@@ -35816,7 +35816,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT174" t="n">
         <v>1</v>
@@ -36022,7 +36022,7 @@
         <v>1.18</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU175" t="n">
         <v>1.57</v>
@@ -36222,10 +36222,10 @@
         <v>1.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU176" t="n">
         <v>1.67</v>
@@ -36831,10 +36831,10 @@
         <v>0.5</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU179" t="n">
         <v>2.13</v>
@@ -37034,7 +37034,7 @@
         <v>1.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT180" t="n">
         <v>1.53</v>
@@ -37443,7 +37443,7 @@
         <v>2.72</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU182" t="n">
         <v>1.86</v>
@@ -37643,10 +37643,10 @@
         <v>2</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -38052,7 +38052,7 @@
         <v>2.18</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU185" t="n">
         <v>1.83</v>
@@ -38255,7 +38255,7 @@
         <v>1.71</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU186" t="n">
         <v>1.86</v>
@@ -38455,7 +38455,7 @@
         <v>0.78</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT187" t="n">
         <v>0.83</v>
@@ -38861,10 +38861,10 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -39064,10 +39064,10 @@
         <v>0.89</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU190" t="n">
         <v>1.4</v>
@@ -39267,7 +39267,7 @@
         <v>2.44</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT191" t="n">
         <v>2.35</v>
@@ -39876,7 +39876,7 @@
         <v>2.22</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT194" t="n">
         <v>2.06</v>
@@ -40082,7 +40082,7 @@
         <v>1.41</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -40485,7 +40485,7 @@
         <v>0.78</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT197" t="n">
         <v>1.18</v>
@@ -40688,10 +40688,10 @@
         <v>0.44</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU198" t="n">
         <v>1.54</v>
@@ -40891,10 +40891,10 @@
         <v>0.7</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41097,7 +41097,7 @@
         <v>0.71</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU200" t="n">
         <v>1.36</v>
@@ -41297,7 +41297,7 @@
         <v>1.2</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT201" t="n">
         <v>1.17</v>
@@ -41503,7 +41503,7 @@
         <v>0.5</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU202" t="n">
         <v>1.42</v>
@@ -41706,7 +41706,7 @@
         <v>1.71</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU203" t="n">
         <v>1.82</v>
@@ -41906,10 +41906,10 @@
         <v>0.9</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU204" t="n">
         <v>1.72</v>
@@ -42518,7 +42518,7 @@
         <v>2.72</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU207" t="n">
         <v>1.84</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT208" t="n">
         <v>1</v>
@@ -42921,10 +42921,10 @@
         <v>0.4</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU209" t="n">
         <v>1.42</v>
@@ -43124,7 +43124,7 @@
         <v>2.2</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT210" t="n">
         <v>2.35</v>
@@ -43530,7 +43530,7 @@
         <v>1</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT212" t="n">
         <v>1.18</v>
@@ -43736,7 +43736,7 @@
         <v>0.71</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU213" t="n">
         <v>1.55</v>
@@ -43936,10 +43936,10 @@
         <v>1.4</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU214" t="n">
         <v>1.81</v>
@@ -44139,7 +44139,7 @@
         <v>2.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT215" t="n">
         <v>2.06</v>
@@ -44345,7 +44345,7 @@
         <v>1.65</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU216" t="n">
         <v>1.52</v>
@@ -44548,7 +44548,7 @@
         <v>0.71</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU217" t="n">
         <v>1.41</v>
@@ -44748,7 +44748,7 @@
         <v>1</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT218" t="n">
         <v>1.18</v>
@@ -45154,7 +45154,7 @@
         <v>1.5</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT220" t="n">
         <v>1.53</v>
@@ -45357,10 +45357,10 @@
         <v>1.45</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU221" t="n">
         <v>1.91</v>
@@ -45563,7 +45563,7 @@
         <v>1.41</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU222" t="n">
         <v>1.71</v>
@@ -45763,7 +45763,7 @@
         <v>2.27</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT223" t="n">
         <v>2.35</v>
@@ -45966,7 +45966,7 @@
         <v>2.3</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT224" t="n">
         <v>2.29</v>
@@ -46169,7 +46169,7 @@
         <v>1</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT225" t="n">
         <v>1</v>
@@ -46375,7 +46375,7 @@
         <v>1.71</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU226" t="n">
         <v>1.96</v>
@@ -46578,7 +46578,7 @@
         <v>0.5</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU227" t="n">
         <v>1.36</v>
@@ -46981,7 +46981,7 @@
         <v>0.82</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT229" t="n">
         <v>0.83</v>
@@ -47187,7 +47187,7 @@
         <v>1.18</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -47593,7 +47593,7 @@
         <v>1.29</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU232" t="n">
         <v>1.63</v>
@@ -47996,10 +47996,10 @@
         <v>0.45</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU234" t="n">
         <v>1.44</v>
@@ -48199,10 +48199,10 @@
         <v>1.55</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU235" t="n">
         <v>2.08</v>
@@ -48405,7 +48405,7 @@
         <v>1.65</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU236" t="n">
         <v>1.52</v>
@@ -48605,7 +48605,7 @@
         <v>2.18</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT237" t="n">
         <v>2.06</v>
@@ -48808,7 +48808,7 @@
         <v>1.45</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT238" t="n">
         <v>1.53</v>
@@ -49217,7 +49217,7 @@
         <v>2.72</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU240" t="n">
         <v>1.8</v>
@@ -49417,7 +49417,7 @@
         <v>2.36</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT241" t="n">
         <v>2.29</v>
@@ -49826,7 +49826,7 @@
         <v>0.5</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU243" t="n">
         <v>1.38</v>
@@ -50026,7 +50026,7 @@
         <v>1.33</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT244" t="n">
         <v>1.53</v>
@@ -50232,7 +50232,7 @@
         <v>1.65</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU245" t="n">
         <v>1.44</v>
@@ -50635,7 +50635,7 @@
         <v>0.82</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT247" t="n">
         <v>1</v>
@@ -50841,7 +50841,7 @@
         <v>0.71</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU248" t="n">
         <v>1.38</v>
@@ -51244,10 +51244,10 @@
         <v>1.58</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU250" t="n">
         <v>1.54</v>
@@ -51447,7 +51447,7 @@
         <v>2.08</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT251" t="n">
         <v>2.35</v>
@@ -51653,7 +51653,7 @@
         <v>1.41</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU252" t="n">
         <v>1.63</v>
@@ -51856,7 +51856,7 @@
         <v>2.72</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU253" t="n">
         <v>1.86</v>
@@ -52056,10 +52056,10 @@
         <v>0.85</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU254" t="n">
         <v>2.05</v>
@@ -52465,7 +52465,7 @@
         <v>1.71</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU256" t="n">
         <v>2.03</v>
@@ -52665,7 +52665,7 @@
         <v>1.33</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT257" t="n">
         <v>1.53</v>
@@ -52868,10 +52868,10 @@
         <v>0.42</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU258" t="n">
         <v>1.43</v>
@@ -53071,7 +53071,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT259" t="n">
         <v>0.83</v>
@@ -53277,7 +53277,7 @@
         <v>1.71</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU260" t="n">
         <v>2</v>
@@ -53477,7 +53477,7 @@
         <v>2.42</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT261" t="n">
         <v>2.29</v>
@@ -53683,7 +53683,7 @@
         <v>2.18</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU262" t="n">
         <v>1.98</v>
@@ -54086,7 +54086,7 @@
         <v>2.15</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT264" t="n">
         <v>2.35</v>
@@ -54289,7 +54289,7 @@
         <v>1.31</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT265" t="n">
         <v>1.53</v>
@@ -54495,7 +54495,7 @@
         <v>1.65</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU266" t="n">
         <v>1.48</v>
@@ -54698,7 +54698,7 @@
         <v>1.18</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU267" t="n">
         <v>1.63</v>
@@ -55304,7 +55304,7 @@
         <v>1.15</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT270" t="n">
         <v>1.17</v>
@@ -55507,7 +55507,7 @@
         <v>0.83</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT271" t="n">
         <v>1</v>
@@ -55713,7 +55713,7 @@
         <v>1.71</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU272" t="n">
         <v>2.01</v>
@@ -55913,10 +55913,10 @@
         <v>1.38</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU273" t="n">
         <v>1.62</v>
@@ -56119,7 +56119,7 @@
         <v>2.72</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU274" t="n">
         <v>1.79</v>
@@ -56522,7 +56522,7 @@
         <v>1.46</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT276" t="n">
         <v>1.53</v>
@@ -56725,10 +56725,10 @@
         <v>0.64</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU277" t="n">
         <v>1.44</v>
@@ -57134,7 +57134,7 @@
         <v>1.41</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -57334,7 +57334,7 @@
         <v>1.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT280" t="n">
         <v>1</v>
@@ -57740,7 +57740,7 @@
         <v>1.23</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT282" t="n">
         <v>1.18</v>
@@ -57946,7 +57946,7 @@
         <v>1.29</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU283" t="n">
         <v>1.52</v>
@@ -58146,7 +58146,7 @@
         <v>1.43</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT284" t="n">
         <v>1.53</v>
@@ -58352,7 +58352,7 @@
         <v>2.18</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU285" t="n">
         <v>1.94</v>
@@ -58552,7 +58552,7 @@
         <v>1</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT286" t="n">
         <v>1.18</v>
@@ -58758,7 +58758,7 @@
         <v>0.5</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU287" t="n">
         <v>1.38</v>
@@ -58958,10 +58958,10 @@
         <v>0.79</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU288" t="n">
         <v>1.27</v>
@@ -59364,7 +59364,7 @@
         <v>0.85</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT290" t="n">
         <v>1</v>
@@ -59567,10 +59567,10 @@
         <v>1.29</v>
       </c>
       <c r="AS291" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU291" t="n">
         <v>2.08</v>
@@ -59976,7 +59976,7 @@
         <v>0.5</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU293" t="n">
         <v>1.4</v>
@@ -60585,7 +60585,7 @@
         <v>0.71</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU296" t="n">
         <v>1.33</v>
@@ -60785,7 +60785,7 @@
         <v>0.93</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT297" t="n">
         <v>1.18</v>
@@ -61800,10 +61800,10 @@
         <v>1.4</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU302" t="n">
         <v>1.63</v>
@@ -62003,7 +62003,7 @@
         <v>1.4</v>
       </c>
       <c r="AS303" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT303" t="n">
         <v>1.17</v>
@@ -62206,7 +62206,7 @@
         <v>1.53</v>
       </c>
       <c r="AS304" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT304" t="n">
         <v>1.53</v>
@@ -62612,10 +62612,10 @@
         <v>0.36</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU306" t="n">
         <v>1.3</v>
@@ -62815,10 +62815,10 @@
         <v>0.73</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT307" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU307" t="n">
         <v>1.45</v>
@@ -63018,10 +63018,10 @@
         <v>1.6</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT308" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU308" t="n">
         <v>1.48</v>
@@ -63224,7 +63224,7 @@
         <v>1.29</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU309" t="n">
         <v>1.52</v>
@@ -63424,10 +63424,10 @@
         <v>1.33</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU310" t="n">
         <v>1.55</v>
@@ -63627,10 +63627,10 @@
         <v>0.6</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT311" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU311" t="n">
         <v>1.86</v>
@@ -64036,7 +64036,7 @@
         <v>1.29</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU313" t="n">
         <v>1.51</v>
@@ -65254,7 +65254,7 @@
         <v>1.18</v>
       </c>
       <c r="AT319" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU319" t="n">
         <v>1.53</v>
@@ -65454,7 +65454,7 @@
         <v>1.13</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT320" t="n">
         <v>1</v>
@@ -65860,10 +65860,10 @@
         <v>1.5</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT322" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU322" t="n">
         <v>1.46</v>
@@ -66066,7 +66066,7 @@
         <v>2.18</v>
       </c>
       <c r="AT323" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU323" t="n">
         <v>1.96</v>
@@ -66266,7 +66266,7 @@
         <v>1.13</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT324" t="n">
         <v>1.18</v>
@@ -66469,7 +66469,7 @@
         <v>1.31</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT325" t="n">
         <v>1.17</v>
@@ -66672,10 +66672,10 @@
         <v>0.33</v>
       </c>
       <c r="AS326" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT326" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU326" t="n">
         <v>1.75</v>
@@ -66878,7 +66878,7 @@
         <v>0.71</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU327" t="n">
         <v>1.45</v>
@@ -67078,10 +67078,10 @@
         <v>1.25</v>
       </c>
       <c r="AS328" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AT328" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU328" t="n">
         <v>2.04</v>
@@ -67281,10 +67281,10 @@
         <v>0.75</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT329" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU329" t="n">
         <v>1.89</v>
@@ -67484,7 +67484,7 @@
         <v>1.44</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT330" t="n">
         <v>1.53</v>
@@ -67687,10 +67687,10 @@
         <v>0.75</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT331" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU331" t="n">
         <v>1.46</v>
@@ -68096,7 +68096,7 @@
         <v>1.71</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU333" t="n">
         <v>2</v>
@@ -69975,6 +69975,1833 @@
       </c>
       <c r="BK342" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2468266</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F343" t="n">
+        <v>35</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>1</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="n">
+        <v>2</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>2</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>['1', '59']</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q343" t="n">
+        <v>2</v>
+      </c>
+      <c r="R343" t="n">
+        <v>3</v>
+      </c>
+      <c r="S343" t="n">
+        <v>5</v>
+      </c>
+      <c r="T343" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U343" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V343" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W343" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X343" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ343" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA343" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB343" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC343" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD343" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE343" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF343" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG343" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH343" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ343" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK343" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2468264</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F344" t="n">
+        <v>35</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>2</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>2</v>
+      </c>
+      <c r="L344" t="n">
+        <v>5</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>5</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>['22', '33', '47', '54', '73']</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q344" t="n">
+        <v>8</v>
+      </c>
+      <c r="R344" t="n">
+        <v>3</v>
+      </c>
+      <c r="S344" t="n">
+        <v>11</v>
+      </c>
+      <c r="T344" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U344" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V344" t="n">
+        <v>17</v>
+      </c>
+      <c r="W344" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X344" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH344" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ344" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK344" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AL344" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM344" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN344" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP344" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AQ344" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AR344" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS344" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AT344" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU344" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV344" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW344" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX344" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY344" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ344" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA344" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB344" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC344" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD344" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE344" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF344" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG344" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH344" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI344" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ344" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK344" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2468261</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>45060.33333333334</v>
+      </c>
+      <c r="F345" t="n">
+        <v>35</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>1</v>
+      </c>
+      <c r="J345" t="n">
+        <v>1</v>
+      </c>
+      <c r="K345" t="n">
+        <v>2</v>
+      </c>
+      <c r="L345" t="n">
+        <v>2</v>
+      </c>
+      <c r="M345" t="n">
+        <v>1</v>
+      </c>
+      <c r="N345" t="n">
+        <v>3</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>['25', '65']</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q345" t="n">
+        <v>5</v>
+      </c>
+      <c r="R345" t="n">
+        <v>2</v>
+      </c>
+      <c r="S345" t="n">
+        <v>7</v>
+      </c>
+      <c r="T345" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U345" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V345" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W345" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X345" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD345" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE345" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF345" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG345" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH345" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI345" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ345" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK345" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL345" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM345" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN345" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO345" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP345" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ345" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR345" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS345" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT345" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU345" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV345" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW345" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX345" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY345" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ345" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA345" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB345" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC345" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD345" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE345" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF345" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG345" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH345" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI345" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ345" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK345" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2468262</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>45060.41666666666</v>
+      </c>
+      <c r="F346" t="n">
+        <v>35</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="n">
+        <v>1</v>
+      </c>
+      <c r="N346" t="n">
+        <v>2</v>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q346" t="n">
+        <v>11</v>
+      </c>
+      <c r="R346" t="n">
+        <v>5</v>
+      </c>
+      <c r="S346" t="n">
+        <v>16</v>
+      </c>
+      <c r="T346" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U346" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V346" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W346" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X346" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD346" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE346" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF346" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG346" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH346" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI346" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ346" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK346" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL346" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM346" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN346" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO346" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP346" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ346" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR346" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS346" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT346" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU346" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV346" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW346" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX346" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY346" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ346" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA346" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB346" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC346" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD346" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE346" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF346" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG346" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH346" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI346" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ346" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK346" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2468267</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>45060.41666666666</v>
+      </c>
+      <c r="F347" t="n">
+        <v>35</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>1</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q347" t="n">
+        <v>6</v>
+      </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
+      <c r="S347" t="n">
+        <v>6</v>
+      </c>
+      <c r="T347" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U347" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V347" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W347" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X347" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE347" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF347" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG347" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH347" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ347" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK347" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL347" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM347" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN347" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO347" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP347" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ347" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR347" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS347" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT347" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU347" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV347" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW347" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX347" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY347" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ347" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA347" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB347" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC347" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD347" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE347" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF347" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG347" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH347" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI347" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ347" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK347" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2468268</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>45060.41666666666</v>
+      </c>
+      <c r="F348" t="n">
+        <v>35</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>1</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="n">
+        <v>4</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>4</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>['14', '65', '70', '74']</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q348" t="n">
+        <v>9</v>
+      </c>
+      <c r="R348" t="n">
+        <v>1</v>
+      </c>
+      <c r="S348" t="n">
+        <v>10</v>
+      </c>
+      <c r="T348" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U348" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V348" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W348" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X348" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD348" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE348" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF348" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG348" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH348" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ348" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK348" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL348" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM348" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN348" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO348" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP348" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ348" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR348" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS348" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT348" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU348" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV348" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW348" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX348" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY348" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ348" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BA348" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB348" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC348" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD348" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE348" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF348" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG348" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH348" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI348" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ348" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK348" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2468269</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>45060.47916666666</v>
+      </c>
+      <c r="F349" t="n">
+        <v>35</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q349" t="n">
+        <v>10</v>
+      </c>
+      <c r="R349" t="n">
+        <v>5</v>
+      </c>
+      <c r="S349" t="n">
+        <v>15</v>
+      </c>
+      <c r="T349" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U349" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V349" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W349" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X349" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD349" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AE349" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AF349" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG349" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH349" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ349" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK349" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL349" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM349" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN349" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP349" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ349" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR349" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS349" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT349" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AU349" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV349" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW349" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX349" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY349" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ349" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA349" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB349" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC349" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD349" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE349" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF349" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG349" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH349" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI349" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ349" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK349" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2468260</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>45060.50347222222</v>
+      </c>
+      <c r="F350" t="n">
+        <v>35</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q350" t="n">
+        <v>3</v>
+      </c>
+      <c r="R350" t="n">
+        <v>4</v>
+      </c>
+      <c r="S350" t="n">
+        <v>7</v>
+      </c>
+      <c r="T350" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U350" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V350" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W350" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X350" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ350" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA350" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB350" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC350" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD350" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE350" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF350" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG350" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH350" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ350" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK350" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2468263</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45060.65625</v>
+      </c>
+      <c r="F351" t="n">
+        <v>35</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>1</v>
+      </c>
+      <c r="J351" t="n">
+        <v>1</v>
+      </c>
+      <c r="K351" t="n">
+        <v>2</v>
+      </c>
+      <c r="L351" t="n">
+        <v>3</v>
+      </c>
+      <c r="M351" t="n">
+        <v>1</v>
+      </c>
+      <c r="N351" t="n">
+        <v>4</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>['34', '48', '77']</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q351" t="n">
+        <v>7</v>
+      </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
+      <c r="S351" t="n">
+        <v>7</v>
+      </c>
+      <c r="T351" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U351" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V351" t="n">
+        <v>10</v>
+      </c>
+      <c r="W351" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X351" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE351" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH351" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL351" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP351" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AQ351" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR351" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AS351" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT351" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU351" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW351" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX351" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY351" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ351" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA351" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB351" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC351" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD351" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE351" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF351" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG351" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH351" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI351" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ351" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK351" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK351"/>
+  <dimension ref="A1:BK354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT2" t="n">
         <v>0.61</v>
@@ -1106,7 +1106,7 @@
         <v>1.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT6" t="n">
         <v>0.67</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT12" t="n">
         <v>1.28</v>
@@ -3339,7 +3339,7 @@
         <v>2.28</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.35</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5600000000000001</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT30" t="n">
         <v>2.35</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT34" t="n">
         <v>1.18</v>
@@ -8008,7 +8008,7 @@
         <v>1.41</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8211,7 +8211,7 @@
         <v>1.35</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
@@ -8617,7 +8617,7 @@
         <v>2.28</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU40" t="n">
         <v>3.14</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT41" t="n">
         <v>0.67</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -10850,7 +10850,7 @@
         <v>1.29</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU51" t="n">
         <v>1.36</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT52" t="n">
         <v>0.29</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT53" t="n">
         <v>2.35</v>
@@ -12677,7 +12677,7 @@
         <v>1.41</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -14098,7 +14098,7 @@
         <v>0.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU67" t="n">
         <v>1.52</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT74" t="n">
         <v>1.18</v>
@@ -15722,7 +15722,7 @@
         <v>1.71</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT80" t="n">
         <v>1.53</v>
@@ -16937,7 +16937,7 @@
         <v>3</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT81" t="n">
         <v>2.35</v>
@@ -17143,7 +17143,7 @@
         <v>0.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU82" t="n">
         <v>1.5</v>
@@ -17955,7 +17955,7 @@
         <v>1.28</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -19170,7 +19170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT92" t="n">
         <v>1.18</v>
@@ -19782,7 +19782,7 @@
         <v>1.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT101" t="n">
         <v>1.53</v>
@@ -21609,7 +21609,7 @@
         <v>2.72</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU104" t="n">
         <v>1.94</v>
@@ -22621,7 +22621,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT109" t="n">
         <v>0.83</v>
@@ -23030,7 +23030,7 @@
         <v>2.28</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU111" t="n">
         <v>2.1</v>
@@ -25057,10 +25057,10 @@
         <v>2.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -25669,7 +25669,7 @@
         <v>1.17</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU124" t="n">
         <v>1.3</v>
@@ -26278,7 +26278,7 @@
         <v>2.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU127" t="n">
         <v>1.91</v>
@@ -26478,7 +26478,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT128" t="n">
         <v>1.53</v>
@@ -27087,7 +27087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT131" t="n">
         <v>1.28</v>
@@ -28105,7 +28105,7 @@
         <v>1.5</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28714,7 +28714,7 @@
         <v>1.28</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT140" t="n">
         <v>1</v>
@@ -29320,7 +29320,7 @@
         <v>1.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT142" t="n">
         <v>1.5</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT147" t="n">
         <v>0.29</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT148" t="n">
         <v>0.61</v>
@@ -31150,7 +31150,7 @@
         <v>1.67</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU151" t="n">
         <v>1.31</v>
@@ -31759,7 +31759,7 @@
         <v>1.29</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -32571,7 +32571,7 @@
         <v>1.65</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU158" t="n">
         <v>1.59</v>
@@ -33583,7 +33583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT163" t="n">
         <v>0.67</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT166" t="n">
         <v>1.53</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT169" t="n">
         <v>1.17</v>
@@ -35007,7 +35007,7 @@
         <v>1.33</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU170" t="n">
         <v>1.48</v>
@@ -36019,7 +36019,7 @@
         <v>0.88</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT175" t="n">
         <v>1.5</v>
@@ -36428,7 +36428,7 @@
         <v>1.65</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU177" t="n">
         <v>1.59</v>
@@ -36631,7 +36631,7 @@
         <v>1.41</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU178" t="n">
         <v>1.66</v>
@@ -37240,7 +37240,7 @@
         <v>0.71</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU181" t="n">
         <v>1.76</v>
@@ -37846,7 +37846,7 @@
         <v>0.75</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT185" t="n">
         <v>0.5600000000000001</v>
@@ -39879,7 +39879,7 @@
         <v>1.89</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU194" t="n">
         <v>1.89</v>
@@ -40285,7 +40285,7 @@
         <v>1.29</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU196" t="n">
         <v>1.6</v>
@@ -42109,10 +42109,10 @@
         <v>2.22</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU205" t="n">
         <v>1.56</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT206" t="n">
         <v>1.53</v>
@@ -43327,7 +43327,7 @@
         <v>0.8</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT211" t="n">
         <v>0.83</v>
@@ -44142,7 +44142,7 @@
         <v>1.5</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU215" t="n">
         <v>1.33</v>
@@ -44751,7 +44751,7 @@
         <v>1.17</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU218" t="n">
         <v>1.5</v>
@@ -45969,7 +45969,7 @@
         <v>1.5</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU224" t="n">
         <v>1.31</v>
@@ -46778,7 +46778,7 @@
         <v>0.9</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT228" t="n">
         <v>1</v>
@@ -47184,7 +47184,7 @@
         <v>1.64</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT230" t="n">
         <v>1.33</v>
@@ -47387,7 +47387,7 @@
         <v>1.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT231" t="n">
         <v>1.53</v>
@@ -48608,7 +48608,7 @@
         <v>1.35</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU237" t="n">
         <v>1.54</v>
@@ -49014,7 +49014,7 @@
         <v>0.71</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU239" t="n">
         <v>1.51</v>
@@ -49420,7 +49420,7 @@
         <v>1.28</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU241" t="n">
         <v>1.7</v>
@@ -49620,7 +49620,7 @@
         <v>0.75</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT242" t="n">
         <v>0.83</v>
@@ -51041,7 +51041,7 @@
         <v>0.91</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT249" t="n">
         <v>1</v>
@@ -52262,7 +52262,7 @@
         <v>0.71</v>
       </c>
       <c r="AT255" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU255" t="n">
         <v>1.45</v>
@@ -53274,7 +53274,7 @@
         <v>1.5</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT260" t="n">
         <v>1.33</v>
@@ -53480,7 +53480,7 @@
         <v>2.33</v>
       </c>
       <c r="AT261" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU261" t="n">
         <v>1.71</v>
@@ -53680,7 +53680,7 @@
         <v>1.31</v>
       </c>
       <c r="AS262" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT262" t="n">
         <v>1.5</v>
@@ -54695,7 +54695,7 @@
         <v>1.69</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT267" t="n">
         <v>1.5</v>
@@ -54901,7 +54901,7 @@
         <v>0.71</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU268" t="n">
         <v>1.41</v>
@@ -55710,7 +55710,7 @@
         <v>0.79</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT272" t="n">
         <v>0.72</v>
@@ -56322,7 +56322,7 @@
         <v>0.71</v>
       </c>
       <c r="AT275" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU275" t="n">
         <v>1.36</v>
@@ -57540,7 +57540,7 @@
         <v>1.71</v>
       </c>
       <c r="AT281" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU281" t="n">
         <v>1.96</v>
@@ -57743,7 +57743,7 @@
         <v>1.89</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU282" t="n">
         <v>1.9</v>
@@ -58349,7 +58349,7 @@
         <v>1.43</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT285" t="n">
         <v>1.33</v>
@@ -59161,7 +59161,7 @@
         <v>1.29</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT289" t="n">
         <v>1.17</v>
@@ -60379,7 +60379,7 @@
         <v>1.21</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT295" t="n">
         <v>1</v>
@@ -61394,10 +61394,10 @@
         <v>2.21</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT300" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU300" t="n">
         <v>1.57</v>
@@ -61600,7 +61600,7 @@
         <v>1.65</v>
       </c>
       <c r="AT301" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU301" t="n">
         <v>1.48</v>
@@ -62409,10 +62409,10 @@
         <v>1.21</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU305" t="n">
         <v>1.97</v>
@@ -64239,7 +64239,7 @@
         <v>2.72</v>
       </c>
       <c r="AT314" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU314" t="n">
         <v>1.75</v>
@@ -65251,7 +65251,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT319" t="n">
         <v>0.5600000000000001</v>
@@ -65657,10 +65657,10 @@
         <v>2.4</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT321" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU321" t="n">
         <v>1.92</v>
@@ -66063,7 +66063,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS323" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT323" t="n">
         <v>0.61</v>
@@ -66269,7 +66269,7 @@
         <v>1.67</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU324" t="n">
         <v>1.57</v>
@@ -68299,7 +68299,7 @@
         <v>2.72</v>
       </c>
       <c r="AT334" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AU334" t="n">
         <v>1.77</v>
@@ -68502,7 +68502,7 @@
         <v>0.5</v>
       </c>
       <c r="AT335" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU335" t="n">
         <v>1.39</v>
@@ -68702,7 +68702,7 @@
         <v>0.88</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT336" t="n">
         <v>1</v>
@@ -69514,10 +69514,10 @@
         <v>1.25</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT340" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU340" t="n">
         <v>1.86</v>
@@ -71802,6 +71802,615 @@
       </c>
       <c r="BK351" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2468276</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45065.66666666666</v>
+      </c>
+      <c r="F352" t="n">
+        <v>36</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>1</v>
+      </c>
+      <c r="K352" t="n">
+        <v>2</v>
+      </c>
+      <c r="L352" t="n">
+        <v>3</v>
+      </c>
+      <c r="M352" t="n">
+        <v>1</v>
+      </c>
+      <c r="N352" t="n">
+        <v>4</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>['38', '57', '78']</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q352" t="n">
+        <v>2</v>
+      </c>
+      <c r="R352" t="n">
+        <v>8</v>
+      </c>
+      <c r="S352" t="n">
+        <v>10</v>
+      </c>
+      <c r="T352" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U352" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V352" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W352" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X352" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ352" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA352" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB352" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC352" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD352" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE352" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF352" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG352" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH352" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ352" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK352" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2468273</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>45066.5</v>
+      </c>
+      <c r="F353" t="n">
+        <v>36</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
+      <c r="J353" t="n">
+        <v>1</v>
+      </c>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>3</v>
+      </c>
+      <c r="N353" t="n">
+        <v>3</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>['38', '47', '88']</t>
+        </is>
+      </c>
+      <c r="Q353" t="n">
+        <v>10</v>
+      </c>
+      <c r="R353" t="n">
+        <v>6</v>
+      </c>
+      <c r="S353" t="n">
+        <v>16</v>
+      </c>
+      <c r="T353" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U353" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V353" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W353" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X353" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH353" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL353" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP353" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ353" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR353" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS353" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT353" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU353" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW353" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX353" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY353" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ353" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA353" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB353" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC353" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD353" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE353" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF353" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG353" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH353" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI353" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ353" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK353" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2468274</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F354" t="n">
+        <v>36</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>0</v>
+      </c>
+      <c r="J354" t="n">
+        <v>1</v>
+      </c>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="n">
+        <v>2</v>
+      </c>
+      <c r="M354" t="n">
+        <v>1</v>
+      </c>
+      <c r="N354" t="n">
+        <v>3</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>['50', '72']</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q354" t="n">
+        <v>3</v>
+      </c>
+      <c r="R354" t="n">
+        <v>4</v>
+      </c>
+      <c r="S354" t="n">
+        <v>7</v>
+      </c>
+      <c r="T354" t="n">
+        <v>3</v>
+      </c>
+      <c r="U354" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V354" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W354" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X354" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH354" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL354" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP354" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ354" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR354" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS354" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT354" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU354" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW354" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX354" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY354" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ354" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA354" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB354" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC354" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD354" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE354" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF354" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG354" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH354" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI354" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ354" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK354" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK354"/>
+  <dimension ref="A1:BK361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT20" t="n">
         <v>2.17</v>
@@ -4963,7 +4963,7 @@
         <v>1.67</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU22" t="n">
         <v>1.35</v>
@@ -6587,7 +6587,7 @@
         <v>2.22</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT31" t="n">
         <v>1.28</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>2.72</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -7399,7 +7399,7 @@
         <v>1.11</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.19</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT37" t="n">
         <v>2.17</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT38" t="n">
         <v>1.28</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT39" t="n">
         <v>1.5</v>
@@ -10241,7 +10241,7 @@
         <v>1.28</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU48" t="n">
         <v>1.44</v>
@@ -10647,7 +10647,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU50" t="n">
         <v>1.98</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT51" t="n">
         <v>2.17</v>
@@ -11053,7 +11053,7 @@
         <v>1.78</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU52" t="n">
         <v>1.89</v>
@@ -11256,7 +11256,7 @@
         <v>1.11</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT55" t="n">
         <v>1.33</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU56" t="n">
         <v>0.92</v>
@@ -12065,10 +12065,10 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU57" t="n">
         <v>1.31</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12471,10 +12471,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU59" t="n">
         <v>2.18</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT60" t="n">
         <v>1.94</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT61" t="n">
         <v>1.5</v>
@@ -13692,7 +13692,7 @@
         <v>1.17</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT68" t="n">
         <v>1.5</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT69" t="n">
         <v>0.72</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT72" t="n">
         <v>1.33</v>
@@ -15519,7 +15519,7 @@
         <v>2.22</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU74" t="n">
         <v>2.06</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT75" t="n">
         <v>1.94</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT76" t="n">
         <v>0.61</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -16534,7 +16534,7 @@
         <v>1.89</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU79" t="n">
         <v>2.05</v>
@@ -16737,7 +16737,7 @@
         <v>1.11</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -16940,7 +16940,7 @@
         <v>1.78</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU81" t="n">
         <v>2.16</v>
@@ -17346,7 +17346,7 @@
         <v>1.17</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU83" t="n">
         <v>1.41</v>
@@ -17749,7 +17749,7 @@
         <v>1.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT85" t="n">
         <v>1.28</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT88" t="n">
         <v>0.83</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT89" t="n">
         <v>1.17</v>
@@ -19173,7 +19173,7 @@
         <v>1.78</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU92" t="n">
         <v>2.04</v>
@@ -19576,10 +19576,10 @@
         <v>3</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU94" t="n">
         <v>1.39</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT96" t="n">
         <v>1.33</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT99" t="n">
         <v>0.5600000000000001</v>
@@ -21000,7 +21000,7 @@
         <v>2.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU101" t="n">
         <v>1.87</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT103" t="n">
         <v>1.17</v>
@@ -21812,7 +21812,7 @@
         <v>1.28</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,7 +22012,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT108" t="n">
         <v>0.61</v>
@@ -22827,7 +22827,7 @@
         <v>1.67</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU110" t="n">
         <v>1.38</v>
@@ -23230,10 +23230,10 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23639,7 +23639,7 @@
         <v>1.89</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU114" t="n">
         <v>1.96</v>
@@ -23842,7 +23842,7 @@
         <v>0.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU115" t="n">
         <v>1.56</v>
@@ -24042,7 +24042,7 @@
         <v>0.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT116" t="n">
         <v>0.67</v>
@@ -24448,7 +24448,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT118" t="n">
         <v>1.33</v>
@@ -24854,7 +24854,7 @@
         <v>0.33</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT120" t="n">
         <v>0.72</v>
@@ -25263,7 +25263,7 @@
         <v>2.72</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU122" t="n">
         <v>1.97</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT125" t="n">
         <v>0.61</v>
@@ -26075,7 +26075,7 @@
         <v>1.67</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -26481,7 +26481,7 @@
         <v>1.11</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU128" t="n">
         <v>1.57</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT129" t="n">
         <v>1.17</v>
@@ -26884,7 +26884,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT130" t="n">
         <v>1.5</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT132" t="n">
         <v>0.67</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -27699,7 +27699,7 @@
         <v>0.5</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27899,10 +27899,10 @@
         <v>2.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT137" t="n">
         <v>0.83</v>
@@ -28508,7 +28508,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT138" t="n">
         <v>0.72</v>
@@ -28917,7 +28917,7 @@
         <v>2.22</v>
       </c>
       <c r="AT140" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -29526,7 +29526,7 @@
         <v>2.72</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU143" t="n">
         <v>1.94</v>
@@ -29729,7 +29729,7 @@
         <v>2.33</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -30132,7 +30132,7 @@
         <v>0.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT146" t="n">
         <v>0.5600000000000001</v>
@@ -30338,7 +30338,7 @@
         <v>2.22</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU147" t="n">
         <v>1.92</v>
@@ -31350,10 +31350,10 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -31553,7 +31553,7 @@
         <v>0.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT153" t="n">
         <v>0.72</v>
@@ -31756,7 +31756,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT154" t="n">
         <v>1.94</v>
@@ -32162,7 +32162,7 @@
         <v>0.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT156" t="n">
         <v>1.5</v>
@@ -32568,7 +32568,7 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT158" t="n">
         <v>1.28</v>
@@ -32771,10 +32771,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT159" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU159" t="n">
         <v>1.91</v>
@@ -32974,10 +32974,10 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU160" t="n">
         <v>1.7</v>
@@ -33180,7 +33180,7 @@
         <v>1.89</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU161" t="n">
         <v>1.84</v>
@@ -34195,7 +34195,7 @@
         <v>1.78</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU166" t="n">
         <v>1.84</v>
@@ -34398,7 +34398,7 @@
         <v>2.72</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -35410,7 +35410,7 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT172" t="n">
         <v>1.17</v>
@@ -35613,10 +35613,10 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -35819,7 +35819,7 @@
         <v>1.5</v>
       </c>
       <c r="AT174" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU174" t="n">
         <v>1.39</v>
@@ -36222,7 +36222,7 @@
         <v>1.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT176" t="n">
         <v>1.28</v>
@@ -36425,7 +36425,7 @@
         <v>2.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT177" t="n">
         <v>1.94</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT178" t="n">
         <v>1.28</v>
@@ -36834,7 +36834,7 @@
         <v>2.28</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU179" t="n">
         <v>2.13</v>
@@ -37037,7 +37037,7 @@
         <v>1.17</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU180" t="n">
         <v>1.54</v>
@@ -37237,7 +37237,7 @@
         <v>2.13</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT181" t="n">
         <v>2.17</v>
@@ -38252,7 +38252,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT186" t="n">
         <v>1.5</v>
@@ -38661,7 +38661,7 @@
         <v>0.5</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU188" t="n">
         <v>1.47</v>
@@ -39270,7 +39270,7 @@
         <v>2.33</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU191" t="n">
         <v>1.95</v>
@@ -39470,10 +39470,10 @@
         <v>1.11</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT192" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU192" t="n">
         <v>1.58</v>
@@ -39673,10 +39673,10 @@
         <v>1.56</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU193" t="n">
         <v>1.64</v>
@@ -40079,7 +40079,7 @@
         <v>1.56</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT195" t="n">
         <v>1.28</v>
@@ -40282,7 +40282,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT196" t="n">
         <v>1.28</v>
@@ -40488,7 +40488,7 @@
         <v>1.17</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU197" t="n">
         <v>1.52</v>
@@ -40688,10 +40688,10 @@
         <v>0.44</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU198" t="n">
         <v>1.54</v>
@@ -41094,7 +41094,7 @@
         <v>0.89</v>
       </c>
       <c r="AS200" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT200" t="n">
         <v>1.5</v>
@@ -41703,7 +41703,7 @@
         <v>1.8</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT203" t="n">
         <v>1.33</v>
@@ -42315,7 +42315,7 @@
         <v>2.22</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU206" t="n">
         <v>1.89</v>
@@ -43127,7 +43127,7 @@
         <v>1.33</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU210" t="n">
         <v>1.44</v>
@@ -43533,7 +43533,7 @@
         <v>2.28</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU212" t="n">
         <v>2.04</v>
@@ -43733,7 +43733,7 @@
         <v>1.1</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT213" t="n">
         <v>1.5</v>
@@ -44342,10 +44342,10 @@
         <v>0.4</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU216" t="n">
         <v>1.52</v>
@@ -44545,7 +44545,7 @@
         <v>0.73</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT217" t="n">
         <v>0.72</v>
@@ -44951,7 +44951,7 @@
         <v>1.18</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT219" t="n">
         <v>1.17</v>
@@ -45154,10 +45154,10 @@
         <v>1.5</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU220" t="n">
         <v>1.53</v>
@@ -45560,7 +45560,7 @@
         <v>1</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT222" t="n">
         <v>0.61</v>
@@ -45766,7 +45766,7 @@
         <v>1.67</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU223" t="n">
         <v>1.46</v>
@@ -46172,7 +46172,7 @@
         <v>1.28</v>
       </c>
       <c r="AT225" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU225" t="n">
         <v>1.71</v>
@@ -46372,7 +46372,7 @@
         <v>0.82</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT226" t="n">
         <v>0.5600000000000001</v>
@@ -47390,7 +47390,7 @@
         <v>1.78</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU231" t="n">
         <v>2.05</v>
@@ -47590,7 +47590,7 @@
         <v>1.27</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT232" t="n">
         <v>1.5</v>
@@ -47793,7 +47793,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT233" t="n">
         <v>1.17</v>
@@ -47999,7 +47999,7 @@
         <v>1.17</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU234" t="n">
         <v>1.44</v>
@@ -48402,7 +48402,7 @@
         <v>0.92</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT236" t="n">
         <v>0.61</v>
@@ -48605,7 +48605,7 @@
         <v>2.18</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT237" t="n">
         <v>1.94</v>
@@ -48811,7 +48811,7 @@
         <v>2.33</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU238" t="n">
         <v>1.78</v>
@@ -49011,7 +49011,7 @@
         <v>0.91</v>
       </c>
       <c r="AS239" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT239" t="n">
         <v>1.28</v>
@@ -50029,7 +50029,7 @@
         <v>1.33</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU244" t="n">
         <v>1.46</v>
@@ -50229,7 +50229,7 @@
         <v>0.42</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT245" t="n">
         <v>0.67</v>
@@ -50432,10 +50432,10 @@
         <v>0.91</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU246" t="n">
         <v>2.02</v>
@@ -50838,7 +50838,7 @@
         <v>0.75</v>
       </c>
       <c r="AS248" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT248" t="n">
         <v>0.5600000000000001</v>
@@ -51044,7 +51044,7 @@
         <v>1.11</v>
       </c>
       <c r="AT249" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU249" t="n">
         <v>1.55</v>
@@ -51450,7 +51450,7 @@
         <v>1.89</v>
       </c>
       <c r="AT251" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU251" t="n">
         <v>1.95</v>
@@ -51650,7 +51650,7 @@
         <v>0.62</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT252" t="n">
         <v>0.67</v>
@@ -52259,7 +52259,7 @@
         <v>2.25</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT255" t="n">
         <v>1.94</v>
@@ -52462,7 +52462,7 @@
         <v>0.85</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT256" t="n">
         <v>0.61</v>
@@ -52668,7 +52668,7 @@
         <v>1.28</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU257" t="n">
         <v>1.69</v>
@@ -52871,7 +52871,7 @@
         <v>1.33</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU258" t="n">
         <v>1.43</v>
@@ -53883,10 +53883,10 @@
         <v>1.08</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT263" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU263" t="n">
         <v>1.56</v>
@@ -54086,10 +54086,10 @@
         <v>2.15</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT264" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU264" t="n">
         <v>1.47</v>
@@ -54292,7 +54292,7 @@
         <v>1.5</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU265" t="n">
         <v>1.28</v>
@@ -54492,7 +54492,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT266" t="n">
         <v>0.5600000000000001</v>
@@ -54898,7 +54898,7 @@
         <v>1.08</v>
       </c>
       <c r="AS268" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT268" t="n">
         <v>1.28</v>
@@ -55104,7 +55104,7 @@
         <v>0.5</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU269" t="n">
         <v>1.39</v>
@@ -56119,7 +56119,7 @@
         <v>2.72</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU274" t="n">
         <v>1.79</v>
@@ -56319,7 +56319,7 @@
         <v>2.15</v>
       </c>
       <c r="AS275" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT275" t="n">
         <v>1.94</v>
@@ -56525,7 +56525,7 @@
         <v>1.33</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU276" t="n">
         <v>1.44</v>
@@ -56928,7 +56928,7 @@
         <v>0.86</v>
       </c>
       <c r="AS278" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT278" t="n">
         <v>0.83</v>
@@ -57131,7 +57131,7 @@
         <v>1.46</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT279" t="n">
         <v>1.33</v>
@@ -57337,7 +57337,7 @@
         <v>2.28</v>
       </c>
       <c r="AT280" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU280" t="n">
         <v>2.09</v>
@@ -57537,7 +57537,7 @@
         <v>2.46</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT281" t="n">
         <v>2.17</v>
@@ -57943,7 +57943,7 @@
         <v>0.64</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT283" t="n">
         <v>0.5600000000000001</v>
@@ -58149,7 +58149,7 @@
         <v>2.33</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU284" t="n">
         <v>1.71</v>
@@ -58552,10 +58552,10 @@
         <v>1</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU286" t="n">
         <v>1.44</v>
@@ -60176,10 +60176,10 @@
         <v>2.21</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT294" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU294" t="n">
         <v>1.61</v>
@@ -60382,7 +60382,7 @@
         <v>1.78</v>
       </c>
       <c r="AT295" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU295" t="n">
         <v>1.97</v>
@@ -60582,7 +60582,7 @@
         <v>0.6</v>
       </c>
       <c r="AS296" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT296" t="n">
         <v>0.67</v>
@@ -60788,7 +60788,7 @@
         <v>1.33</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU297" t="n">
         <v>1.51</v>
@@ -60988,7 +60988,7 @@
         <v>0.87</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT298" t="n">
         <v>0.83</v>
@@ -61191,10 +61191,10 @@
         <v>1.36</v>
       </c>
       <c r="AS299" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU299" t="n">
         <v>1.47</v>
@@ -61597,7 +61597,7 @@
         <v>2.5</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT301" t="n">
         <v>2.17</v>
@@ -62209,7 +62209,7 @@
         <v>2.28</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU304" t="n">
         <v>2.07</v>
@@ -62615,7 +62615,7 @@
         <v>1.5</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU306" t="n">
         <v>1.3</v>
@@ -63018,7 +63018,7 @@
         <v>1.6</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT308" t="n">
         <v>1.5</v>
@@ -63221,7 +63221,7 @@
         <v>0.8</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT309" t="n">
         <v>0.72</v>
@@ -63833,7 +63833,7 @@
         <v>0.5</v>
       </c>
       <c r="AT312" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU312" t="n">
         <v>1.37</v>
@@ -64033,7 +64033,7 @@
         <v>1.4</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT313" t="n">
         <v>1.28</v>
@@ -64439,7 +64439,7 @@
         <v>0.73</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT315" t="n">
         <v>1</v>
@@ -64642,10 +64642,10 @@
         <v>1.47</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU316" t="n">
         <v>1.67</v>
@@ -64845,7 +64845,7 @@
         <v>0.88</v>
       </c>
       <c r="AS317" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT317" t="n">
         <v>0.83</v>
@@ -65048,10 +65048,10 @@
         <v>1.07</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT318" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU318" t="n">
         <v>1.45</v>
@@ -65457,7 +65457,7 @@
         <v>1.33</v>
       </c>
       <c r="AT320" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU320" t="n">
         <v>1.52</v>
@@ -66675,7 +66675,7 @@
         <v>2.33</v>
       </c>
       <c r="AT326" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU326" t="n">
         <v>1.75</v>
@@ -66875,7 +66875,7 @@
         <v>1.5</v>
       </c>
       <c r="AS327" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT327" t="n">
         <v>1.5</v>
@@ -67487,7 +67487,7 @@
         <v>1.28</v>
       </c>
       <c r="AT330" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU330" t="n">
         <v>1.63</v>
@@ -67687,7 +67687,7 @@
         <v>0.75</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT331" t="n">
         <v>0.72</v>
@@ -67890,10 +67890,10 @@
         <v>1.06</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT332" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU332" t="n">
         <v>1.66</v>
@@ -68093,7 +68093,7 @@
         <v>1.38</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT333" t="n">
         <v>1.28</v>
@@ -68905,10 +68905,10 @@
         <v>1.56</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT337" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU337" t="n">
         <v>1.49</v>
@@ -69108,10 +69108,10 @@
         <v>1.19</v>
       </c>
       <c r="AS338" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU338" t="n">
         <v>1.27</v>
@@ -69311,7 +69311,7 @@
         <v>0.88</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT339" t="n">
         <v>0.83</v>
@@ -69717,10 +69717,10 @@
         <v>2.31</v>
       </c>
       <c r="AS341" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AT341" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AU341" t="n">
         <v>1.43</v>
@@ -70935,7 +70935,7 @@
         <v>0.71</v>
       </c>
       <c r="AS347" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT347" t="n">
         <v>0.67</v>
@@ -71750,7 +71750,7 @@
         <v>1.89</v>
       </c>
       <c r="AT351" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU351" t="n">
         <v>1.96</v>
@@ -72411,6 +72411,1427 @@
       </c>
       <c r="BK354" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2468270</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>45067.33333333334</v>
+      </c>
+      <c r="F355" t="n">
+        <v>36</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" t="n">
+        <v>4</v>
+      </c>
+      <c r="K355" t="n">
+        <v>4</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>5</v>
+      </c>
+      <c r="N355" t="n">
+        <v>5</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>['14', '31', '37', '40', '71']</t>
+        </is>
+      </c>
+      <c r="Q355" t="n">
+        <v>2</v>
+      </c>
+      <c r="R355" t="n">
+        <v>5</v>
+      </c>
+      <c r="S355" t="n">
+        <v>7</v>
+      </c>
+      <c r="T355" t="n">
+        <v>7</v>
+      </c>
+      <c r="U355" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V355" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W355" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X355" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE355" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH355" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL355" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP355" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ355" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR355" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS355" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT355" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU355" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW355" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX355" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AY355" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ355" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA355" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB355" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC355" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD355" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE355" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BF355" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG355" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH355" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI355" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ355" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK355" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2468275</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>0</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q356" t="n">
+        <v>6</v>
+      </c>
+      <c r="R356" t="n">
+        <v>3</v>
+      </c>
+      <c r="S356" t="n">
+        <v>9</v>
+      </c>
+      <c r="T356" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V356" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W356" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X356" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ356" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA356" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB356" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC356" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD356" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE356" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF356" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG356" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2468277</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F357" t="n">
+        <v>36</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>1</v>
+      </c>
+      <c r="J357" t="n">
+        <v>1</v>
+      </c>
+      <c r="K357" t="n">
+        <v>2</v>
+      </c>
+      <c r="L357" t="n">
+        <v>2</v>
+      </c>
+      <c r="M357" t="n">
+        <v>1</v>
+      </c>
+      <c r="N357" t="n">
+        <v>3</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>['45', '48']</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q357" t="n">
+        <v>7</v>
+      </c>
+      <c r="R357" t="n">
+        <v>1</v>
+      </c>
+      <c r="S357" t="n">
+        <v>8</v>
+      </c>
+      <c r="T357" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U357" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V357" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W357" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X357" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH357" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ357" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BA357" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB357" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC357" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD357" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE357" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF357" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG357" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH357" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ357" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK357" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2468278</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F358" t="n">
+        <v>36</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>1</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>1</v>
+      </c>
+      <c r="L358" t="n">
+        <v>2</v>
+      </c>
+      <c r="M358" t="n">
+        <v>2</v>
+      </c>
+      <c r="N358" t="n">
+        <v>4</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>['10', '54']</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>['46', '60']</t>
+        </is>
+      </c>
+      <c r="Q358" t="n">
+        <v>7</v>
+      </c>
+      <c r="R358" t="n">
+        <v>3</v>
+      </c>
+      <c r="S358" t="n">
+        <v>10</v>
+      </c>
+      <c r="T358" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V358" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W358" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X358" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ358" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA358" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB358" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC358" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD358" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE358" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF358" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG358" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH358" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ358" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK358" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2468279</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F359" t="n">
+        <v>36</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1</v>
+      </c>
+      <c r="K359" t="n">
+        <v>1</v>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="n">
+        <v>1</v>
+      </c>
+      <c r="N359" t="n">
+        <v>2</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q359" t="n">
+        <v>4</v>
+      </c>
+      <c r="R359" t="n">
+        <v>6</v>
+      </c>
+      <c r="S359" t="n">
+        <v>10</v>
+      </c>
+      <c r="T359" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U359" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V359" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W359" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X359" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ359" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA359" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB359" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC359" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD359" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE359" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF359" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG359" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH359" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ359" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK359" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2468272</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>45067.50347222222</v>
+      </c>
+      <c r="F360" t="n">
+        <v>36</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>2</v>
+      </c>
+      <c r="K360" t="n">
+        <v>3</v>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="n">
+        <v>3</v>
+      </c>
+      <c r="N360" t="n">
+        <v>4</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>['20', '25', '87']</t>
+        </is>
+      </c>
+      <c r="Q360" t="n">
+        <v>3</v>
+      </c>
+      <c r="R360" t="n">
+        <v>5</v>
+      </c>
+      <c r="S360" t="n">
+        <v>8</v>
+      </c>
+      <c r="T360" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U360" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V360" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W360" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X360" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="AD360" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH360" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ360" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK360" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL360" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP360" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ360" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR360" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS360" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT360" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AU360" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW360" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX360" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AY360" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ360" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA360" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB360" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC360" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD360" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE360" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF360" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG360" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH360" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ360" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK360" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2468271</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>45067.65625</v>
+      </c>
+      <c r="F361" t="n">
+        <v>36</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" t="n">
+        <v>2</v>
+      </c>
+      <c r="K361" t="n">
+        <v>2</v>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="n">
+        <v>2</v>
+      </c>
+      <c r="N361" t="n">
+        <v>3</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>['6', '8']</t>
+        </is>
+      </c>
+      <c r="Q361" t="n">
+        <v>4</v>
+      </c>
+      <c r="R361" t="n">
+        <v>6</v>
+      </c>
+      <c r="S361" t="n">
+        <v>10</v>
+      </c>
+      <c r="T361" t="n">
+        <v>7</v>
+      </c>
+      <c r="U361" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V361" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W361" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X361" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ361" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BA361" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB361" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC361" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD361" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE361" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF361" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG361" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH361" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ361" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK361" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK361"/>
+  <dimension ref="A1:BK371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU24" t="n">
         <v>1.77</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU25" t="n">
         <v>1.13</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU26" t="n">
         <v>0.87</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU27" t="n">
         <v>1.98</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU29" t="n">
         <v>1.89</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU30" t="n">
         <v>1.87</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT33" t="n">
         <v>1.11</v>
@@ -8617,7 +8617,7 @@
         <v>2.28</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU40" t="n">
         <v>3.14</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU41" t="n">
         <v>1.62</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU42" t="n">
         <v>1.44</v>
@@ -9223,10 +9223,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU43" t="n">
         <v>1.59</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU46" t="n">
         <v>2.03</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU48" t="n">
         <v>1.44</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT50" t="n">
         <v>1.44</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT52" t="n">
         <v>0.33</v>
@@ -11256,7 +11256,7 @@
         <v>1.11</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT54" t="n">
         <v>1.28</v>
@@ -11662,7 +11662,7 @@
         <v>0.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU55" t="n">
         <v>0.97</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT56" t="n">
         <v>1.17</v>
@@ -12677,7 +12677,7 @@
         <v>1.39</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU62" t="n">
         <v>1.89</v>
@@ -13286,7 +13286,7 @@
         <v>2.28</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU63" t="n">
         <v>2.57</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT64" t="n">
         <v>1.28</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT65" t="n">
         <v>1.44</v>
@@ -13892,10 +13892,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT67" t="n">
         <v>1.28</v>
@@ -14301,7 +14301,7 @@
         <v>0.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14504,7 +14504,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU69" t="n">
         <v>1.92</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU70" t="n">
         <v>2.14</v>
@@ -15113,7 +15113,7 @@
         <v>1.22</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT74" t="n">
         <v>1.17</v>
@@ -15722,7 +15722,7 @@
         <v>1.67</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15925,7 +15925,7 @@
         <v>1.44</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU76" t="n">
         <v>1.49</v>
@@ -16125,10 +16125,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU77" t="n">
         <v>1.06</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT79" t="n">
         <v>1.11</v>
@@ -16937,10 +16937,10 @@
         <v>3</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU81" t="n">
         <v>2.16</v>
@@ -17140,7 +17140,7 @@
         <v>2.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT82" t="n">
         <v>2.17</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT83" t="n">
         <v>1.11</v>
@@ -17549,7 +17549,7 @@
         <v>2.28</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU84" t="n">
         <v>2.31</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT86" t="n">
         <v>1.28</v>
@@ -18361,7 +18361,7 @@
         <v>1.22</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18564,7 +18564,7 @@
         <v>0.72</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU89" t="n">
         <v>1.73</v>
@@ -18767,7 +18767,7 @@
         <v>1.67</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18967,7 +18967,7 @@
         <v>0.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT91" t="n">
         <v>1.5</v>
@@ -19170,7 +19170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT92" t="n">
         <v>1.17</v>
@@ -19373,10 +19373,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU93" t="n">
         <v>2.04</v>
@@ -19579,7 +19579,7 @@
         <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU94" t="n">
         <v>1.39</v>
@@ -19779,10 +19779,10 @@
         <v>2.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -19985,7 +19985,7 @@
         <v>1.44</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU97" t="n">
         <v>1.19</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>1.39</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU99" t="n">
         <v>1.56</v>
@@ -20794,10 +20794,10 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU100" t="n">
         <v>2.02</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT101" t="n">
         <v>1.61</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT102" t="n">
         <v>1.28</v>
@@ -21406,7 +21406,7 @@
         <v>1.56</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -21606,7 +21606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT104" t="n">
         <v>1.28</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT105" t="n">
         <v>0.33</v>
@@ -22015,7 +22015,7 @@
         <v>1.22</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU106" t="n">
         <v>1.48</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT107" t="n">
         <v>1.5</v>
@@ -22421,7 +22421,7 @@
         <v>0.72</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22624,7 +22624,7 @@
         <v>1.11</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU109" t="n">
         <v>1.45</v>
@@ -23233,7 +23233,7 @@
         <v>0.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23433,7 +23433,7 @@
         <v>0.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT113" t="n">
         <v>1.5</v>
@@ -23636,7 +23636,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT114" t="n">
         <v>1.61</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT115" t="n">
         <v>1.11</v>
@@ -24045,7 +24045,7 @@
         <v>1.67</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24245,10 +24245,10 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU117" t="n">
         <v>1.3</v>
@@ -24451,7 +24451,7 @@
         <v>0.72</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU118" t="n">
         <v>1.81</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>1.39</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU120" t="n">
         <v>1.61</v>
@@ -25057,10 +25057,10 @@
         <v>2.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -25260,7 +25260,7 @@
         <v>0.8</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT122" t="n">
         <v>1.17</v>
@@ -25466,7 +25466,7 @@
         <v>2.28</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU123" t="n">
         <v>2.18</v>
@@ -25666,7 +25666,7 @@
         <v>2</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT124" t="n">
         <v>2.17</v>
@@ -25872,7 +25872,7 @@
         <v>1.22</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26275,7 +26275,7 @@
         <v>0.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT127" t="n">
         <v>1.28</v>
@@ -26684,7 +26684,7 @@
         <v>1.44</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26887,7 +26887,7 @@
         <v>1.56</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27087,7 +27087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT131" t="n">
         <v>1.28</v>
@@ -27293,7 +27293,7 @@
         <v>0.72</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT134" t="n">
         <v>1.61</v>
@@ -27902,7 +27902,7 @@
         <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28102,7 +28102,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT136" t="n">
         <v>1.28</v>
@@ -28308,7 +28308,7 @@
         <v>1.39</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU137" t="n">
         <v>1.63</v>
@@ -28511,7 +28511,7 @@
         <v>1.67</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU138" t="n">
         <v>1.74</v>
@@ -28711,10 +28711,10 @@
         <v>2.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT140" t="n">
         <v>1.11</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT141" t="n">
         <v>1.5</v>
@@ -29320,10 +29320,10 @@
         <v>1.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU142" t="n">
         <v>1.92</v>
@@ -29523,7 +29523,7 @@
         <v>1.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT143" t="n">
         <v>1.44</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT144" t="n">
         <v>1.17</v>
@@ -29932,7 +29932,7 @@
         <v>2.28</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU145" t="n">
         <v>2.27</v>
@@ -30135,7 +30135,7 @@
         <v>1.44</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU146" t="n">
         <v>1.6</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT147" t="n">
         <v>0.33</v>
@@ -30541,7 +30541,7 @@
         <v>1.11</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU148" t="n">
         <v>1.6</v>
@@ -30741,10 +30741,10 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU149" t="n">
         <v>1.37</v>
@@ -30944,10 +30944,10 @@
         <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU150" t="n">
         <v>1.33</v>
@@ -31556,7 +31556,7 @@
         <v>0.72</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU153" t="n">
         <v>1.86</v>
@@ -31759,7 +31759,7 @@
         <v>1.22</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31959,7 +31959,7 @@
         <v>1.43</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT155" t="n">
         <v>1.28</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT161" t="n">
         <v>1.17</v>
@@ -33383,7 +33383,7 @@
         <v>1.67</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU162" t="n">
         <v>1.35</v>
@@ -33586,7 +33586,7 @@
         <v>1.11</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33786,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU164" t="n">
         <v>1.65</v>
@@ -33989,10 +33989,10 @@
         <v>1.88</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU165" t="n">
         <v>1.4</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT166" t="n">
         <v>1.44</v>
@@ -34395,10 +34395,10 @@
         <v>2.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -34598,10 +34598,10 @@
         <v>0.75</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU168" t="n">
         <v>1.45</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35004,7 +35004,7 @@
         <v>2</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT170" t="n">
         <v>2.17</v>
@@ -35207,10 +35207,10 @@
         <v>1.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU171" t="n">
         <v>1.9</v>
@@ -35413,7 +35413,7 @@
         <v>0.67</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU172" t="n">
         <v>1.35</v>
@@ -35816,7 +35816,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT174" t="n">
         <v>1.11</v>
@@ -36428,7 +36428,7 @@
         <v>1.56</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU177" t="n">
         <v>1.59</v>
@@ -37034,7 +37034,7 @@
         <v>1.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT180" t="n">
         <v>1.61</v>
@@ -37440,10 +37440,10 @@
         <v>0.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU182" t="n">
         <v>1.86</v>
@@ -37643,10 +37643,10 @@
         <v>2</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -37846,7 +37846,7 @@
         <v>0.75</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,10 +38049,10 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU185" t="n">
         <v>1.83</v>
@@ -38255,7 +38255,7 @@
         <v>1.67</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU186" t="n">
         <v>1.86</v>
@@ -38455,10 +38455,10 @@
         <v>0.78</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU187" t="n">
         <v>1.66</v>
@@ -38658,7 +38658,7 @@
         <v>1.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT188" t="n">
         <v>1.44</v>
@@ -38861,10 +38861,10 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -39067,7 +39067,7 @@
         <v>1.67</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU190" t="n">
         <v>1.4</v>
@@ -39267,10 +39267,10 @@
         <v>2.44</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU191" t="n">
         <v>1.95</v>
@@ -39876,10 +39876,10 @@
         <v>2.22</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU194" t="n">
         <v>1.89</v>
@@ -40485,7 +40485,7 @@
         <v>0.78</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT197" t="n">
         <v>1.17</v>
@@ -40891,10 +40891,10 @@
         <v>0.7</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41300,7 +41300,7 @@
         <v>2.28</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU201" t="n">
         <v>2.08</v>
@@ -41500,10 +41500,10 @@
         <v>0.8</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU202" t="n">
         <v>1.42</v>
@@ -41706,7 +41706,7 @@
         <v>1.67</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU203" t="n">
         <v>1.82</v>
@@ -41906,10 +41906,10 @@
         <v>0.9</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU204" t="n">
         <v>1.72</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT206" t="n">
         <v>1.44</v>
@@ -42515,10 +42515,10 @@
         <v>1.3</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU207" t="n">
         <v>1.84</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT208" t="n">
         <v>1</v>
@@ -42924,7 +42924,7 @@
         <v>1.67</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU209" t="n">
         <v>1.42</v>
@@ -43124,10 +43124,10 @@
         <v>2.2</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU210" t="n">
         <v>1.44</v>
@@ -43327,10 +43327,10 @@
         <v>0.8</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU211" t="n">
         <v>1.94</v>
@@ -43936,7 +43936,7 @@
         <v>1.4</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT214" t="n">
         <v>1.28</v>
@@ -44139,10 +44139,10 @@
         <v>2.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU215" t="n">
         <v>1.33</v>
@@ -44548,7 +44548,7 @@
         <v>0.67</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU217" t="n">
         <v>1.41</v>
@@ -44748,7 +44748,7 @@
         <v>1</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT218" t="n">
         <v>1.28</v>
@@ -44954,7 +44954,7 @@
         <v>1.22</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU219" t="n">
         <v>1.62</v>
@@ -45357,10 +45357,10 @@
         <v>1.45</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU221" t="n">
         <v>1.91</v>
@@ -45563,7 +45563,7 @@
         <v>1.39</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU222" t="n">
         <v>1.71</v>
@@ -45766,7 +45766,7 @@
         <v>1.67</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU223" t="n">
         <v>1.46</v>
@@ -45966,7 +45966,7 @@
         <v>2.3</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT224" t="n">
         <v>2.17</v>
@@ -46169,7 +46169,7 @@
         <v>1</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT225" t="n">
         <v>1.11</v>
@@ -46375,7 +46375,7 @@
         <v>1.67</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU226" t="n">
         <v>1.96</v>
@@ -46575,10 +46575,10 @@
         <v>0.36</v>
       </c>
       <c r="AS227" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU227" t="n">
         <v>1.36</v>
@@ -46778,7 +46778,7 @@
         <v>0.9</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT228" t="n">
         <v>1</v>
@@ -46981,10 +46981,10 @@
         <v>0.82</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU229" t="n">
         <v>1.39</v>
@@ -47187,7 +47187,7 @@
         <v>1.11</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -47387,7 +47387,7 @@
         <v>1.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT231" t="n">
         <v>1.61</v>
@@ -47796,7 +47796,7 @@
         <v>1.39</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU233" t="n">
         <v>1.66</v>
@@ -47996,7 +47996,7 @@
         <v>0.45</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT234" t="n">
         <v>0.33</v>
@@ -48405,7 +48405,7 @@
         <v>1.56</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU236" t="n">
         <v>1.52</v>
@@ -48608,7 +48608,7 @@
         <v>1.44</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU237" t="n">
         <v>1.54</v>
@@ -48808,7 +48808,7 @@
         <v>1.45</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT238" t="n">
         <v>1.44</v>
@@ -49214,10 +49214,10 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU240" t="n">
         <v>1.8</v>
@@ -49417,7 +49417,7 @@
         <v>2.36</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT241" t="n">
         <v>2.17</v>
@@ -49620,10 +49620,10 @@
         <v>0.75</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU242" t="n">
         <v>1.96</v>
@@ -49823,7 +49823,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT243" t="n">
         <v>1.5</v>
@@ -50026,7 +50026,7 @@
         <v>1.33</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT244" t="n">
         <v>1.61</v>
@@ -50232,7 +50232,7 @@
         <v>1.56</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU245" t="n">
         <v>1.44</v>
@@ -50635,7 +50635,7 @@
         <v>0.82</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT247" t="n">
         <v>1</v>
@@ -50841,7 +50841,7 @@
         <v>0.67</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU248" t="n">
         <v>1.38</v>
@@ -51247,7 +51247,7 @@
         <v>1.67</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU250" t="n">
         <v>1.54</v>
@@ -51447,10 +51447,10 @@
         <v>2.08</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT251" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU251" t="n">
         <v>1.95</v>
@@ -51653,7 +51653,7 @@
         <v>1.39</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU252" t="n">
         <v>1.63</v>
@@ -51853,7 +51853,7 @@
         <v>1.42</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT253" t="n">
         <v>1.28</v>
@@ -52059,7 +52059,7 @@
         <v>2.28</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU254" t="n">
         <v>2.05</v>
@@ -52262,7 +52262,7 @@
         <v>0.72</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU255" t="n">
         <v>1.45</v>
@@ -52465,7 +52465,7 @@
         <v>1.67</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU256" t="n">
         <v>2.03</v>
@@ -52665,7 +52665,7 @@
         <v>1.33</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT257" t="n">
         <v>1.44</v>
@@ -52868,7 +52868,7 @@
         <v>0.42</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT258" t="n">
         <v>0.33</v>
@@ -53071,10 +53071,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU259" t="n">
         <v>1.45</v>
@@ -53274,10 +53274,10 @@
         <v>1.5</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU260" t="n">
         <v>2</v>
@@ -53477,7 +53477,7 @@
         <v>2.42</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT261" t="n">
         <v>2.17</v>
@@ -53680,7 +53680,7 @@
         <v>1.31</v>
       </c>
       <c r="AS262" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT262" t="n">
         <v>1.5</v>
@@ -54089,7 +54089,7 @@
         <v>1.44</v>
       </c>
       <c r="AT264" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU264" t="n">
         <v>1.47</v>
@@ -54289,7 +54289,7 @@
         <v>1.31</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT265" t="n">
         <v>1.61</v>
@@ -54495,7 +54495,7 @@
         <v>1.56</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU266" t="n">
         <v>1.48</v>
@@ -54698,7 +54698,7 @@
         <v>1.11</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU267" t="n">
         <v>1.63</v>
@@ -55101,7 +55101,7 @@
         <v>0.83</v>
       </c>
       <c r="AS269" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT269" t="n">
         <v>1.17</v>
@@ -55307,7 +55307,7 @@
         <v>1.67</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU270" t="n">
         <v>1.58</v>
@@ -55507,7 +55507,7 @@
         <v>0.83</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT271" t="n">
         <v>1</v>
@@ -55710,10 +55710,10 @@
         <v>0.79</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU272" t="n">
         <v>2.01</v>
@@ -55913,7 +55913,7 @@
         <v>1.38</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT273" t="n">
         <v>1.28</v>
@@ -56116,7 +56116,7 @@
         <v>0.38</v>
       </c>
       <c r="AS274" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT274" t="n">
         <v>0.33</v>
@@ -56322,7 +56322,7 @@
         <v>0.67</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU275" t="n">
         <v>1.36</v>
@@ -56522,7 +56522,7 @@
         <v>1.46</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT276" t="n">
         <v>1.44</v>
@@ -56725,10 +56725,10 @@
         <v>0.64</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU277" t="n">
         <v>1.44</v>
@@ -56931,7 +56931,7 @@
         <v>0.72</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU278" t="n">
         <v>1.46</v>
@@ -57134,7 +57134,7 @@
         <v>1.39</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -57740,7 +57740,7 @@
         <v>1.23</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT282" t="n">
         <v>1.28</v>
@@ -57946,7 +57946,7 @@
         <v>1.22</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU283" t="n">
         <v>1.52</v>
@@ -58146,7 +58146,7 @@
         <v>1.43</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT284" t="n">
         <v>1.61</v>
@@ -58349,10 +58349,10 @@
         <v>1.43</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU285" t="n">
         <v>1.94</v>
@@ -58755,10 +58755,10 @@
         <v>1.64</v>
       </c>
       <c r="AS287" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU287" t="n">
         <v>1.38</v>
@@ -58958,10 +58958,10 @@
         <v>0.79</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU288" t="n">
         <v>1.27</v>
@@ -59164,7 +59164,7 @@
         <v>1.11</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU289" t="n">
         <v>1.57</v>
@@ -59770,7 +59770,7 @@
         <v>0.79</v>
       </c>
       <c r="AS292" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT292" t="n">
         <v>1</v>
@@ -59973,7 +59973,7 @@
         <v>1.5</v>
       </c>
       <c r="AS293" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT293" t="n">
         <v>1.28</v>
@@ -60179,7 +60179,7 @@
         <v>1.39</v>
       </c>
       <c r="AT294" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU294" t="n">
         <v>1.61</v>
@@ -60379,7 +60379,7 @@
         <v>1.21</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT295" t="n">
         <v>1.11</v>
@@ -60585,7 +60585,7 @@
         <v>0.67</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU296" t="n">
         <v>1.33</v>
@@ -60785,7 +60785,7 @@
         <v>0.93</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT297" t="n">
         <v>1.17</v>
@@ -60991,7 +60991,7 @@
         <v>1.67</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU298" t="n">
         <v>1.96</v>
@@ -61397,7 +61397,7 @@
         <v>1.11</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU300" t="n">
         <v>1.57</v>
@@ -61800,7 +61800,7 @@
         <v>1.4</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT302" t="n">
         <v>1.5</v>
@@ -62003,10 +62003,10 @@
         <v>1.4</v>
       </c>
       <c r="AS303" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU303" t="n">
         <v>1.7</v>
@@ -62409,7 +62409,7 @@
         <v>1.21</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT305" t="n">
         <v>1.28</v>
@@ -62612,7 +62612,7 @@
         <v>0.36</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT306" t="n">
         <v>0.33</v>
@@ -62815,10 +62815,10 @@
         <v>0.73</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT307" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU307" t="n">
         <v>1.45</v>
@@ -63021,7 +63021,7 @@
         <v>1.44</v>
       </c>
       <c r="AT308" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU308" t="n">
         <v>1.48</v>
@@ -63224,7 +63224,7 @@
         <v>1.22</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU309" t="n">
         <v>1.52</v>
@@ -63427,7 +63427,7 @@
         <v>1.67</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU310" t="n">
         <v>1.55</v>
@@ -63627,10 +63627,10 @@
         <v>0.6</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT311" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU311" t="n">
         <v>1.86</v>
@@ -63830,10 +63830,10 @@
         <v>2.27</v>
       </c>
       <c r="AS312" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT312" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU312" t="n">
         <v>1.37</v>
@@ -64236,10 +64236,10 @@
         <v>2.13</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT314" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU314" t="n">
         <v>1.75</v>
@@ -64848,7 +64848,7 @@
         <v>0.67</v>
       </c>
       <c r="AT317" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU317" t="n">
         <v>1.32</v>
@@ -65254,7 +65254,7 @@
         <v>1.11</v>
       </c>
       <c r="AT319" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU319" t="n">
         <v>1.53</v>
@@ -65454,7 +65454,7 @@
         <v>1.13</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT320" t="n">
         <v>1.11</v>
@@ -65657,7 +65657,7 @@
         <v>2.4</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT321" t="n">
         <v>2.17</v>
@@ -65860,7 +65860,7 @@
         <v>1.5</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT322" t="n">
         <v>1.5</v>
@@ -66063,10 +66063,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS323" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT323" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU323" t="n">
         <v>1.96</v>
@@ -66469,10 +66469,10 @@
         <v>1.31</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU325" t="n">
         <v>1.3</v>
@@ -66672,7 +66672,7 @@
         <v>0.33</v>
       </c>
       <c r="AS326" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT326" t="n">
         <v>0.33</v>
@@ -66878,7 +66878,7 @@
         <v>0.72</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU327" t="n">
         <v>1.45</v>
@@ -67081,7 +67081,7 @@
         <v>2.28</v>
       </c>
       <c r="AT328" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU328" t="n">
         <v>2.04</v>
@@ -67281,10 +67281,10 @@
         <v>0.75</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT329" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU329" t="n">
         <v>1.89</v>
@@ -67484,7 +67484,7 @@
         <v>1.44</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT330" t="n">
         <v>1.61</v>
@@ -67690,7 +67690,7 @@
         <v>1.44</v>
       </c>
       <c r="AT331" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU331" t="n">
         <v>1.46</v>
@@ -68296,7 +68296,7 @@
         <v>2.44</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT334" t="n">
         <v>2.17</v>
@@ -68499,10 +68499,10 @@
         <v>2</v>
       </c>
       <c r="AS335" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AT335" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU335" t="n">
         <v>1.39</v>
@@ -69314,7 +69314,7 @@
         <v>1.56</v>
       </c>
       <c r="AT339" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU339" t="n">
         <v>1.42</v>
@@ -69514,7 +69514,7 @@
         <v>1.25</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT340" t="n">
         <v>1.28</v>
@@ -69720,7 +69720,7 @@
         <v>0.72</v>
       </c>
       <c r="AT341" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU341" t="n">
         <v>1.43</v>
@@ -69920,10 +69920,10 @@
         <v>1.24</v>
       </c>
       <c r="AS342" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AT342" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU342" t="n">
         <v>1.74</v>
@@ -70123,10 +70123,10 @@
         <v>1.59</v>
       </c>
       <c r="AS343" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT343" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AU343" t="n">
         <v>1.45</v>
@@ -70329,7 +70329,7 @@
         <v>2.28</v>
       </c>
       <c r="AT344" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU344" t="n">
         <v>2</v>
@@ -70529,7 +70529,7 @@
         <v>1.59</v>
       </c>
       <c r="AS345" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT345" t="n">
         <v>1.5</v>
@@ -70732,10 +70732,10 @@
         <v>1.35</v>
       </c>
       <c r="AS346" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT346" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AU346" t="n">
         <v>1.49</v>
@@ -70938,7 +70938,7 @@
         <v>1.44</v>
       </c>
       <c r="AT347" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU347" t="n">
         <v>1.46</v>
@@ -71138,10 +71138,10 @@
         <v>0.59</v>
       </c>
       <c r="AS348" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT348" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU348" t="n">
         <v>1.72</v>
@@ -71341,10 +71341,10 @@
         <v>0.71</v>
       </c>
       <c r="AS349" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT349" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU349" t="n">
         <v>1.6</v>
@@ -71747,7 +71747,7 @@
         <v>0.31</v>
       </c>
       <c r="AS351" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT351" t="n">
         <v>0.33</v>
@@ -71950,10 +71950,10 @@
         <v>2.06</v>
       </c>
       <c r="AS352" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT352" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AU352" t="n">
         <v>1.89</v>
@@ -72356,7 +72356,7 @@
         <v>2.29</v>
       </c>
       <c r="AS354" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AT354" t="n">
         <v>2.17</v>
@@ -73780,7 +73780,7 @@
         <v>1.22</v>
       </c>
       <c r="AT361" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU361" t="n">
         <v>1.48</v>
@@ -73832,6 +73832,2036 @@
       </c>
       <c r="BK361" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2468289</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F362" t="n">
+        <v>37</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>1</v>
+      </c>
+      <c r="J362" t="n">
+        <v>1</v>
+      </c>
+      <c r="K362" t="n">
+        <v>2</v>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="n">
+        <v>1</v>
+      </c>
+      <c r="N362" t="n">
+        <v>2</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q362" t="n">
+        <v>6</v>
+      </c>
+      <c r="R362" t="n">
+        <v>3</v>
+      </c>
+      <c r="S362" t="n">
+        <v>9</v>
+      </c>
+      <c r="T362" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U362" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V362" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W362" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X362" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD362" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE362" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF362" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG362" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH362" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ362" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK362" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL362" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM362" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN362" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO362" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP362" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ362" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR362" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS362" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT362" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AU362" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV362" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW362" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX362" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY362" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ362" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA362" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB362" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC362" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD362" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE362" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF362" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG362" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH362" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI362" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ362" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK362" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2468288</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F363" t="n">
+        <v>37</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>2</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>2</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>['52', '73']</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q363" t="n">
+        <v>7</v>
+      </c>
+      <c r="R363" t="n">
+        <v>3</v>
+      </c>
+      <c r="S363" t="n">
+        <v>10</v>
+      </c>
+      <c r="T363" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U363" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V363" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W363" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X363" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ363" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA363" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB363" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC363" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD363" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE363" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF363" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG363" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH363" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI363" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ363" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK363" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2468287</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F364" t="n">
+        <v>37</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>0</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="n">
+        <v>1</v>
+      </c>
+      <c r="N364" t="n">
+        <v>2</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q364" t="n">
+        <v>4</v>
+      </c>
+      <c r="R364" t="n">
+        <v>2</v>
+      </c>
+      <c r="S364" t="n">
+        <v>6</v>
+      </c>
+      <c r="T364" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U364" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V364" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W364" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X364" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD364" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE364" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF364" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG364" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH364" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ364" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK364" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL364" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM364" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN364" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO364" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP364" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ364" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR364" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AS364" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT364" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU364" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV364" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW364" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX364" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AY364" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ364" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA364" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB364" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC364" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD364" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE364" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF364" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG364" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH364" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI364" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ364" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK364" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2468286</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F365" t="n">
+        <v>37</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Ajaccio</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>3</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>3</v>
+      </c>
+      <c r="L365" t="n">
+        <v>3</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N365" t="n">
+        <v>3</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>['16', '22', '35']</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q365" t="n">
+        <v>9</v>
+      </c>
+      <c r="R365" t="n">
+        <v>2</v>
+      </c>
+      <c r="S365" t="n">
+        <v>11</v>
+      </c>
+      <c r="T365" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U365" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V365" t="n">
+        <v>15</v>
+      </c>
+      <c r="W365" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X365" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD365" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE365" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF365" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG365" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH365" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI365" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ365" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK365" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL365" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM365" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN365" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO365" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP365" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ365" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AR365" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AS365" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AT365" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU365" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV365" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW365" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX365" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY365" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ365" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA365" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB365" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC365" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD365" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE365" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF365" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG365" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH365" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI365" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ365" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK365" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2468285</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F366" t="n">
+        <v>37</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="n">
+        <v>2</v>
+      </c>
+      <c r="N366" t="n">
+        <v>3</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>['57', '81']</t>
+        </is>
+      </c>
+      <c r="Q366" t="n">
+        <v>3</v>
+      </c>
+      <c r="R366" t="n">
+        <v>5</v>
+      </c>
+      <c r="S366" t="n">
+        <v>8</v>
+      </c>
+      <c r="T366" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U366" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V366" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W366" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X366" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD366" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE366" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF366" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG366" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH366" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ366" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK366" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL366" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM366" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN366" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO366" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP366" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ366" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR366" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS366" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT366" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AU366" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV366" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW366" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX366" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY366" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ366" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA366" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB366" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC366" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD366" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE366" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF366" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG366" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH366" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI366" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ366" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK366" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2468283</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F367" t="n">
+        <v>37</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>2</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>2</v>
+      </c>
+      <c r="L367" t="n">
+        <v>2</v>
+      </c>
+      <c r="M367" t="n">
+        <v>3</v>
+      </c>
+      <c r="N367" t="n">
+        <v>5</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>['7', '17']</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>['53', '67', '79']</t>
+        </is>
+      </c>
+      <c r="Q367" t="n">
+        <v>2</v>
+      </c>
+      <c r="R367" t="n">
+        <v>10</v>
+      </c>
+      <c r="S367" t="n">
+        <v>12</v>
+      </c>
+      <c r="T367" t="n">
+        <v>3</v>
+      </c>
+      <c r="U367" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V367" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W367" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X367" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD367" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE367" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG367" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH367" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ367" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK367" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL367" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM367" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN367" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO367" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP367" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ367" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR367" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS367" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT367" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU367" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV367" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW367" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX367" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY367" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ367" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA367" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB367" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC367" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD367" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE367" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF367" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG367" t="n">
+        <v>16</v>
+      </c>
+      <c r="BH367" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI367" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ367" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK367" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2468282</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F368" t="n">
+        <v>37</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" t="n">
+        <v>1</v>
+      </c>
+      <c r="K368" t="n">
+        <v>1</v>
+      </c>
+      <c r="L368" t="n">
+        <v>2</v>
+      </c>
+      <c r="M368" t="n">
+        <v>1</v>
+      </c>
+      <c r="N368" t="n">
+        <v>3</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>['51', '88']</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q368" t="n">
+        <v>5</v>
+      </c>
+      <c r="R368" t="n">
+        <v>3</v>
+      </c>
+      <c r="S368" t="n">
+        <v>8</v>
+      </c>
+      <c r="T368" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U368" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V368" t="n">
+        <v>6</v>
+      </c>
+      <c r="W368" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X368" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD368" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE368" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG368" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH368" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ368" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK368" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL368" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM368" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN368" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO368" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP368" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ368" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR368" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AS368" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AT368" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AU368" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV368" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW368" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX368" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY368" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ368" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA368" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB368" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC368" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD368" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE368" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF368" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG368" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH368" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI368" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ368" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK368" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2468281</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F369" t="n">
+        <v>37</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>1</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
+      <c r="L369" t="n">
+        <v>2</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>2</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>['44', '74']</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q369" t="n">
+        <v>9</v>
+      </c>
+      <c r="R369" t="n">
+        <v>1</v>
+      </c>
+      <c r="S369" t="n">
+        <v>10</v>
+      </c>
+      <c r="T369" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U369" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V369" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W369" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X369" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD369" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE369" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF369" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG369" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH369" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI369" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ369" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK369" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL369" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM369" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN369" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO369" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP369" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ369" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR369" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS369" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT369" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AU369" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV369" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW369" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX369" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY369" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ369" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA369" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB369" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC369" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD369" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE369" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF369" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG369" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH369" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI369" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ369" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK369" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2468280</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F370" t="n">
+        <v>37</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Angers SCO</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>1</v>
+      </c>
+      <c r="J370" t="n">
+        <v>1</v>
+      </c>
+      <c r="K370" t="n">
+        <v>2</v>
+      </c>
+      <c r="L370" t="n">
+        <v>2</v>
+      </c>
+      <c r="M370" t="n">
+        <v>1</v>
+      </c>
+      <c r="N370" t="n">
+        <v>3</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>['38', '90']</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q370" t="n">
+        <v>14</v>
+      </c>
+      <c r="R370" t="n">
+        <v>3</v>
+      </c>
+      <c r="S370" t="n">
+        <v>17</v>
+      </c>
+      <c r="T370" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U370" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V370" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W370" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X370" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD370" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE370" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF370" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG370" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH370" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI370" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ370" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK370" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL370" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM370" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN370" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO370" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP370" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ370" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR370" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS370" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT370" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU370" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV370" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW370" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX370" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY370" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ370" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA370" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB370" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC370" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD370" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE370" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF370" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG370" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH370" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI370" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ370" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK370" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2468284</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>France Ligue 1</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F371" t="n">
+        <v>37</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>2</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="n">
+        <v>2</v>
+      </c>
+      <c r="L371" t="n">
+        <v>3</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N371" t="n">
+        <v>3</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>['2', '9', '82']</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q371" t="n">
+        <v>7</v>
+      </c>
+      <c r="R371" t="n">
+        <v>4</v>
+      </c>
+      <c r="S371" t="n">
+        <v>11</v>
+      </c>
+      <c r="T371" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U371" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V371" t="n">
+        <v>4</v>
+      </c>
+      <c r="W371" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X371" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB371" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC371" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD371" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE371" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF371" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG371" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH371" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ371" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK371" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL371" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN371" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO371" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP371" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ371" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR371" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS371" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT371" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU371" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV371" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW371" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX371" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY371" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ371" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA371" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB371" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC371" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD371" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE371" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF371" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG371" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH371" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI371" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ371" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK371" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="470">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -949,13 +949,22 @@
     <t>['2', '9', '82']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['10', '36']</t>
+  </si>
+  <si>
+    <t>['5', '28', '33']</t>
+  </si>
+  <si>
+    <t>['16', '21']</t>
+  </si>
+  <si>
     <t>['43', '53']</t>
   </si>
   <si>
     <t>['9', '26', '38', '80', '86']</t>
-  </si>
-  <si>
-    <t>['78']</t>
   </si>
   <si>
     <t>['12', '17']</t>
@@ -1401,6 +1410,21 @@
   <si>
     <t>['53', '67', '79']</t>
   </si>
+  <si>
+    <t>['54', '59', '76']</t>
+  </si>
+  <si>
+    <t>['19', '48', '78']</t>
+  </si>
+  <si>
+    <t>['70', '90+4']</t>
+  </si>
+  <si>
+    <t>['24', '45+1', '63']</t>
+  </si>
+  <si>
+    <t>['13', '45+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1761,7 +1785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK371"/>
+  <dimension ref="A1:BK381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2196,7 +2220,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2387,7 +2411,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2578,7 +2602,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -3151,7 +3175,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3342,7 +3366,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -4002,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT12">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4193,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT13">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4297,7 +4321,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -4384,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT14">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4488,7 +4512,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4575,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT15">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4679,7 +4703,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4766,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT16">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4870,7 +4894,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4957,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT17">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5148,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT18">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5252,7 +5276,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -5339,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5443,7 +5467,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5530,10 +5554,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT20">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5825,7 +5849,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5912,10 +5936,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT22">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU22">
         <v>1.35</v>
@@ -6016,7 +6040,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -6207,7 +6231,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6398,7 +6422,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6780,7 +6804,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6971,7 +6995,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -7162,7 +7186,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7353,7 +7377,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7544,7 +7568,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7631,10 +7655,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT31">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU31">
         <v>1.08</v>
@@ -7822,10 +7846,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU32">
         <v>1.58</v>
@@ -8016,7 +8040,7 @@
         <v>2.74</v>
       </c>
       <c r="AT33">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU33">
         <v>1.79</v>
@@ -8204,10 +8228,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT34">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU34">
         <v>1</v>
@@ -8395,10 +8419,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT35">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU35">
         <v>1.19</v>
@@ -8586,10 +8610,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8690,7 +8714,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8777,10 +8801,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT37">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8881,7 +8905,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8968,10 +8992,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT38">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9159,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU39">
         <v>1.44</v>
@@ -9350,7 +9374,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT40">
         <v>1.84</v>
@@ -9645,7 +9669,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9732,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT42">
         <v>0.53</v>
@@ -9836,7 +9860,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10027,7 +10051,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10409,7 +10433,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10600,7 +10624,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10791,7 +10815,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10982,7 +11006,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11263,7 +11287,7 @@
         <v>1.79</v>
       </c>
       <c r="AT50">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU50">
         <v>1.98</v>
@@ -11364,7 +11388,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11451,10 +11475,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT51">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU51">
         <v>1.36</v>
@@ -11645,7 +11669,7 @@
         <v>1.84</v>
       </c>
       <c r="AT52">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU52">
         <v>1.89</v>
@@ -11746,7 +11770,7 @@
         <v>87</v>
       </c>
       <c r="P53" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -11833,7 +11857,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT53">
         <v>2.32</v>
@@ -11937,7 +11961,7 @@
         <v>88</v>
       </c>
       <c r="P54" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12027,7 +12051,7 @@
         <v>1.26</v>
       </c>
       <c r="AT54">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU54">
         <v>1.65</v>
@@ -12215,7 +12239,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT55">
         <v>1.26</v>
@@ -12409,7 +12433,7 @@
         <v>1.58</v>
       </c>
       <c r="AT56">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU56">
         <v>0.92</v>
@@ -12597,10 +12621,10 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT57">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU57">
         <v>1.31</v>
@@ -12788,10 +12812,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU58">
         <v>1.53</v>
@@ -12892,7 +12916,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12979,10 +13003,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT59">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU59">
         <v>2.18</v>
@@ -13170,7 +13194,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT60">
         <v>1.84</v>
@@ -13361,10 +13385,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT61">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU61">
         <v>2.44</v>
@@ -13743,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT63">
         <v>0.95</v>
@@ -13937,7 +13961,7 @@
         <v>1.79</v>
       </c>
       <c r="AT64">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU64">
         <v>2.14</v>
@@ -14128,7 +14152,7 @@
         <v>1.16</v>
       </c>
       <c r="AT65">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU65">
         <v>1.41</v>
@@ -14420,7 +14444,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14510,7 +14534,7 @@
         <v>0.63</v>
       </c>
       <c r="AT67">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14698,7 +14722,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT68">
         <v>1.58</v>
@@ -14802,7 +14826,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14889,7 +14913,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT69">
         <v>0.68</v>
@@ -15184,7 +15208,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -15271,10 +15295,10 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT71">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU71">
         <v>1.43</v>
@@ -15375,7 +15399,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15462,7 +15486,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT72">
         <v>1.26</v>
@@ -15566,7 +15590,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15656,7 +15680,7 @@
         <v>1.26</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU73">
         <v>1.43</v>
@@ -15757,7 +15781,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15847,7 +15871,7 @@
         <v>2.26</v>
       </c>
       <c r="AT74">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU74">
         <v>2.06</v>
@@ -15948,7 +15972,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16035,7 +16059,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT75">
         <v>1.84</v>
@@ -16226,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT76">
         <v>0.58</v>
@@ -16330,7 +16354,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16608,10 +16632,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT78">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU78">
         <v>1.48</v>
@@ -16712,7 +16736,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16802,7 +16826,7 @@
         <v>1.79</v>
       </c>
       <c r="AT79">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU79">
         <v>2.05</v>
@@ -16990,10 +17014,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT80">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU80">
         <v>1.43</v>
@@ -17094,7 +17118,7 @@
         <v>87</v>
       </c>
       <c r="P81" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17285,7 +17309,7 @@
         <v>87</v>
       </c>
       <c r="P82" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17375,7 +17399,7 @@
         <v>0.63</v>
       </c>
       <c r="AT82">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU82">
         <v>1.5</v>
@@ -17476,7 +17500,7 @@
         <v>94</v>
       </c>
       <c r="P83" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -17566,7 +17590,7 @@
         <v>1.16</v>
       </c>
       <c r="AT83">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU83">
         <v>1.41</v>
@@ -17754,7 +17778,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT84">
         <v>1.58</v>
@@ -17858,7 +17882,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17945,10 +17969,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU85">
         <v>1.8</v>
@@ -18049,7 +18073,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18139,7 +18163,7 @@
         <v>1.26</v>
       </c>
       <c r="AT86">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU86">
         <v>1.53</v>
@@ -18240,7 +18264,7 @@
         <v>106</v>
       </c>
       <c r="P87" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18327,10 +18351,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT87">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU87">
         <v>1.29</v>
@@ -18518,7 +18542,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT88">
         <v>0.95</v>
@@ -18622,7 +18646,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q89">
         <v>10</v>
@@ -18709,7 +18733,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT89">
         <v>1.11</v>
@@ -18900,7 +18924,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT90">
         <v>0.68</v>
@@ -19094,7 +19118,7 @@
         <v>2.74</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU91">
         <v>1.81</v>
@@ -19285,7 +19309,7 @@
         <v>1.84</v>
       </c>
       <c r="AT92">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU92">
         <v>2.04</v>
@@ -19386,7 +19410,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19664,7 +19688,7 @@
         <v>3</v>
       </c>
       <c r="AS94">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT94">
         <v>2.32</v>
@@ -19768,7 +19792,7 @@
         <v>87</v>
       </c>
       <c r="P95" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19959,7 +19983,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -20046,7 +20070,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT96">
         <v>1.26</v>
@@ -20150,7 +20174,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -20341,7 +20365,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20431,7 +20455,7 @@
         <v>0.63</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU98">
         <v>1.52</v>
@@ -20532,7 +20556,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20619,7 +20643,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT99">
         <v>0.53</v>
@@ -21004,7 +21028,7 @@
         <v>2.26</v>
       </c>
       <c r="AT101">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU101">
         <v>1.87</v>
@@ -21105,7 +21129,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21195,7 +21219,7 @@
         <v>1.16</v>
       </c>
       <c r="AT102">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU102">
         <v>1.38</v>
@@ -21383,7 +21407,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT103">
         <v>1.11</v>
@@ -21577,7 +21601,7 @@
         <v>2.74</v>
       </c>
       <c r="AT104">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU104">
         <v>1.94</v>
@@ -21678,7 +21702,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21768,7 +21792,7 @@
         <v>1.26</v>
       </c>
       <c r="AT105">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU105">
         <v>1.52</v>
@@ -21956,7 +21980,7 @@
         <v>1.4</v>
       </c>
       <c r="AS106">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT106">
         <v>1.58</v>
@@ -22060,7 +22084,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -22150,7 +22174,7 @@
         <v>2.37</v>
       </c>
       <c r="AT107">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU107">
         <v>1.98</v>
@@ -22338,7 +22362,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT108">
         <v>0.58</v>
@@ -22529,7 +22553,7 @@
         <v>0.8</v>
       </c>
       <c r="AS109">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT109">
         <v>0.95</v>
@@ -22720,10 +22744,10 @@
         <v>1.4</v>
       </c>
       <c r="AS110">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT110">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU110">
         <v>1.38</v>
@@ -22911,10 +22935,10 @@
         <v>2.5</v>
       </c>
       <c r="AS111">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT111">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU111">
         <v>2.1</v>
@@ -23015,7 +23039,7 @@
         <v>87</v>
       </c>
       <c r="P112" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23102,7 +23126,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT112">
         <v>2.32</v>
@@ -23206,7 +23230,7 @@
         <v>106</v>
       </c>
       <c r="P113" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23296,7 +23320,7 @@
         <v>1.26</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU113">
         <v>1.39</v>
@@ -23397,7 +23421,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23487,7 +23511,7 @@
         <v>1.79</v>
       </c>
       <c r="AT114">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU114">
         <v>1.96</v>
@@ -23588,7 +23612,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23678,7 +23702,7 @@
         <v>0.63</v>
       </c>
       <c r="AT115">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU115">
         <v>1.56</v>
@@ -23779,7 +23803,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23866,7 +23890,7 @@
         <v>0.6</v>
       </c>
       <c r="AS116">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT116">
         <v>0.68</v>
@@ -23970,7 +23994,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -24161,7 +24185,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24248,7 +24272,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT118">
         <v>1.26</v>
@@ -24352,7 +24376,7 @@
         <v>167</v>
       </c>
       <c r="P119" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24442,7 +24466,7 @@
         <v>1.26</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU119">
         <v>1.58</v>
@@ -24630,7 +24654,7 @@
         <v>0.33</v>
       </c>
       <c r="AS120">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT120">
         <v>0.68</v>
@@ -24734,7 +24758,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -25015,7 +25039,7 @@
         <v>2.74</v>
       </c>
       <c r="AT122">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU122">
         <v>1.97</v>
@@ -25116,7 +25140,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25203,7 +25227,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT123">
         <v>0.53</v>
@@ -25307,7 +25331,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25397,7 +25421,7 @@
         <v>1.16</v>
       </c>
       <c r="AT124">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU124">
         <v>1.3</v>
@@ -25585,7 +25609,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT125">
         <v>0.58</v>
@@ -25776,10 +25800,10 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT126">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU126">
         <v>1.32</v>
@@ -25970,7 +25994,7 @@
         <v>2.37</v>
       </c>
       <c r="AT127">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU127">
         <v>1.91</v>
@@ -26158,10 +26182,10 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT128">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU128">
         <v>1.57</v>
@@ -26349,7 +26373,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT129">
         <v>1.11</v>
@@ -26453,7 +26477,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26540,7 +26564,7 @@
         <v>1.33</v>
       </c>
       <c r="AS130">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT130">
         <v>1.58</v>
@@ -26734,7 +26758,7 @@
         <v>1.84</v>
       </c>
       <c r="AT131">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU131">
         <v>2.07</v>
@@ -26922,7 +26946,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT132">
         <v>0.68</v>
@@ -27026,7 +27050,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27113,10 +27137,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU133">
         <v>1.28</v>
@@ -27217,7 +27241,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27307,7 +27331,7 @@
         <v>0.63</v>
       </c>
       <c r="AT134">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -27408,7 +27432,7 @@
         <v>163</v>
       </c>
       <c r="P135" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27495,7 +27519,7 @@
         <v>2.71</v>
       </c>
       <c r="AS135">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT135">
         <v>2.32</v>
@@ -27689,7 +27713,7 @@
         <v>1.58</v>
       </c>
       <c r="AT136">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU136">
         <v>1.38</v>
@@ -27877,7 +27901,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT137">
         <v>0.95</v>
@@ -28068,7 +28092,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT138">
         <v>0.68</v>
@@ -28172,7 +28196,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28363,7 +28387,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28453,7 +28477,7 @@
         <v>2.26</v>
       </c>
       <c r="AT140">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU140">
         <v>1.86</v>
@@ -28644,7 +28668,7 @@
         <v>1.79</v>
       </c>
       <c r="AT141">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU141">
         <v>1.93</v>
@@ -28745,7 +28769,7 @@
         <v>165</v>
       </c>
       <c r="P142" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -29026,7 +29050,7 @@
         <v>2.74</v>
       </c>
       <c r="AT143">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU143">
         <v>1.94</v>
@@ -29127,7 +29151,7 @@
         <v>185</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29217,7 +29241,7 @@
         <v>2.37</v>
       </c>
       <c r="AT144">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU144">
         <v>1.89</v>
@@ -29405,7 +29429,7 @@
         <v>0.57</v>
       </c>
       <c r="AS145">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT145">
         <v>0.68</v>
@@ -29596,7 +29620,7 @@
         <v>0.86</v>
       </c>
       <c r="AS146">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT146">
         <v>0.53</v>
@@ -29790,7 +29814,7 @@
         <v>2.26</v>
       </c>
       <c r="AT147">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU147">
         <v>1.92</v>
@@ -29891,7 +29915,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29978,7 +30002,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT148">
         <v>0.58</v>
@@ -30273,7 +30297,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30464,7 +30488,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30551,10 +30575,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT151">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU151">
         <v>1.31</v>
@@ -30742,10 +30766,10 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT152">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU152">
         <v>1.36</v>
@@ -30933,7 +30957,7 @@
         <v>0.38</v>
       </c>
       <c r="AS153">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT153">
         <v>0.68</v>
@@ -31037,7 +31061,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -31124,7 +31148,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT154">
         <v>1.84</v>
@@ -31228,7 +31252,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31318,7 +31342,7 @@
         <v>1.58</v>
       </c>
       <c r="AT155">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU155">
         <v>1.41</v>
@@ -31419,7 +31443,7 @@
         <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31506,10 +31530,10 @@
         <v>0.57</v>
       </c>
       <c r="AS156">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT156">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU156">
         <v>1.65</v>
@@ -31697,10 +31721,10 @@
         <v>0.86</v>
       </c>
       <c r="AS157">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU157">
         <v>2.18</v>
@@ -31801,7 +31825,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31888,10 +31912,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT158">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU158">
         <v>1.59</v>
@@ -32079,10 +32103,10 @@
         <v>1.43</v>
       </c>
       <c r="AS159">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT159">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU159">
         <v>1.91</v>
@@ -32270,10 +32294,10 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT160">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU160">
         <v>1.7</v>
@@ -32464,7 +32488,7 @@
         <v>1.79</v>
       </c>
       <c r="AT161">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU161">
         <v>1.84</v>
@@ -32652,7 +32676,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT162">
         <v>0.95</v>
@@ -32843,7 +32867,7 @@
         <v>0.5</v>
       </c>
       <c r="AS163">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT163">
         <v>0.68</v>
@@ -33138,7 +33162,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33419,7 +33443,7 @@
         <v>1.84</v>
       </c>
       <c r="AT166">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU166">
         <v>1.84</v>
@@ -33711,7 +33735,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -34093,7 +34117,7 @@
         <v>190</v>
       </c>
       <c r="P170" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -34183,7 +34207,7 @@
         <v>1.26</v>
       </c>
       <c r="AT170">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34562,7 +34586,7 @@
         <v>1</v>
       </c>
       <c r="AS172">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT172">
         <v>1.11</v>
@@ -34666,7 +34690,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34753,10 +34777,10 @@
         <v>0.5</v>
       </c>
       <c r="AS173">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT173">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU173">
         <v>1.54</v>
@@ -34947,7 +34971,7 @@
         <v>1.58</v>
       </c>
       <c r="AT174">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU174">
         <v>1.39</v>
@@ -35135,10 +35159,10 @@
         <v>0.88</v>
       </c>
       <c r="AS175">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT175">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU175">
         <v>1.57</v>
@@ -35326,10 +35350,10 @@
         <v>1.63</v>
       </c>
       <c r="AS176">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT176">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU176">
         <v>1.67</v>
@@ -35430,7 +35454,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35517,7 +35541,7 @@
         <v>2.38</v>
       </c>
       <c r="AS177">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT177">
         <v>1.84</v>
@@ -35708,10 +35732,10 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT178">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU178">
         <v>1.66</v>
@@ -35899,10 +35923,10 @@
         <v>0.5</v>
       </c>
       <c r="AS179">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT179">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU179">
         <v>2.13</v>
@@ -36003,7 +36027,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -36093,7 +36117,7 @@
         <v>1.16</v>
       </c>
       <c r="AT180">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU180">
         <v>1.54</v>
@@ -36194,7 +36218,7 @@
         <v>87</v>
       </c>
       <c r="P181" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -36281,10 +36305,10 @@
         <v>2.13</v>
       </c>
       <c r="AS181">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT181">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU181">
         <v>1.76</v>
@@ -36767,7 +36791,7 @@
         <v>162</v>
       </c>
       <c r="P184" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q184">
         <v>14</v>
@@ -36857,7 +36881,7 @@
         <v>1.84</v>
       </c>
       <c r="AT184">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU184">
         <v>1.8</v>
@@ -37236,7 +37260,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT186">
         <v>1.58</v>
@@ -37531,7 +37555,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -37621,7 +37645,7 @@
         <v>0.63</v>
       </c>
       <c r="AT188">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU188">
         <v>1.47</v>
@@ -37722,7 +37746,7 @@
         <v>87</v>
       </c>
       <c r="P189" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37913,7 +37937,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -38000,7 +38024,7 @@
         <v>0.89</v>
       </c>
       <c r="AS190">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT190">
         <v>0.58</v>
@@ -38382,10 +38406,10 @@
         <v>1.11</v>
       </c>
       <c r="AS192">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT192">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU192">
         <v>1.58</v>
@@ -38573,10 +38597,10 @@
         <v>1.56</v>
       </c>
       <c r="AS193">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT193">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU193">
         <v>1.64</v>
@@ -38955,10 +38979,10 @@
         <v>1.56</v>
       </c>
       <c r="AS195">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT195">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU195">
         <v>1.72</v>
@@ -39059,7 +39083,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39146,10 +39170,10 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT196">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU196">
         <v>1.6</v>
@@ -39250,7 +39274,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39340,7 +39364,7 @@
         <v>1.16</v>
       </c>
       <c r="AT197">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU197">
         <v>1.52</v>
@@ -39528,10 +39552,10 @@
         <v>0.44</v>
       </c>
       <c r="AS198">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT198">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU198">
         <v>1.54</v>
@@ -39823,7 +39847,7 @@
         <v>87</v>
       </c>
       <c r="P200" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39910,10 +39934,10 @@
         <v>0.89</v>
       </c>
       <c r="AS200">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT200">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU200">
         <v>1.36</v>
@@ -40014,7 +40038,7 @@
         <v>217</v>
       </c>
       <c r="P201" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -40101,7 +40125,7 @@
         <v>1.2</v>
       </c>
       <c r="AS201">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT201">
         <v>1.11</v>
@@ -40205,7 +40229,7 @@
         <v>218</v>
       </c>
       <c r="P202" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40396,7 +40420,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40483,7 +40507,7 @@
         <v>1.8</v>
       </c>
       <c r="AS203">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT203">
         <v>1.26</v>
@@ -40778,7 +40802,7 @@
         <v>87</v>
       </c>
       <c r="P205" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40865,10 +40889,10 @@
         <v>2.22</v>
       </c>
       <c r="AS205">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT205">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU205">
         <v>1.56</v>
@@ -41059,7 +41083,7 @@
         <v>2.26</v>
       </c>
       <c r="AT206">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU206">
         <v>1.89</v>
@@ -41160,7 +41184,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41441,7 +41465,7 @@
         <v>2.37</v>
       </c>
       <c r="AT208">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU208">
         <v>1.89</v>
@@ -41542,7 +41566,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41629,7 +41653,7 @@
         <v>0.4</v>
       </c>
       <c r="AS209">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT209">
         <v>0.68</v>
@@ -41733,7 +41757,7 @@
         <v>165</v>
       </c>
       <c r="P210" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -42202,10 +42226,10 @@
         <v>1</v>
       </c>
       <c r="AS212">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT212">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU212">
         <v>2.04</v>
@@ -42306,7 +42330,7 @@
         <v>181</v>
       </c>
       <c r="P213" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42393,10 +42417,10 @@
         <v>1.1</v>
       </c>
       <c r="AS213">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT213">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU213">
         <v>1.55</v>
@@ -42497,7 +42521,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q214">
         <v>2</v>
@@ -42587,7 +42611,7 @@
         <v>2.37</v>
       </c>
       <c r="AT214">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU214">
         <v>1.81</v>
@@ -42688,7 +42712,7 @@
         <v>87</v>
       </c>
       <c r="P215" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42966,10 +42990,10 @@
         <v>0.4</v>
       </c>
       <c r="AS216">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT216">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU216">
         <v>1.52</v>
@@ -43070,7 +43094,7 @@
         <v>87</v>
       </c>
       <c r="P217" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -43157,7 +43181,7 @@
         <v>0.73</v>
       </c>
       <c r="AS217">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT217">
         <v>0.68</v>
@@ -43351,7 +43375,7 @@
         <v>1.16</v>
       </c>
       <c r="AT218">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU218">
         <v>1.5</v>
@@ -43539,7 +43563,7 @@
         <v>1.18</v>
       </c>
       <c r="AS219">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT219">
         <v>1.11</v>
@@ -43730,10 +43754,10 @@
         <v>1.5</v>
       </c>
       <c r="AS220">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT220">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU220">
         <v>1.53</v>
@@ -43834,7 +43858,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q221">
         <v>9</v>
@@ -44112,7 +44136,7 @@
         <v>1</v>
       </c>
       <c r="AS222">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT222">
         <v>0.58</v>
@@ -44303,7 +44327,7 @@
         <v>2.27</v>
       </c>
       <c r="AS223">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT223">
         <v>2.32</v>
@@ -44407,7 +44431,7 @@
         <v>87</v>
       </c>
       <c r="P224" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44497,7 +44521,7 @@
         <v>1.58</v>
       </c>
       <c r="AT224">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU224">
         <v>1.31</v>
@@ -44598,7 +44622,7 @@
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -44688,7 +44712,7 @@
         <v>1.26</v>
       </c>
       <c r="AT225">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU225">
         <v>1.71</v>
@@ -44876,7 +44900,7 @@
         <v>0.82</v>
       </c>
       <c r="AS226">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT226">
         <v>0.53</v>
@@ -44980,7 +45004,7 @@
         <v>148</v>
       </c>
       <c r="P227" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -45261,7 +45285,7 @@
         <v>2.26</v>
       </c>
       <c r="AT228">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU228">
         <v>1.95</v>
@@ -45640,7 +45664,7 @@
         <v>1.64</v>
       </c>
       <c r="AS230">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT230">
         <v>1.26</v>
@@ -45834,7 +45858,7 @@
         <v>1.84</v>
       </c>
       <c r="AT231">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU231">
         <v>2.05</v>
@@ -46022,10 +46046,10 @@
         <v>1.27</v>
       </c>
       <c r="AS232">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT232">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU232">
         <v>1.63</v>
@@ -46213,7 +46237,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT233">
         <v>1.11</v>
@@ -46407,7 +46431,7 @@
         <v>1.16</v>
       </c>
       <c r="AT234">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU234">
         <v>1.44</v>
@@ -46508,7 +46532,7 @@
         <v>237</v>
       </c>
       <c r="P235" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46595,10 +46619,10 @@
         <v>1.55</v>
       </c>
       <c r="AS235">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT235">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU235">
         <v>2.08</v>
@@ -46786,7 +46810,7 @@
         <v>0.92</v>
       </c>
       <c r="AS236">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT236">
         <v>0.58</v>
@@ -46890,7 +46914,7 @@
         <v>144</v>
       </c>
       <c r="P237" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -46977,7 +47001,7 @@
         <v>2.18</v>
       </c>
       <c r="AS237">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT237">
         <v>1.84</v>
@@ -47171,7 +47195,7 @@
         <v>2.37</v>
       </c>
       <c r="AT238">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU238">
         <v>1.78</v>
@@ -47272,7 +47296,7 @@
         <v>87</v>
       </c>
       <c r="P239" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q239">
         <v>2</v>
@@ -47359,10 +47383,10 @@
         <v>0.91</v>
       </c>
       <c r="AS239">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT239">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU239">
         <v>1.51</v>
@@ -47654,7 +47678,7 @@
         <v>241</v>
       </c>
       <c r="P241" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47744,7 +47768,7 @@
         <v>1.26</v>
       </c>
       <c r="AT241">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU241">
         <v>1.7</v>
@@ -48036,7 +48060,7 @@
         <v>180</v>
       </c>
       <c r="P243" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -48126,7 +48150,7 @@
         <v>0.63</v>
       </c>
       <c r="AT243">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU243">
         <v>1.38</v>
@@ -48317,7 +48341,7 @@
         <v>1.26</v>
       </c>
       <c r="AT244">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU244">
         <v>1.46</v>
@@ -48418,7 +48442,7 @@
         <v>87</v>
       </c>
       <c r="P245" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q245">
         <v>10</v>
@@ -48505,7 +48529,7 @@
         <v>0.42</v>
       </c>
       <c r="AS245">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT245">
         <v>0.68</v>
@@ -48696,10 +48720,10 @@
         <v>0.91</v>
       </c>
       <c r="AS246">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT246">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU246">
         <v>2.02</v>
@@ -48890,7 +48914,7 @@
         <v>1.58</v>
       </c>
       <c r="AT247">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU247">
         <v>1.28</v>
@@ -48991,7 +49015,7 @@
         <v>244</v>
       </c>
       <c r="P248" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q248">
         <v>6</v>
@@ -49078,7 +49102,7 @@
         <v>0.75</v>
       </c>
       <c r="AS248">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT248">
         <v>0.53</v>
@@ -49182,7 +49206,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q249">
         <v>12</v>
@@ -49269,10 +49293,10 @@
         <v>0.91</v>
       </c>
       <c r="AS249">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT249">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU249">
         <v>1.55</v>
@@ -49373,7 +49397,7 @@
         <v>87</v>
       </c>
       <c r="P250" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -49460,7 +49484,7 @@
         <v>1.58</v>
       </c>
       <c r="AS250">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT250">
         <v>1.58</v>
@@ -49564,7 +49588,7 @@
         <v>87</v>
       </c>
       <c r="P251" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q251">
         <v>7</v>
@@ -49842,7 +49866,7 @@
         <v>0.62</v>
       </c>
       <c r="AS252">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT252">
         <v>0.68</v>
@@ -50036,7 +50060,7 @@
         <v>2.74</v>
       </c>
       <c r="AT253">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU253">
         <v>1.86</v>
@@ -50137,7 +50161,7 @@
         <v>246</v>
       </c>
       <c r="P254" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q254">
         <v>4</v>
@@ -50224,7 +50248,7 @@
         <v>0.85</v>
       </c>
       <c r="AS254">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT254">
         <v>0.68</v>
@@ -50328,7 +50352,7 @@
         <v>247</v>
       </c>
       <c r="P255" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q255">
         <v>3</v>
@@ -50415,7 +50439,7 @@
         <v>2.25</v>
       </c>
       <c r="AS255">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT255">
         <v>1.84</v>
@@ -50606,7 +50630,7 @@
         <v>0.85</v>
       </c>
       <c r="AS256">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT256">
         <v>0.58</v>
@@ -50800,7 +50824,7 @@
         <v>1.26</v>
       </c>
       <c r="AT257">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU257">
         <v>1.69</v>
@@ -50991,7 +51015,7 @@
         <v>1.26</v>
       </c>
       <c r="AT258">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU258">
         <v>1.43</v>
@@ -51474,7 +51498,7 @@
         <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q261">
         <v>4</v>
@@ -51564,7 +51588,7 @@
         <v>2.37</v>
       </c>
       <c r="AT261">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU261">
         <v>1.71</v>
@@ -51665,7 +51689,7 @@
         <v>250</v>
       </c>
       <c r="P262" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -51755,7 +51779,7 @@
         <v>2.26</v>
       </c>
       <c r="AT262">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU262">
         <v>1.98</v>
@@ -51943,10 +51967,10 @@
         <v>1.08</v>
       </c>
       <c r="AS263">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT263">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU263">
         <v>1.56</v>
@@ -52047,7 +52071,7 @@
         <v>183</v>
       </c>
       <c r="P264" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52134,7 +52158,7 @@
         <v>2.15</v>
       </c>
       <c r="AS264">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT264">
         <v>2.32</v>
@@ -52238,7 +52262,7 @@
         <v>87</v>
       </c>
       <c r="P265" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q265">
         <v>6</v>
@@ -52328,7 +52352,7 @@
         <v>1.58</v>
       </c>
       <c r="AT265">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU265">
         <v>1.28</v>
@@ -52516,7 +52540,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS266">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT266">
         <v>0.53</v>
@@ -52620,7 +52644,7 @@
         <v>252</v>
       </c>
       <c r="P267" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q267">
         <v>1</v>
@@ -52707,7 +52731,7 @@
         <v>1.69</v>
       </c>
       <c r="AS267">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT267">
         <v>1.58</v>
@@ -52898,10 +52922,10 @@
         <v>1.08</v>
       </c>
       <c r="AS268">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT268">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU268">
         <v>1.41</v>
@@ -53002,7 +53026,7 @@
         <v>87</v>
       </c>
       <c r="P269" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q269">
         <v>6</v>
@@ -53092,7 +53116,7 @@
         <v>0.63</v>
       </c>
       <c r="AT269">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU269">
         <v>1.39</v>
@@ -53280,7 +53304,7 @@
         <v>1.15</v>
       </c>
       <c r="AS270">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT270">
         <v>1.11</v>
@@ -53384,7 +53408,7 @@
         <v>253</v>
       </c>
       <c r="P271" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -53474,7 +53498,7 @@
         <v>1.79</v>
       </c>
       <c r="AT271">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU271">
         <v>1.97</v>
@@ -53766,7 +53790,7 @@
         <v>87</v>
       </c>
       <c r="P273" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q273">
         <v>12</v>
@@ -53856,7 +53880,7 @@
         <v>1.26</v>
       </c>
       <c r="AT273">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU273">
         <v>1.62</v>
@@ -54047,7 +54071,7 @@
         <v>2.74</v>
       </c>
       <c r="AT274">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU274">
         <v>1.79</v>
@@ -54148,7 +54172,7 @@
         <v>87</v>
       </c>
       <c r="P275" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q275">
         <v>1</v>
@@ -54235,7 +54259,7 @@
         <v>2.15</v>
       </c>
       <c r="AS275">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT275">
         <v>1.84</v>
@@ -54429,7 +54453,7 @@
         <v>1.26</v>
       </c>
       <c r="AT276">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU276">
         <v>1.44</v>
@@ -54721,7 +54745,7 @@
         <v>257</v>
       </c>
       <c r="P278" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q278">
         <v>7</v>
@@ -54808,7 +54832,7 @@
         <v>0.86</v>
       </c>
       <c r="AS278">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT278">
         <v>0.95</v>
@@ -54999,7 +55023,7 @@
         <v>1.46</v>
       </c>
       <c r="AS279">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT279">
         <v>1.26</v>
@@ -55190,10 +55214,10 @@
         <v>1.08</v>
       </c>
       <c r="AS280">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT280">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU280">
         <v>2.09</v>
@@ -55294,7 +55318,7 @@
         <v>218</v>
       </c>
       <c r="P281" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q281">
         <v>6</v>
@@ -55381,10 +55405,10 @@
         <v>2.46</v>
       </c>
       <c r="AS281">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT281">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU281">
         <v>1.96</v>
@@ -55575,7 +55599,7 @@
         <v>1.79</v>
       </c>
       <c r="AT282">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU282">
         <v>1.9</v>
@@ -55763,7 +55787,7 @@
         <v>0.64</v>
       </c>
       <c r="AS283">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT283">
         <v>0.53</v>
@@ -55957,7 +55981,7 @@
         <v>2.37</v>
       </c>
       <c r="AT284">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU284">
         <v>1.71</v>
@@ -56336,10 +56360,10 @@
         <v>1</v>
       </c>
       <c r="AS286">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT286">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU286">
         <v>1.44</v>
@@ -56631,7 +56655,7 @@
         <v>261</v>
       </c>
       <c r="P288" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -56822,7 +56846,7 @@
         <v>87</v>
       </c>
       <c r="P289" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q289">
         <v>3</v>
@@ -56909,7 +56933,7 @@
         <v>1.29</v>
       </c>
       <c r="AS289">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT289">
         <v>1.11</v>
@@ -57013,7 +57037,7 @@
         <v>262</v>
       </c>
       <c r="P290" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q290">
         <v>3</v>
@@ -57100,10 +57124,10 @@
         <v>0.85</v>
       </c>
       <c r="AS290">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT290">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU290">
         <v>1.56</v>
@@ -57204,7 +57228,7 @@
         <v>87</v>
       </c>
       <c r="P291" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q291">
         <v>7</v>
@@ -57291,10 +57315,10 @@
         <v>1.29</v>
       </c>
       <c r="AS291">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT291">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU291">
         <v>2.08</v>
@@ -57485,7 +57509,7 @@
         <v>2.74</v>
       </c>
       <c r="AT292">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU292">
         <v>1.75</v>
@@ -57676,7 +57700,7 @@
         <v>0.63</v>
       </c>
       <c r="AT293">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU293">
         <v>1.4</v>
@@ -57777,7 +57801,7 @@
         <v>87</v>
       </c>
       <c r="P294" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q294">
         <v>10</v>
@@ -57864,7 +57888,7 @@
         <v>2.21</v>
       </c>
       <c r="AS294">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT294">
         <v>2.32</v>
@@ -57968,7 +57992,7 @@
         <v>264</v>
       </c>
       <c r="P295" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q295">
         <v>7</v>
@@ -58058,7 +58082,7 @@
         <v>1.84</v>
       </c>
       <c r="AT295">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU295">
         <v>1.97</v>
@@ -58159,7 +58183,7 @@
         <v>87</v>
       </c>
       <c r="P296" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q296">
         <v>7</v>
@@ -58246,7 +58270,7 @@
         <v>0.6</v>
       </c>
       <c r="AS296">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT296">
         <v>0.68</v>
@@ -58350,7 +58374,7 @@
         <v>265</v>
       </c>
       <c r="P297" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58440,7 +58464,7 @@
         <v>1.26</v>
       </c>
       <c r="AT297">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU297">
         <v>1.51</v>
@@ -58628,7 +58652,7 @@
         <v>0.87</v>
       </c>
       <c r="AS298">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT298">
         <v>0.95</v>
@@ -58732,7 +58756,7 @@
         <v>87</v>
       </c>
       <c r="P299" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q299">
         <v>3</v>
@@ -58819,10 +58843,10 @@
         <v>1.36</v>
       </c>
       <c r="AS299">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT299">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU299">
         <v>1.47</v>
@@ -58923,7 +58947,7 @@
         <v>266</v>
       </c>
       <c r="P300" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q300">
         <v>6</v>
@@ -59010,7 +59034,7 @@
         <v>2.21</v>
       </c>
       <c r="AS300">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT300">
         <v>1.84</v>
@@ -59201,10 +59225,10 @@
         <v>2.5</v>
       </c>
       <c r="AS301">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT301">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU301">
         <v>1.48</v>
@@ -59305,7 +59329,7 @@
         <v>267</v>
       </c>
       <c r="P302" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q302">
         <v>8</v>
@@ -59395,7 +59419,7 @@
         <v>1.26</v>
       </c>
       <c r="AT302">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU302">
         <v>1.63</v>
@@ -59774,10 +59798,10 @@
         <v>1.53</v>
       </c>
       <c r="AS304">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT304">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU304">
         <v>2.07</v>
@@ -59968,7 +59992,7 @@
         <v>2.26</v>
       </c>
       <c r="AT305">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU305">
         <v>1.97</v>
@@ -60159,7 +60183,7 @@
         <v>1.58</v>
       </c>
       <c r="AT306">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU306">
         <v>1.3</v>
@@ -60538,7 +60562,7 @@
         <v>1.6</v>
       </c>
       <c r="AS308">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT308">
         <v>1.58</v>
@@ -60642,7 +60666,7 @@
         <v>274</v>
       </c>
       <c r="P309" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q309">
         <v>3</v>
@@ -60729,7 +60753,7 @@
         <v>0.8</v>
       </c>
       <c r="AS309">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT309">
         <v>0.68</v>
@@ -60920,7 +60944,7 @@
         <v>1.33</v>
       </c>
       <c r="AS310">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT310">
         <v>1.26</v>
@@ -61215,7 +61239,7 @@
         <v>180</v>
       </c>
       <c r="P312" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q312">
         <v>5</v>
@@ -61493,10 +61517,10 @@
         <v>1.4</v>
       </c>
       <c r="AS313">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT313">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU313">
         <v>1.51</v>
@@ -61788,7 +61812,7 @@
         <v>87</v>
       </c>
       <c r="P315" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q315">
         <v>5</v>
@@ -61875,10 +61899,10 @@
         <v>0.73</v>
       </c>
       <c r="AS315">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT315">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU315">
         <v>2.01</v>
@@ -61979,7 +62003,7 @@
         <v>101</v>
       </c>
       <c r="P316" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q316">
         <v>6</v>
@@ -62066,10 +62090,10 @@
         <v>1.47</v>
       </c>
       <c r="AS316">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT316">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU316">
         <v>1.67</v>
@@ -62257,7 +62281,7 @@
         <v>0.88</v>
       </c>
       <c r="AS317">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT317">
         <v>0.95</v>
@@ -62448,10 +62472,10 @@
         <v>1.07</v>
       </c>
       <c r="AS318">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT318">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU318">
         <v>1.45</v>
@@ -62552,7 +62576,7 @@
         <v>278</v>
       </c>
       <c r="P319" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q319">
         <v>13</v>
@@ -62639,7 +62663,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS319">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT319">
         <v>0.53</v>
@@ -62833,7 +62857,7 @@
         <v>1.26</v>
       </c>
       <c r="AT320">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU320">
         <v>1.52</v>
@@ -62934,7 +62958,7 @@
         <v>279</v>
       </c>
       <c r="P321" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q321">
         <v>5</v>
@@ -63024,7 +63048,7 @@
         <v>1.84</v>
       </c>
       <c r="AT321">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU321">
         <v>1.92</v>
@@ -63125,7 +63149,7 @@
         <v>149</v>
       </c>
       <c r="P322" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q322">
         <v>5</v>
@@ -63215,7 +63239,7 @@
         <v>1.16</v>
       </c>
       <c r="AT322">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU322">
         <v>1.46</v>
@@ -63507,7 +63531,7 @@
         <v>87</v>
       </c>
       <c r="P324" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -63594,10 +63618,10 @@
         <v>1.13</v>
       </c>
       <c r="AS324">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT324">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU324">
         <v>1.57</v>
@@ -63889,7 +63913,7 @@
         <v>282</v>
       </c>
       <c r="P326" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q326">
         <v>7</v>
@@ -63979,7 +64003,7 @@
         <v>2.37</v>
       </c>
       <c r="AT326">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU326">
         <v>1.75</v>
@@ -64167,7 +64191,7 @@
         <v>1.5</v>
       </c>
       <c r="AS327">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT327">
         <v>1.58</v>
@@ -64271,7 +64295,7 @@
         <v>111</v>
       </c>
       <c r="P328" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q328">
         <v>2</v>
@@ -64358,7 +64382,7 @@
         <v>1.25</v>
       </c>
       <c r="AS328">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT328">
         <v>1.26</v>
@@ -64462,7 +64486,7 @@
         <v>204</v>
       </c>
       <c r="P329" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q329">
         <v>12</v>
@@ -64653,7 +64677,7 @@
         <v>87</v>
       </c>
       <c r="P330" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q330">
         <v>5</v>
@@ -64743,7 +64767,7 @@
         <v>1.26</v>
       </c>
       <c r="AT330">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU330">
         <v>1.63</v>
@@ -64931,7 +64955,7 @@
         <v>0.75</v>
       </c>
       <c r="AS331">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT331">
         <v>0.68</v>
@@ -65035,7 +65059,7 @@
         <v>284</v>
       </c>
       <c r="P332" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q332">
         <v>4</v>
@@ -65122,10 +65146,10 @@
         <v>1.06</v>
       </c>
       <c r="AS332">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT332">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU332">
         <v>1.66</v>
@@ -65313,10 +65337,10 @@
         <v>1.38</v>
       </c>
       <c r="AS333">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT333">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU333">
         <v>2</v>
@@ -65507,7 +65531,7 @@
         <v>2.74</v>
       </c>
       <c r="AT334">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU334">
         <v>1.77</v>
@@ -65608,7 +65632,7 @@
         <v>287</v>
       </c>
       <c r="P335" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q335">
         <v>4</v>
@@ -65799,7 +65823,7 @@
         <v>87</v>
       </c>
       <c r="P336" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q336">
         <v>11</v>
@@ -65886,10 +65910,10 @@
         <v>0.88</v>
       </c>
       <c r="AS336">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT336">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU336">
         <v>1.59</v>
@@ -66077,10 +66101,10 @@
         <v>1.56</v>
       </c>
       <c r="AS337">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT337">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU337">
         <v>1.49</v>
@@ -66268,10 +66292,10 @@
         <v>1.19</v>
       </c>
       <c r="AS338">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT338">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU338">
         <v>1.27</v>
@@ -66459,7 +66483,7 @@
         <v>0.88</v>
       </c>
       <c r="AS339">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT339">
         <v>0.95</v>
@@ -66563,7 +66587,7 @@
         <v>289</v>
       </c>
       <c r="P340" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q340">
         <v>3</v>
@@ -66653,7 +66677,7 @@
         <v>1.84</v>
       </c>
       <c r="AT340">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU340">
         <v>1.86</v>
@@ -66754,7 +66778,7 @@
         <v>290</v>
       </c>
       <c r="P341" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q341">
         <v>6</v>
@@ -66841,7 +66865,7 @@
         <v>2.31</v>
       </c>
       <c r="AS341">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT341">
         <v>2.32</v>
@@ -66945,7 +66969,7 @@
         <v>291</v>
       </c>
       <c r="P342" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q342">
         <v>0</v>
@@ -67414,7 +67438,7 @@
         <v>0.65</v>
       </c>
       <c r="AS344">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT344">
         <v>0.58</v>
@@ -67518,7 +67542,7 @@
         <v>294</v>
       </c>
       <c r="P345" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q345">
         <v>5</v>
@@ -67608,7 +67632,7 @@
         <v>1.58</v>
       </c>
       <c r="AT345">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU345">
         <v>1.27</v>
@@ -67987,7 +68011,7 @@
         <v>0.71</v>
       </c>
       <c r="AS347">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT347">
         <v>0.68</v>
@@ -68560,10 +68584,10 @@
         <v>1.29</v>
       </c>
       <c r="AS350">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT350">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU350">
         <v>1.56</v>
@@ -68754,7 +68778,7 @@
         <v>1.79</v>
       </c>
       <c r="AT351">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU351">
         <v>1.96</v>
@@ -69046,7 +69070,7 @@
         <v>87</v>
       </c>
       <c r="P353" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q353">
         <v>10</v>
@@ -69133,10 +69157,10 @@
         <v>1.18</v>
       </c>
       <c r="AS353">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT353">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU353">
         <v>1.6</v>
@@ -69327,7 +69351,7 @@
         <v>2.26</v>
       </c>
       <c r="AT354">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="AU354">
         <v>1.95</v>
@@ -69428,7 +69452,7 @@
         <v>87</v>
       </c>
       <c r="P355" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q355">
         <v>2</v>
@@ -69515,10 +69539,10 @@
         <v>1</v>
       </c>
       <c r="AS355">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AT355">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU355">
         <v>1.25</v>
@@ -69706,10 +69730,10 @@
         <v>1.18</v>
       </c>
       <c r="AS356">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AT356">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AU356">
         <v>1.65</v>
@@ -69897,10 +69921,10 @@
         <v>1.53</v>
       </c>
       <c r="AS357">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT357">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU357">
         <v>1.5</v>
@@ -70001,7 +70025,7 @@
         <v>301</v>
       </c>
       <c r="P358" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q358">
         <v>7</v>
@@ -70088,10 +70112,10 @@
         <v>0.29</v>
       </c>
       <c r="AS358">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT358">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AU358">
         <v>1.97</v>
@@ -70192,7 +70216,7 @@
         <v>176</v>
       </c>
       <c r="P359" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q359">
         <v>4</v>
@@ -70279,10 +70303,10 @@
         <v>1</v>
       </c>
       <c r="AS359">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AT359">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU359">
         <v>1.4</v>
@@ -70383,7 +70407,7 @@
         <v>105</v>
       </c>
       <c r="P360" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q360">
         <v>3</v>
@@ -70470,10 +70494,10 @@
         <v>1.53</v>
       </c>
       <c r="AS360">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT360">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AU360">
         <v>1.39</v>
@@ -70574,7 +70598,7 @@
         <v>217</v>
       </c>
       <c r="P361" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q361">
         <v>4</v>
@@ -70661,7 +70685,7 @@
         <v>2.35</v>
       </c>
       <c r="AS361">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT361">
         <v>2.32</v>
@@ -71529,7 +71553,7 @@
         <v>305</v>
       </c>
       <c r="P366" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="Q366">
         <v>3</v>
@@ -71720,7 +71744,7 @@
         <v>306</v>
       </c>
       <c r="P367" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q367">
         <v>2</v>
@@ -72626,6 +72650,1916 @@
       </c>
       <c r="BK371">
         <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:63">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>2468298</v>
+      </c>
+      <c r="C372" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F372">
+        <v>38</v>
+      </c>
+      <c r="G372" t="s">
+        <v>79</v>
+      </c>
+      <c r="H372" t="s">
+        <v>71</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>1</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372">
+        <v>3</v>
+      </c>
+      <c r="N372">
+        <v>4</v>
+      </c>
+      <c r="O372" t="s">
+        <v>93</v>
+      </c>
+      <c r="P372" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q372">
+        <v>4</v>
+      </c>
+      <c r="R372">
+        <v>7</v>
+      </c>
+      <c r="S372">
+        <v>11</v>
+      </c>
+      <c r="T372">
+        <v>2.45</v>
+      </c>
+      <c r="U372">
+        <v>2.38</v>
+      </c>
+      <c r="V372">
+        <v>3.4</v>
+      </c>
+      <c r="W372">
+        <v>1.25</v>
+      </c>
+      <c r="X372">
+        <v>3.6</v>
+      </c>
+      <c r="Y372">
+        <v>2.1</v>
+      </c>
+      <c r="Z372">
+        <v>1.65</v>
+      </c>
+      <c r="AA372">
+        <v>4.5</v>
+      </c>
+      <c r="AB372">
+        <v>1.17</v>
+      </c>
+      <c r="AC372">
+        <v>1.83</v>
+      </c>
+      <c r="AD372">
+        <v>4</v>
+      </c>
+      <c r="AE372">
+        <v>3.8</v>
+      </c>
+      <c r="AF372">
+        <v>1.01</v>
+      </c>
+      <c r="AG372">
+        <v>13</v>
+      </c>
+      <c r="AH372">
+        <v>1.14</v>
+      </c>
+      <c r="AI372">
+        <v>5.25</v>
+      </c>
+      <c r="AJ372">
+        <v>1.58</v>
+      </c>
+      <c r="AK372">
+        <v>2.4</v>
+      </c>
+      <c r="AL372">
+        <v>1.45</v>
+      </c>
+      <c r="AM372">
+        <v>2.7</v>
+      </c>
+      <c r="AN372">
+        <v>1.35</v>
+      </c>
+      <c r="AO372">
+        <v>1.28</v>
+      </c>
+      <c r="AP372">
+        <v>1.72</v>
+      </c>
+      <c r="AQ372">
+        <v>1.67</v>
+      </c>
+      <c r="AR372">
+        <v>1.28</v>
+      </c>
+      <c r="AS372">
+        <v>1.58</v>
+      </c>
+      <c r="AT372">
+        <v>1.37</v>
+      </c>
+      <c r="AU372">
+        <v>1.95</v>
+      </c>
+      <c r="AV372">
+        <v>1.35</v>
+      </c>
+      <c r="AW372">
+        <v>3.3</v>
+      </c>
+      <c r="AX372">
+        <v>1.82</v>
+      </c>
+      <c r="AY372">
+        <v>8</v>
+      </c>
+      <c r="AZ372">
+        <v>2.28</v>
+      </c>
+      <c r="BA372">
+        <v>1.21</v>
+      </c>
+      <c r="BB372">
+        <v>1.41</v>
+      </c>
+      <c r="BC372">
+        <v>1.71</v>
+      </c>
+      <c r="BD372">
+        <v>2.12</v>
+      </c>
+      <c r="BE372">
+        <v>2.75</v>
+      </c>
+      <c r="BF372">
+        <v>6</v>
+      </c>
+      <c r="BG372">
+        <v>9</v>
+      </c>
+      <c r="BH372">
+        <v>5</v>
+      </c>
+      <c r="BI372">
+        <v>2</v>
+      </c>
+      <c r="BJ372">
+        <v>11</v>
+      </c>
+      <c r="BK372">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:63">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>2468290</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F373">
+        <v>38</v>
+      </c>
+      <c r="G373" t="s">
+        <v>81</v>
+      </c>
+      <c r="H373" t="s">
+        <v>74</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="M373">
+        <v>0</v>
+      </c>
+      <c r="N373">
+        <v>1</v>
+      </c>
+      <c r="O373" t="s">
+        <v>265</v>
+      </c>
+      <c r="P373" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q373">
+        <v>2</v>
+      </c>
+      <c r="R373">
+        <v>3</v>
+      </c>
+      <c r="S373">
+        <v>5</v>
+      </c>
+      <c r="T373">
+        <v>6.5</v>
+      </c>
+      <c r="U373">
+        <v>2.6</v>
+      </c>
+      <c r="V373">
+        <v>1.78</v>
+      </c>
+      <c r="W373">
+        <v>1.29</v>
+      </c>
+      <c r="X373">
+        <v>3.3</v>
+      </c>
+      <c r="Y373">
+        <v>2.3</v>
+      </c>
+      <c r="Z373">
+        <v>1.55</v>
+      </c>
+      <c r="AA373">
+        <v>5</v>
+      </c>
+      <c r="AB373">
+        <v>1.13</v>
+      </c>
+      <c r="AC373">
+        <v>9</v>
+      </c>
+      <c r="AD373">
+        <v>5</v>
+      </c>
+      <c r="AE373">
+        <v>1.33</v>
+      </c>
+      <c r="AF373">
+        <v>1.02</v>
+      </c>
+      <c r="AG373">
+        <v>11</v>
+      </c>
+      <c r="AH373">
+        <v>1.18</v>
+      </c>
+      <c r="AI373">
+        <v>4.5</v>
+      </c>
+      <c r="AJ373">
+        <v>1.57</v>
+      </c>
+      <c r="AK373">
+        <v>2.38</v>
+      </c>
+      <c r="AL373">
+        <v>1.91</v>
+      </c>
+      <c r="AM373">
+        <v>1.85</v>
+      </c>
+      <c r="AN373">
+        <v>3.1</v>
+      </c>
+      <c r="AO373">
+        <v>1.17</v>
+      </c>
+      <c r="AP373">
+        <v>1.09</v>
+      </c>
+      <c r="AQ373">
+        <v>0.67</v>
+      </c>
+      <c r="AR373">
+        <v>2.17</v>
+      </c>
+      <c r="AS373">
+        <v>0.79</v>
+      </c>
+      <c r="AT373">
+        <v>2.05</v>
+      </c>
+      <c r="AU373">
+        <v>1.21</v>
+      </c>
+      <c r="AV373">
+        <v>1.58</v>
+      </c>
+      <c r="AW373">
+        <v>2.79</v>
+      </c>
+      <c r="AX373">
+        <v>2.8</v>
+      </c>
+      <c r="AY373">
+        <v>8</v>
+      </c>
+      <c r="AZ373">
+        <v>1.58</v>
+      </c>
+      <c r="BA373">
+        <v>1.38</v>
+      </c>
+      <c r="BB373">
+        <v>1.68</v>
+      </c>
+      <c r="BC373">
+        <v>2.12</v>
+      </c>
+      <c r="BD373">
+        <v>2.75</v>
+      </c>
+      <c r="BE373">
+        <v>3.8</v>
+      </c>
+      <c r="BF373">
+        <v>2</v>
+      </c>
+      <c r="BG373">
+        <v>6</v>
+      </c>
+      <c r="BH373">
+        <v>0</v>
+      </c>
+      <c r="BI373">
+        <v>10</v>
+      </c>
+      <c r="BJ373">
+        <v>2</v>
+      </c>
+      <c r="BK373">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="374" spans="1:63">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>2468291</v>
+      </c>
+      <c r="C374" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F374">
+        <v>38</v>
+      </c>
+      <c r="G374" t="s">
+        <v>80</v>
+      </c>
+      <c r="H374" t="s">
+        <v>72</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374">
+        <v>3</v>
+      </c>
+      <c r="N374">
+        <v>4</v>
+      </c>
+      <c r="O374" t="s">
+        <v>126</v>
+      </c>
+      <c r="P374" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q374">
+        <v>5</v>
+      </c>
+      <c r="R374">
+        <v>5</v>
+      </c>
+      <c r="S374">
+        <v>10</v>
+      </c>
+      <c r="T374">
+        <v>3.34</v>
+      </c>
+      <c r="U374">
+        <v>2.24</v>
+      </c>
+      <c r="V374">
+        <v>2.93</v>
+      </c>
+      <c r="W374">
+        <v>1.33</v>
+      </c>
+      <c r="X374">
+        <v>3</v>
+      </c>
+      <c r="Y374">
+        <v>2.5</v>
+      </c>
+      <c r="Z374">
+        <v>1.48</v>
+      </c>
+      <c r="AA374">
+        <v>5.5</v>
+      </c>
+      <c r="AB374">
+        <v>1.11</v>
+      </c>
+      <c r="AC374">
+        <v>3.2</v>
+      </c>
+      <c r="AD374">
+        <v>3.5</v>
+      </c>
+      <c r="AE374">
+        <v>2.15</v>
+      </c>
+      <c r="AF374">
+        <v>1.03</v>
+      </c>
+      <c r="AG374">
+        <v>11</v>
+      </c>
+      <c r="AH374">
+        <v>1.25</v>
+      </c>
+      <c r="AI374">
+        <v>3.8</v>
+      </c>
+      <c r="AJ374">
+        <v>1.7</v>
+      </c>
+      <c r="AK374">
+        <v>2.15</v>
+      </c>
+      <c r="AL374">
+        <v>1.61</v>
+      </c>
+      <c r="AM374">
+        <v>2.25</v>
+      </c>
+      <c r="AN374">
+        <v>1.55</v>
+      </c>
+      <c r="AO374">
+        <v>1.3</v>
+      </c>
+      <c r="AP374">
+        <v>1.45</v>
+      </c>
+      <c r="AQ374">
+        <v>1.22</v>
+      </c>
+      <c r="AR374">
+        <v>1.61</v>
+      </c>
+      <c r="AS374">
+        <v>1.16</v>
+      </c>
+      <c r="AT374">
+        <v>1.68</v>
+      </c>
+      <c r="AU374">
+        <v>1.5</v>
+      </c>
+      <c r="AV374">
+        <v>1.71</v>
+      </c>
+      <c r="AW374">
+        <v>3.21</v>
+      </c>
+      <c r="AX374">
+        <v>2.02</v>
+      </c>
+      <c r="AY374">
+        <v>7.5</v>
+      </c>
+      <c r="AZ374">
+        <v>2.04</v>
+      </c>
+      <c r="BA374">
+        <v>1.28</v>
+      </c>
+      <c r="BB374">
+        <v>1.53</v>
+      </c>
+      <c r="BC374">
+        <v>1.9</v>
+      </c>
+      <c r="BD374">
+        <v>2.4</v>
+      </c>
+      <c r="BE374">
+        <v>3.15</v>
+      </c>
+      <c r="BF374">
+        <v>6</v>
+      </c>
+      <c r="BG374">
+        <v>8</v>
+      </c>
+      <c r="BH374">
+        <v>6</v>
+      </c>
+      <c r="BI374">
+        <v>4</v>
+      </c>
+      <c r="BJ374">
+        <v>12</v>
+      </c>
+      <c r="BK374">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:63">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>2468292</v>
+      </c>
+      <c r="C375" t="s">
+        <v>63</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F375">
+        <v>38</v>
+      </c>
+      <c r="G375" t="s">
+        <v>76</v>
+      </c>
+      <c r="H375" t="s">
+        <v>68</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375">
+        <v>2</v>
+      </c>
+      <c r="N375">
+        <v>3</v>
+      </c>
+      <c r="O375" t="s">
+        <v>311</v>
+      </c>
+      <c r="P375" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q375">
+        <v>4</v>
+      </c>
+      <c r="R375">
+        <v>7</v>
+      </c>
+      <c r="S375">
+        <v>11</v>
+      </c>
+      <c r="T375">
+        <v>1.83</v>
+      </c>
+      <c r="U375">
+        <v>2.75</v>
+      </c>
+      <c r="V375">
+        <v>5.25</v>
+      </c>
+      <c r="W375">
+        <v>1.22</v>
+      </c>
+      <c r="X375">
+        <v>4.14</v>
+      </c>
+      <c r="Y375">
+        <v>2.08</v>
+      </c>
+      <c r="Z375">
+        <v>1.73</v>
+      </c>
+      <c r="AA375">
+        <v>4.44</v>
+      </c>
+      <c r="AB375">
+        <v>1.2</v>
+      </c>
+      <c r="AC375">
+        <v>1.4</v>
+      </c>
+      <c r="AD375">
+        <v>5</v>
+      </c>
+      <c r="AE375">
+        <v>7</v>
+      </c>
+      <c r="AF375">
+        <v>1.01</v>
+      </c>
+      <c r="AG375">
+        <v>13</v>
+      </c>
+      <c r="AH375">
+        <v>1.09</v>
+      </c>
+      <c r="AI375">
+        <v>5.6</v>
+      </c>
+      <c r="AJ375">
+        <v>1.44</v>
+      </c>
+      <c r="AK375">
+        <v>2.8</v>
+      </c>
+      <c r="AL375">
+        <v>1.6</v>
+      </c>
+      <c r="AM375">
+        <v>2.3</v>
+      </c>
+      <c r="AN375">
+        <v>1.14</v>
+      </c>
+      <c r="AO375">
+        <v>1.17</v>
+      </c>
+      <c r="AP375">
+        <v>2.75</v>
+      </c>
+      <c r="AQ375">
+        <v>1.67</v>
+      </c>
+      <c r="AR375">
+        <v>1.17</v>
+      </c>
+      <c r="AS375">
+        <v>1.58</v>
+      </c>
+      <c r="AT375">
+        <v>1.26</v>
+      </c>
+      <c r="AU375">
+        <v>1.54</v>
+      </c>
+      <c r="AV375">
+        <v>1.42</v>
+      </c>
+      <c r="AW375">
+        <v>2.96</v>
+      </c>
+      <c r="AX375">
+        <v>1.58</v>
+      </c>
+      <c r="AY375">
+        <v>8</v>
+      </c>
+      <c r="AZ375">
+        <v>2.8</v>
+      </c>
+      <c r="BA375">
+        <v>1.23</v>
+      </c>
+      <c r="BB375">
+        <v>1.43</v>
+      </c>
+      <c r="BC375">
+        <v>1.75</v>
+      </c>
+      <c r="BD375">
+        <v>2.18</v>
+      </c>
+      <c r="BE375">
+        <v>2.88</v>
+      </c>
+      <c r="BF375">
+        <v>8</v>
+      </c>
+      <c r="BG375">
+        <v>9</v>
+      </c>
+      <c r="BH375">
+        <v>9</v>
+      </c>
+      <c r="BI375">
+        <v>9</v>
+      </c>
+      <c r="BJ375">
+        <v>17</v>
+      </c>
+      <c r="BK375">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="376" spans="1:63">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>2468293</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F376">
+        <v>38</v>
+      </c>
+      <c r="G376" t="s">
+        <v>84</v>
+      </c>
+      <c r="H376" t="s">
+        <v>66</v>
+      </c>
+      <c r="I376">
+        <v>2</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>2</v>
+      </c>
+      <c r="L376">
+        <v>2</v>
+      </c>
+      <c r="M376">
+        <v>1</v>
+      </c>
+      <c r="N376">
+        <v>3</v>
+      </c>
+      <c r="O376" t="s">
+        <v>312</v>
+      </c>
+      <c r="P376" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q376">
+        <v>4</v>
+      </c>
+      <c r="R376">
+        <v>4</v>
+      </c>
+      <c r="S376">
+        <v>8</v>
+      </c>
+      <c r="T376">
+        <v>3.5</v>
+      </c>
+      <c r="U376">
+        <v>2.15</v>
+      </c>
+      <c r="V376">
+        <v>2.7</v>
+      </c>
+      <c r="W376">
+        <v>1.3</v>
+      </c>
+      <c r="X376">
+        <v>3.2</v>
+      </c>
+      <c r="Y376">
+        <v>2.5</v>
+      </c>
+      <c r="Z376">
+        <v>1.45</v>
+      </c>
+      <c r="AA376">
+        <v>5.8</v>
+      </c>
+      <c r="AB376">
+        <v>1.1</v>
+      </c>
+      <c r="AC376">
+        <v>2.9</v>
+      </c>
+      <c r="AD376">
+        <v>3.5</v>
+      </c>
+      <c r="AE376">
+        <v>2.3</v>
+      </c>
+      <c r="AF376">
+        <v>1.05</v>
+      </c>
+      <c r="AG376">
+        <v>9</v>
+      </c>
+      <c r="AH376">
+        <v>1.25</v>
+      </c>
+      <c r="AI376">
+        <v>3.75</v>
+      </c>
+      <c r="AJ376">
+        <v>1.7</v>
+      </c>
+      <c r="AK376">
+        <v>2.15</v>
+      </c>
+      <c r="AL376">
+        <v>1.57</v>
+      </c>
+      <c r="AM376">
+        <v>2.25</v>
+      </c>
+      <c r="AN376">
+        <v>1.6</v>
+      </c>
+      <c r="AO376">
+        <v>1.27</v>
+      </c>
+      <c r="AP376">
+        <v>1.35</v>
+      </c>
+      <c r="AQ376">
+        <v>1.56</v>
+      </c>
+      <c r="AR376">
+        <v>1</v>
+      </c>
+      <c r="AS376">
+        <v>1.63</v>
+      </c>
+      <c r="AT376">
+        <v>0.95</v>
+      </c>
+      <c r="AU376">
+        <v>1.4</v>
+      </c>
+      <c r="AV376">
+        <v>1.41</v>
+      </c>
+      <c r="AW376">
+        <v>2.81</v>
+      </c>
+      <c r="AX376">
+        <v>2.06</v>
+      </c>
+      <c r="AY376">
+        <v>7.5</v>
+      </c>
+      <c r="AZ376">
+        <v>1.98</v>
+      </c>
+      <c r="BA376">
+        <v>1.27</v>
+      </c>
+      <c r="BB376">
+        <v>1.49</v>
+      </c>
+      <c r="BC376">
+        <v>1.85</v>
+      </c>
+      <c r="BD376">
+        <v>2.33</v>
+      </c>
+      <c r="BE376">
+        <v>3.05</v>
+      </c>
+      <c r="BF376">
+        <v>4</v>
+      </c>
+      <c r="BG376">
+        <v>8</v>
+      </c>
+      <c r="BH376">
+        <v>0</v>
+      </c>
+      <c r="BI376">
+        <v>6</v>
+      </c>
+      <c r="BJ376">
+        <v>4</v>
+      </c>
+      <c r="BK376">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="1:63">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>2468294</v>
+      </c>
+      <c r="C377" t="s">
+        <v>63</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F377">
+        <v>38</v>
+      </c>
+      <c r="G377" t="s">
+        <v>75</v>
+      </c>
+      <c r="H377" t="s">
+        <v>70</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>1</v>
+      </c>
+      <c r="L377">
+        <v>1</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>1</v>
+      </c>
+      <c r="O377" t="s">
+        <v>182</v>
+      </c>
+      <c r="P377" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q377">
+        <v>8</v>
+      </c>
+      <c r="R377">
+        <v>1</v>
+      </c>
+      <c r="S377">
+        <v>9</v>
+      </c>
+      <c r="T377">
+        <v>1.72</v>
+      </c>
+      <c r="U377">
+        <v>2.55</v>
+      </c>
+      <c r="V377">
+        <v>7</v>
+      </c>
+      <c r="W377">
+        <v>1.27</v>
+      </c>
+      <c r="X377">
+        <v>3.4</v>
+      </c>
+      <c r="Y377">
+        <v>2.2</v>
+      </c>
+      <c r="Z377">
+        <v>1.6</v>
+      </c>
+      <c r="AA377">
+        <v>5.2</v>
+      </c>
+      <c r="AB377">
+        <v>1.13</v>
+      </c>
+      <c r="AC377">
+        <v>1.36</v>
+      </c>
+      <c r="AD377">
+        <v>4.8</v>
+      </c>
+      <c r="AE377">
+        <v>8</v>
+      </c>
+      <c r="AF377">
+        <v>1.02</v>
+      </c>
+      <c r="AG377">
+        <v>20</v>
+      </c>
+      <c r="AH377">
+        <v>1.18</v>
+      </c>
+      <c r="AI377">
+        <v>4.95</v>
+      </c>
+      <c r="AJ377">
+        <v>1.55</v>
+      </c>
+      <c r="AK377">
+        <v>2.45</v>
+      </c>
+      <c r="AL377">
+        <v>1.9</v>
+      </c>
+      <c r="AM377">
+        <v>1.85</v>
+      </c>
+      <c r="AN377">
+        <v>1.09</v>
+      </c>
+      <c r="AO377">
+        <v>1.15</v>
+      </c>
+      <c r="AP377">
+        <v>3.3</v>
+      </c>
+      <c r="AQ377">
+        <v>1.11</v>
+      </c>
+      <c r="AR377">
+        <v>0.33</v>
+      </c>
+      <c r="AS377">
+        <v>1.21</v>
+      </c>
+      <c r="AT377">
+        <v>0.32</v>
+      </c>
+      <c r="AU377">
+        <v>1.61</v>
+      </c>
+      <c r="AV377">
+        <v>1.13</v>
+      </c>
+      <c r="AW377">
+        <v>2.74</v>
+      </c>
+      <c r="AX377">
+        <v>1.3</v>
+      </c>
+      <c r="AY377">
+        <v>10</v>
+      </c>
+      <c r="AZ377">
+        <v>4.35</v>
+      </c>
+      <c r="BA377">
+        <v>1.19</v>
+      </c>
+      <c r="BB377">
+        <v>1.36</v>
+      </c>
+      <c r="BC377">
+        <v>1.63</v>
+      </c>
+      <c r="BD377">
+        <v>2.02</v>
+      </c>
+      <c r="BE377">
+        <v>2.55</v>
+      </c>
+      <c r="BF377">
+        <v>8</v>
+      </c>
+      <c r="BG377">
+        <v>2</v>
+      </c>
+      <c r="BH377">
+        <v>3</v>
+      </c>
+      <c r="BI377">
+        <v>4</v>
+      </c>
+      <c r="BJ377">
+        <v>11</v>
+      </c>
+      <c r="BK377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:63">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>2468295</v>
+      </c>
+      <c r="C378" t="s">
+        <v>63</v>
+      </c>
+      <c r="D378" t="s">
+        <v>64</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F378">
+        <v>38</v>
+      </c>
+      <c r="G378" t="s">
+        <v>82</v>
+      </c>
+      <c r="H378" t="s">
+        <v>65</v>
+      </c>
+      <c r="I378">
+        <v>3</v>
+      </c>
+      <c r="J378">
+        <v>1</v>
+      </c>
+      <c r="K378">
+        <v>4</v>
+      </c>
+      <c r="L378">
+        <v>3</v>
+      </c>
+      <c r="M378">
+        <v>1</v>
+      </c>
+      <c r="N378">
+        <v>4</v>
+      </c>
+      <c r="O378" t="s">
+        <v>313</v>
+      </c>
+      <c r="P378" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q378">
+        <v>3</v>
+      </c>
+      <c r="R378">
+        <v>2</v>
+      </c>
+      <c r="S378">
+        <v>5</v>
+      </c>
+      <c r="T378">
+        <v>2.7</v>
+      </c>
+      <c r="U378">
+        <v>2.4</v>
+      </c>
+      <c r="V378">
+        <v>3</v>
+      </c>
+      <c r="W378">
+        <v>1.29</v>
+      </c>
+      <c r="X378">
+        <v>3.5</v>
+      </c>
+      <c r="Y378">
+        <v>2.2</v>
+      </c>
+      <c r="Z378">
+        <v>1.62</v>
+      </c>
+      <c r="AA378">
+        <v>4.5</v>
+      </c>
+      <c r="AB378">
+        <v>1.17</v>
+      </c>
+      <c r="AC378">
+        <v>2.4</v>
+      </c>
+      <c r="AD378">
+        <v>3.9</v>
+      </c>
+      <c r="AE378">
+        <v>2.6</v>
+      </c>
+      <c r="AF378">
+        <v>1.01</v>
+      </c>
+      <c r="AG378">
+        <v>13</v>
+      </c>
+      <c r="AH378">
+        <v>1.14</v>
+      </c>
+      <c r="AI378">
+        <v>5.25</v>
+      </c>
+      <c r="AJ378">
+        <v>1.58</v>
+      </c>
+      <c r="AK378">
+        <v>2.4</v>
+      </c>
+      <c r="AL378">
+        <v>1.45</v>
+      </c>
+      <c r="AM378">
+        <v>2.7</v>
+      </c>
+      <c r="AN378">
+        <v>1.4</v>
+      </c>
+      <c r="AO378">
+        <v>1.25</v>
+      </c>
+      <c r="AP378">
+        <v>1.62</v>
+      </c>
+      <c r="AQ378">
+        <v>1.39</v>
+      </c>
+      <c r="AR378">
+        <v>1.5</v>
+      </c>
+      <c r="AS378">
+        <v>1.47</v>
+      </c>
+      <c r="AT378">
+        <v>1.42</v>
+      </c>
+      <c r="AU378">
+        <v>1.7</v>
+      </c>
+      <c r="AV378">
+        <v>1.55</v>
+      </c>
+      <c r="AW378">
+        <v>3.25</v>
+      </c>
+      <c r="AX378">
+        <v>1.77</v>
+      </c>
+      <c r="AY378">
+        <v>7.5</v>
+      </c>
+      <c r="AZ378">
+        <v>2.4</v>
+      </c>
+      <c r="BA378">
+        <v>1.24</v>
+      </c>
+      <c r="BB378">
+        <v>1.47</v>
+      </c>
+      <c r="BC378">
+        <v>1.8</v>
+      </c>
+      <c r="BD378">
+        <v>2.25</v>
+      </c>
+      <c r="BE378">
+        <v>2.9</v>
+      </c>
+      <c r="BF378">
+        <v>7</v>
+      </c>
+      <c r="BG378">
+        <v>8</v>
+      </c>
+      <c r="BH378">
+        <v>4</v>
+      </c>
+      <c r="BI378">
+        <v>9</v>
+      </c>
+      <c r="BJ378">
+        <v>11</v>
+      </c>
+      <c r="BK378">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:63">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>2468296</v>
+      </c>
+      <c r="C379" t="s">
+        <v>63</v>
+      </c>
+      <c r="D379" t="s">
+        <v>64</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F379">
+        <v>38</v>
+      </c>
+      <c r="G379" t="s">
+        <v>77</v>
+      </c>
+      <c r="H379" t="s">
+        <v>67</v>
+      </c>
+      <c r="I379">
+        <v>2</v>
+      </c>
+      <c r="J379">
+        <v>2</v>
+      </c>
+      <c r="K379">
+        <v>4</v>
+      </c>
+      <c r="L379">
+        <v>2</v>
+      </c>
+      <c r="M379">
+        <v>3</v>
+      </c>
+      <c r="N379">
+        <v>5</v>
+      </c>
+      <c r="O379" t="s">
+        <v>314</v>
+      </c>
+      <c r="P379" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q379">
+        <v>6</v>
+      </c>
+      <c r="R379">
+        <v>2</v>
+      </c>
+      <c r="S379">
+        <v>8</v>
+      </c>
+      <c r="T379">
+        <v>1.51</v>
+      </c>
+      <c r="U379">
+        <v>3.56</v>
+      </c>
+      <c r="V379">
+        <v>8.9</v>
+      </c>
+      <c r="W379">
+        <v>1.17</v>
+      </c>
+      <c r="X379">
+        <v>4.9</v>
+      </c>
+      <c r="Y379">
+        <v>1.85</v>
+      </c>
+      <c r="Z379">
+        <v>1.93</v>
+      </c>
+      <c r="AA379">
+        <v>3.58</v>
+      </c>
+      <c r="AB379">
+        <v>1.28</v>
+      </c>
+      <c r="AC379">
+        <v>1.2</v>
+      </c>
+      <c r="AD379">
+        <v>7</v>
+      </c>
+      <c r="AE379">
+        <v>12</v>
+      </c>
+      <c r="AF379">
+        <v>1</v>
+      </c>
+      <c r="AG379">
+        <v>26</v>
+      </c>
+      <c r="AH379">
+        <v>1.07</v>
+      </c>
+      <c r="AI379">
+        <v>7</v>
+      </c>
+      <c r="AJ379">
+        <v>1.3</v>
+      </c>
+      <c r="AK379">
+        <v>3.6</v>
+      </c>
+      <c r="AL379">
+        <v>1.81</v>
+      </c>
+      <c r="AM379">
+        <v>2.01</v>
+      </c>
+      <c r="AN379">
+        <v>1.04</v>
+      </c>
+      <c r="AO379">
+        <v>1.09</v>
+      </c>
+      <c r="AP379">
+        <v>4.5</v>
+      </c>
+      <c r="AQ379">
+        <v>2.28</v>
+      </c>
+      <c r="AR379">
+        <v>1.44</v>
+      </c>
+      <c r="AS379">
+        <v>2.16</v>
+      </c>
+      <c r="AT379">
+        <v>1.53</v>
+      </c>
+      <c r="AU379">
+        <v>2.03</v>
+      </c>
+      <c r="AV379">
+        <v>1.24</v>
+      </c>
+      <c r="AW379">
+        <v>3.27</v>
+      </c>
+      <c r="AX379">
+        <v>1.41</v>
+      </c>
+      <c r="AY379">
+        <v>8.5</v>
+      </c>
+      <c r="AZ379">
+        <v>3.5</v>
+      </c>
+      <c r="BA379">
+        <v>1.27</v>
+      </c>
+      <c r="BB379">
+        <v>1.53</v>
+      </c>
+      <c r="BC379">
+        <v>1.91</v>
+      </c>
+      <c r="BD379">
+        <v>2.43</v>
+      </c>
+      <c r="BE379">
+        <v>3.25</v>
+      </c>
+      <c r="BF379">
+        <v>7</v>
+      </c>
+      <c r="BG379">
+        <v>6</v>
+      </c>
+      <c r="BH379">
+        <v>7</v>
+      </c>
+      <c r="BI379">
+        <v>5</v>
+      </c>
+      <c r="BJ379">
+        <v>14</v>
+      </c>
+      <c r="BK379">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" spans="1:63">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>2468297</v>
+      </c>
+      <c r="C380" t="s">
+        <v>63</v>
+      </c>
+      <c r="D380" t="s">
+        <v>64</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F380">
+        <v>38</v>
+      </c>
+      <c r="G380" t="s">
+        <v>83</v>
+      </c>
+      <c r="H380" t="s">
+        <v>73</v>
+      </c>
+      <c r="I380">
+        <v>1</v>
+      </c>
+      <c r="J380">
+        <v>2</v>
+      </c>
+      <c r="K380">
+        <v>3</v>
+      </c>
+      <c r="L380">
+        <v>1</v>
+      </c>
+      <c r="M380">
+        <v>2</v>
+      </c>
+      <c r="N380">
+        <v>3</v>
+      </c>
+      <c r="O380" t="s">
+        <v>188</v>
+      </c>
+      <c r="P380" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q380">
+        <v>3</v>
+      </c>
+      <c r="R380">
+        <v>3</v>
+      </c>
+      <c r="S380">
+        <v>6</v>
+      </c>
+      <c r="T380">
+        <v>4.8</v>
+      </c>
+      <c r="U380">
+        <v>2.35</v>
+      </c>
+      <c r="V380">
+        <v>2.1</v>
+      </c>
+      <c r="W380">
+        <v>1.3</v>
+      </c>
+      <c r="X380">
+        <v>3.2</v>
+      </c>
+      <c r="Y380">
+        <v>2.4</v>
+      </c>
+      <c r="Z380">
+        <v>1.5</v>
+      </c>
+      <c r="AA380">
+        <v>5.5</v>
+      </c>
+      <c r="AB380">
+        <v>1.11</v>
+      </c>
+      <c r="AC380">
+        <v>5.5</v>
+      </c>
+      <c r="AD380">
+        <v>4.2</v>
+      </c>
+      <c r="AE380">
+        <v>1.57</v>
+      </c>
+      <c r="AF380">
+        <v>1.02</v>
+      </c>
+      <c r="AG380">
+        <v>12</v>
+      </c>
+      <c r="AH380">
+        <v>1.2</v>
+      </c>
+      <c r="AI380">
+        <v>4.33</v>
+      </c>
+      <c r="AJ380">
+        <v>1.57</v>
+      </c>
+      <c r="AK380">
+        <v>2.38</v>
+      </c>
+      <c r="AL380">
+        <v>1.71</v>
+      </c>
+      <c r="AM380">
+        <v>2.09</v>
+      </c>
+      <c r="AN380">
+        <v>2.32</v>
+      </c>
+      <c r="AO380">
+        <v>1.23</v>
+      </c>
+      <c r="AP380">
+        <v>1.17</v>
+      </c>
+      <c r="AQ380">
+        <v>1.44</v>
+      </c>
+      <c r="AR380">
+        <v>1.11</v>
+      </c>
+      <c r="AS380">
+        <v>1.37</v>
+      </c>
+      <c r="AT380">
+        <v>1.21</v>
+      </c>
+      <c r="AU380">
+        <v>1.49</v>
+      </c>
+      <c r="AV380">
+        <v>1.69</v>
+      </c>
+      <c r="AW380">
+        <v>3.18</v>
+      </c>
+      <c r="AX380">
+        <v>2.43</v>
+      </c>
+      <c r="AY380">
+        <v>7.5</v>
+      </c>
+      <c r="AZ380">
+        <v>1.74</v>
+      </c>
+      <c r="BA380">
+        <v>1.22</v>
+      </c>
+      <c r="BB380">
+        <v>1.41</v>
+      </c>
+      <c r="BC380">
+        <v>1.72</v>
+      </c>
+      <c r="BD380">
+        <v>2.14</v>
+      </c>
+      <c r="BE380">
+        <v>2.75</v>
+      </c>
+      <c r="BF380">
+        <v>6</v>
+      </c>
+      <c r="BG380">
+        <v>4</v>
+      </c>
+      <c r="BH380">
+        <v>4</v>
+      </c>
+      <c r="BI380">
+        <v>6</v>
+      </c>
+      <c r="BJ380">
+        <v>10</v>
+      </c>
+      <c r="BK380">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:63">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>2468299</v>
+      </c>
+      <c r="C381" t="s">
+        <v>63</v>
+      </c>
+      <c r="D381" t="s">
+        <v>64</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F381">
+        <v>38</v>
+      </c>
+      <c r="G381" t="s">
+        <v>78</v>
+      </c>
+      <c r="H381" t="s">
+        <v>69</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381">
+        <v>1</v>
+      </c>
+      <c r="N381">
+        <v>2</v>
+      </c>
+      <c r="O381" t="s">
+        <v>94</v>
+      </c>
+      <c r="P381" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q381">
+        <v>2</v>
+      </c>
+      <c r="R381">
+        <v>8</v>
+      </c>
+      <c r="S381">
+        <v>10</v>
+      </c>
+      <c r="T381">
+        <v>7.5</v>
+      </c>
+      <c r="U381">
+        <v>2.9</v>
+      </c>
+      <c r="V381">
+        <v>1.6</v>
+      </c>
+      <c r="W381">
+        <v>1.2</v>
+      </c>
+      <c r="X381">
+        <v>4</v>
+      </c>
+      <c r="Y381">
+        <v>2.02</v>
+      </c>
+      <c r="Z381">
+        <v>1.83</v>
+      </c>
+      <c r="AA381">
+        <v>3.8</v>
+      </c>
+      <c r="AB381">
+        <v>1.22</v>
+      </c>
+      <c r="AC381">
+        <v>17</v>
+      </c>
+      <c r="AD381">
+        <v>8</v>
+      </c>
+      <c r="AE381">
+        <v>1.14</v>
+      </c>
+      <c r="AF381">
+        <v>1.01</v>
+      </c>
+      <c r="AG381">
+        <v>12</v>
+      </c>
+      <c r="AH381">
+        <v>1.11</v>
+      </c>
+      <c r="AI381">
+        <v>6</v>
+      </c>
+      <c r="AJ381">
+        <v>1.4</v>
+      </c>
+      <c r="AK381">
+        <v>2.95</v>
+      </c>
+      <c r="AL381">
+        <v>1.83</v>
+      </c>
+      <c r="AM381">
+        <v>1.95</v>
+      </c>
+      <c r="AN381">
+        <v>4</v>
+      </c>
+      <c r="AO381">
+        <v>1.11</v>
+      </c>
+      <c r="AP381">
+        <v>1.05</v>
+      </c>
+      <c r="AQ381">
+        <v>0.72</v>
+      </c>
+      <c r="AR381">
+        <v>1.28</v>
+      </c>
+      <c r="AS381">
+        <v>0.74</v>
+      </c>
+      <c r="AT381">
+        <v>1.26</v>
+      </c>
+      <c r="AU381">
+        <v>1.39</v>
+      </c>
+      <c r="AV381">
+        <v>1.75</v>
+      </c>
+      <c r="AW381">
+        <v>3.14</v>
+      </c>
+      <c r="AX381">
+        <v>4.5</v>
+      </c>
+      <c r="AY381">
+        <v>10</v>
+      </c>
+      <c r="AZ381">
+        <v>1.3</v>
+      </c>
+      <c r="BA381">
+        <v>1.19</v>
+      </c>
+      <c r="BB381">
+        <v>1.35</v>
+      </c>
+      <c r="BC381">
+        <v>1.6</v>
+      </c>
+      <c r="BD381">
+        <v>1.98</v>
+      </c>
+      <c r="BE381">
+        <v>2.5</v>
+      </c>
+      <c r="BF381">
+        <v>4</v>
+      </c>
+      <c r="BG381">
+        <v>8</v>
+      </c>
+      <c r="BH381">
+        <v>3</v>
+      </c>
+      <c r="BI381">
+        <v>9</v>
+      </c>
+      <c r="BJ381">
+        <v>7</v>
+      </c>
+      <c r="BK381">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
